--- a/Documentos/Mapeamento das Fontes de Dados/ASPECT/MAPEAMENTO_ASPECT.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/ASPECT/MAPEAMENTO_ASPECT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ASPECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2502BDA7-7D05-48AF-BB03-ECCEA73E5CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DAF59A-49BB-490A-9CE5-5D3EE3EB701E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="937" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="468">
   <si>
     <t>CPF</t>
   </si>
@@ -1781,7 +1781,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1906,17 +1906,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1924,8 +1915,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2530,17 +2521,17 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
     </row>
     <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -3165,17 +3156,17 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -3605,17 +3596,17 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -6739,10 +6730,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B23" sqref="A21:B23"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6780,7 +6771,7 @@
       <c r="E1" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="42" t="s">
         <v>366</v>
       </c>
       <c r="G1" s="35" t="s">
@@ -6826,27 +6817,27 @@
       <c r="F2" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="43" t="s">
         <v>446</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="43" t="s">
         <v>448</v>
       </c>
       <c r="J2" s="38" t="s">
         <v>351</v>
       </c>
-      <c r="K2" s="43"/>
+      <c r="K2" s="38"/>
       <c r="L2" s="38" t="s">
         <v>449</v>
       </c>
-      <c r="M2" s="43"/>
+      <c r="M2" s="38"/>
       <c r="N2" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O2" s="43"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
@@ -6860,18 +6851,18 @@
         <v>50</v>
       </c>
       <c r="E3" s="38"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
       <c r="N3" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O3" s="43"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
@@ -6885,18 +6876,18 @@
         <v>50</v>
       </c>
       <c r="E4" s="38"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
       <c r="N4" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O4" s="43"/>
+      <c r="O4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="36" t="s">
@@ -6910,18 +6901,18 @@
         <v>8</v>
       </c>
       <c r="E5" s="38"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
       <c r="N5" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O5" s="43"/>
+      <c r="O5" s="38"/>
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="36" t="s">
@@ -6935,68 +6926,68 @@
         <v>8</v>
       </c>
       <c r="E6" s="38"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
       <c r="N6" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O6" s="43"/>
+      <c r="O6" s="38"/>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
         <v>20</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
       <c r="N7" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O7" s="43"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47">
+      <c r="C8" s="44"/>
+      <c r="D8" s="44">
         <v>20</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
       <c r="N8" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O8" s="43"/>
+      <c r="O8" s="38"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="38" t="s">
@@ -7013,27 +7004,27 @@
       <c r="F9" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="43" t="s">
         <v>446</v>
       </c>
       <c r="H9" s="38" t="s">
         <v>450</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="43" t="s">
         <v>448</v>
       </c>
       <c r="J9" s="38" t="s">
         <v>451</v>
       </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
       <c r="N9" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O9" s="43"/>
-    </row>
-    <row r="10" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O9" s="38"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="38" t="s">
         <v>433</v>
       </c>
@@ -7048,7 +7039,7 @@
       <c r="F10" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="43" t="s">
         <v>446</v>
       </c>
       <c r="H10" s="38" t="s">
@@ -7060,15 +7051,15 @@
       <c r="J10" s="38" t="s">
         <v>433</v>
       </c>
-      <c r="K10" s="43"/>
+      <c r="K10" s="38"/>
       <c r="L10" s="38" t="s">
         <v>452</v>
       </c>
-      <c r="M10" s="43"/>
+      <c r="M10" s="38"/>
       <c r="N10" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O10" s="43"/>
+      <c r="O10" s="38"/>
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="38" t="s">
@@ -7085,27 +7076,27 @@
       <c r="F11" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="43" t="s">
         <v>446</v>
       </c>
       <c r="H11" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="43" t="s">
         <v>448</v>
       </c>
       <c r="J11" s="38" t="s">
         <v>453</v>
       </c>
-      <c r="K11" s="43"/>
+      <c r="K11" s="38"/>
       <c r="L11" s="38" t="s">
         <v>454</v>
       </c>
-      <c r="M11" s="43"/>
+      <c r="M11" s="38"/>
       <c r="N11" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O11" s="43"/>
+      <c r="O11" s="38"/>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="s">
@@ -7122,7 +7113,7 @@
       <c r="F12" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="43" t="s">
         <v>446</v>
       </c>
       <c r="H12" s="38" t="s">
@@ -7134,13 +7125,13 @@
       <c r="J12" s="38" t="s">
         <v>456</v>
       </c>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
       <c r="N12" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O12" s="43"/>
+      <c r="O12" s="38"/>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="38" t="s">
@@ -7157,7 +7148,7 @@
       <c r="F13" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="43" t="s">
         <v>446</v>
       </c>
       <c r="H13" s="38" t="s">
@@ -7169,13 +7160,13 @@
       <c r="J13" s="38" t="s">
         <v>457</v>
       </c>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
       <c r="N13" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O13" s="43"/>
+      <c r="O13" s="38"/>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="38" t="s">
@@ -7192,7 +7183,7 @@
       <c r="F14" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="43" t="s">
         <v>446</v>
       </c>
       <c r="H14" s="38" t="s">
@@ -7204,13 +7195,13 @@
       <c r="J14" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
       <c r="N14" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O14" s="43"/>
+      <c r="O14" s="38"/>
     </row>
     <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="38" t="s">
@@ -7227,7 +7218,7 @@
       <c r="F15" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="43" t="s">
         <v>446</v>
       </c>
       <c r="H15" s="38" t="s">
@@ -7239,38 +7230,38 @@
       <c r="J15" s="38" t="s">
         <v>459</v>
       </c>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
       <c r="N15" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O15" s="43"/>
+      <c r="O15" s="38"/>
     </row>
     <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47">
+      <c r="C16" s="44"/>
+      <c r="D16" s="44">
         <v>100</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
       <c r="N16" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O16" s="43"/>
+      <c r="O16" s="38"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="38" t="s">
@@ -7287,7 +7278,7 @@
       <c r="F17" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="43" t="s">
         <v>446</v>
       </c>
       <c r="H17" s="38" t="s">
@@ -7299,15 +7290,15 @@
       <c r="J17" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43" t="s">
+      <c r="K17" s="38"/>
+      <c r="L17" s="38" t="s">
         <v>467</v>
       </c>
-      <c r="M17" s="43"/>
+      <c r="M17" s="38"/>
       <c r="N17" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O17" s="43"/>
+      <c r="O17" s="38"/>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="38" t="s">
@@ -7324,27 +7315,27 @@
       <c r="F18" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G18" s="43" t="s">
         <v>446</v>
       </c>
       <c r="H18" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="I18" s="46" t="s">
+      <c r="I18" s="43" t="s">
         <v>448</v>
       </c>
       <c r="J18" s="38" t="s">
         <v>460</v>
       </c>
-      <c r="K18" s="43"/>
+      <c r="K18" s="38"/>
       <c r="L18" s="38" t="s">
         <v>461</v>
       </c>
-      <c r="M18" s="43"/>
+      <c r="M18" s="38"/>
       <c r="N18" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O18" s="43"/>
+      <c r="O18" s="38"/>
     </row>
     <row r="19" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="38" t="s">
@@ -7361,125 +7352,158 @@
       <c r="F19" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="G19" s="43" t="s">
         <v>446</v>
       </c>
       <c r="H19" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="I19" s="46" t="s">
+      <c r="I19" s="43" t="s">
         <v>448</v>
       </c>
       <c r="J19" s="38" t="s">
         <v>460</v>
       </c>
-      <c r="K19" s="43"/>
+      <c r="K19" s="38"/>
       <c r="L19" s="38" t="s">
         <v>462</v>
       </c>
-      <c r="M19" s="43"/>
+      <c r="M19" s="38"/>
       <c r="N19" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O19" s="43"/>
+      <c r="O19" s="38"/>
     </row>
     <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38">
-        <v>11</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="G20" s="45" t="s">
-        <v>446</v>
-      </c>
-      <c r="H20" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="I20" s="46" t="s">
-        <v>448</v>
-      </c>
-      <c r="J20" s="38" t="s">
-        <v>463</v>
-      </c>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="38" t="s">
-        <v>429</v>
-      </c>
-      <c r="O20" s="43"/>
+      <c r="A20" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
     </row>
     <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38">
-        <v>11</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="G21" s="45" t="s">
-        <v>446</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="I21" s="46" t="s">
-        <v>448</v>
-      </c>
-      <c r="J21" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="38" t="s">
-        <v>429</v>
-      </c>
-      <c r="O21" s="43"/>
+      <c r="A21" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="38" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="38">
-        <v>19.2</v>
+        <v>11</v>
       </c>
       <c r="E22" s="38"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
+      <c r="F22" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>446</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="I22" s="43" t="s">
+        <v>448</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
       <c r="N22" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="O22" s="43"/>
+      <c r="O22" s="38"/>
+    </row>
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38">
+        <v>11</v>
+      </c>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>446</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="I23" s="43" t="s">
+        <v>448</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="O23" s="38"/>
+    </row>
+    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38">
+        <v>19.2</v>
+      </c>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="O24" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7614,17 +7638,17 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -8058,17 +8082,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -8431,17 +8455,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
     </row>
     <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -9201,17 +9225,17 @@
       <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -9927,17 +9951,17 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">

--- a/Documentos/Mapeamento das Fontes de Dados/ASPECT/MAPEAMENTO_ASPECT.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/ASPECT/MAPEAMENTO_ASPECT.xlsx
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ASPECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DAF59A-49BB-490A-9CE5-5D3EE3EB701E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10401EC6-D388-4884-B94D-57187D2A5D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="937" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" firstSheet="2" activeTab="6" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
     <sheet name="CHAVES" sheetId="15" state="hidden" r:id="rId2"/>
-    <sheet name="ACIONA_DISCADOR" sheetId="3" r:id="rId3"/>
+    <sheet name="ACIONA_DISCADOR_OUTBOUND" sheetId="3" r:id="rId3"/>
     <sheet name="ACIONA_CRM" sheetId="2" state="hidden" r:id="rId4"/>
     <sheet name="TELEFONE" sheetId="16" state="hidden" r:id="rId5"/>
     <sheet name="EMAIL" sheetId="17" state="hidden" r:id="rId6"/>
-    <sheet name="MULTICANAIS" sheetId="9" r:id="rId7"/>
-    <sheet name="CADASTRO" sheetId="14" state="hidden" r:id="rId8"/>
-    <sheet name="CARTEIRA ATIVA" sheetId="1" state="hidden" r:id="rId9"/>
-    <sheet name="DEXPARA" sheetId="6" state="hidden" r:id="rId10"/>
-    <sheet name="ACORDOS" sheetId="7" state="hidden" r:id="rId11"/>
-    <sheet name="PAGAMENTOS" sheetId="8" state="hidden" r:id="rId12"/>
-    <sheet name="TEMPOS" sheetId="4" r:id="rId13"/>
-    <sheet name="PAUSAS" sheetId="13" r:id="rId14"/>
-    <sheet name="PESQUISA" sheetId="5" r:id="rId15"/>
-    <sheet name="DEADLINE" sheetId="19" state="hidden" r:id="rId16"/>
+    <sheet name="ACIONA_DISCADOR_INBOUND" sheetId="20" r:id="rId7"/>
+    <sheet name="MULTICANAIS" sheetId="9" r:id="rId8"/>
+    <sheet name="CADASTRO" sheetId="14" state="hidden" r:id="rId9"/>
+    <sheet name="CARTEIRA ATIVA" sheetId="1" state="hidden" r:id="rId10"/>
+    <sheet name="DEXPARA" sheetId="6" state="hidden" r:id="rId11"/>
+    <sheet name="ACORDOS" sheetId="7" state="hidden" r:id="rId12"/>
+    <sheet name="PAGAMENTOS" sheetId="8" state="hidden" r:id="rId13"/>
+    <sheet name="TEMPOS" sheetId="4" r:id="rId14"/>
+    <sheet name="PAUSAS" sheetId="13" r:id="rId15"/>
+    <sheet name="PESQUISA" sheetId="5" r:id="rId16"/>
+    <sheet name="DEADLINE" sheetId="19" state="hidden" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="473">
   <si>
     <t>CPF</t>
   </si>
@@ -704,9 +705,6 @@
     <t>NUMERO DO CPF, DEVEDOR_ID, IDENTIFICADOR_ID OU TITULO_ID QUE ESTIVER PRESENTE NA BASE DE DADOS DO DISCADOR</t>
   </si>
   <si>
-    <t>ID ÚNICO DA CHAMADA ESPEDIDO PELO DISCADOR</t>
-  </si>
-  <si>
     <t>MAILING REGISTRADO ATRELADO A CAMPANHA</t>
   </si>
   <si>
@@ -722,12 +720,6 @@
     <t>TELEFONE DISCADO</t>
   </si>
   <si>
-    <t>CUSTO POR TER DISCADO</t>
-  </si>
-  <si>
-    <t>SE FOI ATIVO OU RECEPTIVO</t>
-  </si>
-  <si>
     <t>ID DA CARTEIRA NO CRM IMPLANTADO</t>
   </si>
   <si>
@@ -1409,15 +1401,9 @@
     <t>User_Id</t>
   </si>
   <si>
-    <t>CONCAT([U].[User_F_Name],' ',[U].[User_L_Name])</t>
-  </si>
-  <si>
     <t>IDCALL</t>
   </si>
   <si>
-    <t>CONCAT([CD].[SeqNum],[CD].[CallId]) AS IDCALL</t>
-  </si>
-  <si>
     <t>Service</t>
   </si>
   <si>
@@ -1445,9 +1431,6 @@
     <t>DialedNum</t>
   </si>
   <si>
-    <t>CallTypeId</t>
-  </si>
-  <si>
     <t>RouteAccess</t>
   </si>
   <si>
@@ -1455,6 +1438,49 @@
   </si>
   <si>
     <t xml:space="preserve">Cruzando o Service.RouteAccess_Id com RouteAccess.RouteAccess_Id </t>
+  </si>
+  <si>
+    <t>Param3</t>
+  </si>
+  <si>
+    <t>MediaDataDetail</t>
+  </si>
+  <si>
+    <r>
+      <t>Concat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(detail_epro.dbo.MediaDataDetail.SeqNum, detail_epro.dbo.MediaDataDetail.CallId) as idCall    CRUZANDO ESSE CAMPO COM o CONCAT([Calldetail].[SeqNum],[Calldetail].[CallId]) as IDCALL , se obtem o cust code que é o  (Param3)</t>
+    </r>
+  </si>
+  <si>
+    <t>FIM_FILA</t>
+  </si>
+  <si>
+    <t>QUANDO O CLIENTE SAIU DA FILA</t>
+  </si>
+  <si>
+    <t>INICIO_FILA</t>
+  </si>
+  <si>
+    <t>QUANDO O CLIENTE ENTROU NA FILA</t>
+  </si>
+  <si>
+    <t>ID ÚNICO DA CHAMADA EXPEDIDO PELO DISCADOR</t>
+  </si>
+  <si>
+    <t>CONCAT([U].[User_F_Name],' ',[U].[User_L_Name]) as AGENTE</t>
+  </si>
+  <si>
+    <t>cruzando o detail_epro.Calldetail.User_id com o config_epro.Users.User_Id</t>
+  </si>
+  <si>
+    <t>CONCAT([Calldetail].[SeqNum],[Calldetail].[CallId]) AS IDCALL</t>
   </si>
 </sst>
 </file>
@@ -1465,7 +1491,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1548,6 +1574,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1909,14 +1940,14 @@
     <xf numFmtId="0" fontId="9" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2252,10 +2283,10 @@
         <v>193</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2329,6 +2360,888 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE88DAFB-0E6A-4114-9298-6358DAA44DC1}">
+  <dimension ref="A1:AL42"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="48.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="52.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="34" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>44593</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="1">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1">
+        <v>61568876989</v>
+      </c>
+      <c r="M2" s="1">
+        <v>78546589</v>
+      </c>
+      <c r="N2" s="1">
+        <v>75477856</v>
+      </c>
+      <c r="O2" s="1">
+        <v>12457856</v>
+      </c>
+      <c r="P2" s="2">
+        <v>44593</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>44622</v>
+      </c>
+      <c r="R2" s="2">
+        <v>44617</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="2">
+        <v>44586</v>
+      </c>
+      <c r="U2" s="2">
+        <v>44586</v>
+      </c>
+      <c r="V2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="W2" s="3">
+        <v>13535</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="16">
+        <v>44566.370775462965</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="I4" s="44" t="s">
+        <v>406</v>
+      </c>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+    </row>
+    <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="P5" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q5" s="31" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E6" s="1">
+        <v>50</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E7" s="1">
+        <v>50</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E13" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E16" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E17" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E18" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E19" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E20" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E21" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E22" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E23" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E24" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E25" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="1">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="1">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E28" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f t="shared" ref="E31:E42" si="0">RIGHT(C31,4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I4:Q4"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B44F7F0-7B7D-413E-AA95-E491BFA5A425}">
   <dimension ref="A1:Y29"/>
   <sheetViews>
@@ -2521,17 +3434,17 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I3" s="45" t="s">
-        <v>409</v>
-      </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
+      <c r="I3" s="44" t="s">
+        <v>406</v>
+      </c>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
     </row>
     <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -2541,10 +3454,10 @@
         <v>190</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>187</v>
@@ -2559,31 +3472,31 @@
         <v>193</v>
       </c>
       <c r="I4" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="L4" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="M4" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="N4" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="O4" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="P4" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="Q4" s="31" t="s">
         <v>371</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -2591,34 +3504,34 @@
         <v>84</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>400</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -2629,31 +3542,31 @@
         <v>188</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>400</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -2664,7 +3577,7 @@
         <v>189</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E7" s="1">
         <v>50</v>
@@ -2675,10 +3588,10 @@
         <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -2692,7 +3605,7 @@
         <v>194</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
@@ -2703,10 +3616,10 @@
         <v>147</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E10" s="1">
         <v>20</v>
@@ -2717,10 +3630,10 @@
         <v>148</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E11" s="1">
         <v>50</v>
@@ -2731,10 +3644,10 @@
         <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E12" s="1">
         <v>20</v>
@@ -2745,10 +3658,10 @@
         <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
@@ -2759,16 +3672,16 @@
         <v>144</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
@@ -2776,16 +3689,16 @@
         <v>93</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
@@ -2793,16 +3706,16 @@
         <v>94</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2810,16 +3723,16 @@
         <v>95</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -2827,16 +3740,16 @@
         <v>96</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2844,16 +3757,16 @@
         <v>97</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2861,16 +3774,16 @@
         <v>98</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2878,16 +3791,16 @@
         <v>99</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2895,16 +3808,16 @@
         <v>100</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2912,16 +3825,16 @@
         <v>101</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2929,16 +3842,16 @@
         <v>102</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2946,16 +3859,16 @@
         <v>103</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2963,16 +3876,16 @@
         <v>104</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2980,16 +3893,16 @@
         <v>105</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2997,16 +3910,16 @@
         <v>145</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -3031,7 +3944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4503D2B1-6995-4181-A579-EBD303531330}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -3156,17 +4069,17 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="45" t="s">
-        <v>409</v>
-      </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
+      <c r="I4" s="44" t="s">
+        <v>406</v>
+      </c>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -3176,10 +4089,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -3194,31 +4107,31 @@
         <v>193</v>
       </c>
       <c r="I5" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="L5" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="M5" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="N5" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="O5" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="P5" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="Q5" s="31" t="s">
         <v>371</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,36 +4139,36 @@
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,33 +4179,33 @@
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E7" s="5">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,7 +4216,7 @@
         <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E8" s="5">
         <v>50</v>
@@ -3314,10 +4227,10 @@
         <v>85</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
@@ -3331,7 +4244,7 @@
         <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
@@ -3342,10 +4255,10 @@
         <v>106</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
@@ -3359,7 +4272,7 @@
         <v>216</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E12" s="5">
         <v>20</v>
@@ -3370,10 +4283,10 @@
         <v>139</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E13" s="5">
         <v>20</v>
@@ -3384,10 +4297,10 @@
         <v>140</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E14" s="5">
         <v>100</v>
@@ -3398,10 +4311,10 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E15" s="5">
         <v>20</v>
@@ -3412,10 +4325,10 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E16" s="5">
         <v>50</v>
@@ -3426,7 +4339,7 @@
         <v>112</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>180</v>
@@ -3443,7 +4356,7 @@
         <v>213</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E18" s="5">
         <v>20</v>
@@ -3457,7 +4370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5638346-13E4-4391-8323-38C7FA4704D0}">
   <dimension ref="A1:R20"/>
   <sheetViews>
@@ -3596,17 +4509,17 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J4" s="45" t="s">
-        <v>409</v>
-      </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
+      <c r="J4" s="44" t="s">
+        <v>406</v>
+      </c>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -3616,10 +4529,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -3634,31 +4547,31 @@
         <v>193</v>
       </c>
       <c r="I5" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="L5" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="M5" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="N5" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="O5" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="P5" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="Q5" s="31" t="s">
         <v>371</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -3666,36 +4579,36 @@
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -3706,33 +4619,33 @@
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E7" s="5">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -3743,7 +4656,7 @@
         <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E8" s="5">
         <v>50</v>
@@ -3754,10 +4667,10 @@
         <v>85</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
@@ -3771,7 +4684,7 @@
         <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
@@ -3782,10 +4695,10 @@
         <v>106</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
@@ -3796,10 +4709,10 @@
         <v>108</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E12" s="5">
         <v>20</v>
@@ -3813,7 +4726,7 @@
         <v>216</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E13" s="5">
         <v>20</v>
@@ -3824,10 +4737,10 @@
         <v>139</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E14" s="5">
         <v>20</v>
@@ -3838,10 +4751,10 @@
         <v>140</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E15" s="5">
         <v>100</v>
@@ -3852,16 +4765,16 @@
         <v>109</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E16" s="5">
         <v>20</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3869,10 +4782,10 @@
         <v>52</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E17" s="5">
         <v>20</v>
@@ -3883,10 +4796,10 @@
         <v>53</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E18" s="5">
         <v>50</v>
@@ -3897,7 +4810,7 @@
         <v>113</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>180</v>
@@ -3914,7 +4827,7 @@
         <v>213</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E20" s="5">
         <v>20</v>
@@ -3928,7 +4841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3224E281-B9C3-43DE-9C24-CA7016DDAC13}">
   <dimension ref="A1:O25"/>
   <sheetViews>
@@ -3965,7 +4878,7 @@
         <v>190</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>187</v>
@@ -3974,34 +4887,34 @@
         <v>191</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="L1" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>374</v>
-      </c>
       <c r="O1" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -4009,33 +4922,33 @@
         <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D2" s="5">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -4049,27 +4962,27 @@
         <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -4088,7 +5001,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D5" s="5">
         <v>8</v>
@@ -4110,7 +5023,7 @@
         <v>141</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D7" s="5">
         <v>20</v>
@@ -4121,7 +5034,7 @@
         <v>142</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D8" s="5">
         <v>100</v>
@@ -4132,7 +5045,7 @@
         <v>73</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D9" s="5">
         <v>8</v>
@@ -4143,7 +5056,7 @@
         <v>74</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D10" s="5">
         <v>8</v>
@@ -4154,7 +5067,7 @@
         <v>75</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D11" s="5">
         <v>4</v>
@@ -4165,7 +5078,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D12" s="5">
         <v>4</v>
@@ -4176,7 +5089,7 @@
         <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D13" s="5">
         <v>4</v>
@@ -4187,7 +5100,7 @@
         <v>62</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D14" s="5">
         <v>8</v>
@@ -4195,10 +5108,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D15" s="5">
         <v>8</v>
@@ -4209,7 +5122,7 @@
         <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D16" s="5">
         <v>8</v>
@@ -4220,7 +5133,7 @@
         <v>64</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D17" s="5">
         <v>8</v>
@@ -4231,7 +5144,7 @@
         <v>65</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D18" s="5">
         <v>8</v>
@@ -4242,7 +5155,7 @@
         <v>66</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D19" s="5">
         <v>8</v>
@@ -4253,7 +5166,7 @@
         <v>67</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D20" s="5">
         <v>8</v>
@@ -4264,7 +5177,7 @@
         <v>69</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D21" s="5">
         <v>8</v>
@@ -4275,7 +5188,7 @@
         <v>71</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D22" s="5">
         <v>8</v>
@@ -4286,7 +5199,7 @@
         <v>70</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D23" s="5">
         <v>8</v>
@@ -4297,7 +5210,7 @@
         <v>72</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D24" s="5">
         <v>8</v>
@@ -4319,7 +5232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76B7F98-F046-4D38-B531-0938E5524784}">
   <dimension ref="A1:O15"/>
   <sheetViews>
@@ -4351,7 +5264,7 @@
         <v>190</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>187</v>
@@ -4360,34 +5273,34 @@
         <v>191</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="L1" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>374</v>
-      </c>
       <c r="O1" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -4395,33 +5308,33 @@
         <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D2" s="5">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -4435,27 +5348,27 @@
         <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -4475,7 +5388,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D5" s="5">
         <v>8</v>
@@ -4497,7 +5410,7 @@
         <v>141</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D7" s="5">
         <v>20</v>
@@ -4508,7 +5421,7 @@
         <v>142</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D8" s="5">
         <v>100</v>
@@ -4519,7 +5432,7 @@
         <v>77</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D9" s="5">
         <v>8</v>
@@ -4530,7 +5443,7 @@
         <v>78</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D10" s="5">
         <v>8</v>
@@ -4541,7 +5454,7 @@
         <v>63</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D11" s="5">
         <v>8</v>
@@ -4552,7 +5465,7 @@
         <v>80</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D12" s="5">
         <v>50</v>
@@ -4563,7 +5476,7 @@
         <v>79</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D13" s="5">
         <v>4</v>
@@ -4574,7 +5487,7 @@
         <v>81</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D14" s="5">
         <v>20</v>
@@ -4596,7 +5509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920C411-EA90-40BF-87D0-8A7E5345C20C}">
   <dimension ref="A1:O11"/>
   <sheetViews>
@@ -4628,7 +5541,7 @@
         <v>190</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>187</v>
@@ -4637,34 +5550,34 @@
         <v>191</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="L1" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>374</v>
-      </c>
       <c r="O1" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -4672,33 +5585,33 @@
         <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D2" s="5">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -4712,27 +5625,27 @@
         <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -4751,7 +5664,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D5" s="5">
         <v>8</v>
@@ -4773,7 +5686,7 @@
         <v>141</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D7" s="5">
         <v>20</v>
@@ -4784,7 +5697,7 @@
         <v>142</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D8" s="5">
         <v>100</v>
@@ -4795,7 +5708,7 @@
         <v>82</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D9" s="5">
         <v>2</v>
@@ -4806,7 +5719,7 @@
         <v>83</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D10" s="5">
         <v>20</v>
@@ -4828,7 +5741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE3E272-40FD-4D6E-8CC1-A618C9F1A948}">
   <dimension ref="G2:K15"/>
   <sheetViews>
@@ -4849,18 +5762,18 @@
         <v>193</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G3" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H3" s="32">
         <v>45467</v>
@@ -4869,12 +5782,12 @@
         <v>45471</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G4" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H4" s="32">
         <v>45474</v>
@@ -4883,12 +5796,12 @@
         <v>45476</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G5" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H5" s="32">
         <v>45477</v>
@@ -4897,12 +5810,12 @@
         <v>45481</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G6" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H6" s="32">
         <v>45482</v>
@@ -4911,12 +5824,12 @@
         <v>45484</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G7" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H7" s="32">
         <v>45488</v>
@@ -4925,12 +5838,12 @@
         <v>45490</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G8" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H8" s="32">
         <v>45491</v>
@@ -4939,12 +5852,12 @@
         <v>45495</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G9" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H9" s="32">
         <v>45496</v>
@@ -4953,12 +5866,12 @@
         <v>45502</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G10" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H10" s="32">
         <v>45503</v>
@@ -4967,12 +5880,12 @@
         <v>45504</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G11" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H11" s="32">
         <v>45505</v>
@@ -4981,12 +5894,12 @@
         <v>45509</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G12" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H12" s="32">
         <v>45510</v>
@@ -4995,12 +5908,12 @@
         <v>45512</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G13" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H13" s="32">
         <v>45513</v>
@@ -5009,12 +5922,12 @@
         <v>45517</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G14" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H14" s="32">
         <v>45518</v>
@@ -5023,12 +5936,12 @@
         <v>45520</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G15" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H15" s="32">
         <v>45523</v>
@@ -5037,7 +5950,7 @@
         <v>45525</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -5108,51 +6021,51 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="AC1" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
@@ -5890,7 +6803,7 @@
         <v>178</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AD11" s="1" t="s">
         <v>171</v>
@@ -5970,7 +6883,7 @@
         <v>178</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AD12" s="1" t="s">
         <v>171</v>
@@ -6050,7 +6963,7 @@
         <v>171</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AD13" s="1" t="s">
         <v>171</v>
@@ -6124,7 +7037,7 @@
         <v>179</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AD14" s="1" t="s">
         <v>171</v>
@@ -6198,7 +7111,7 @@
         <v>178</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AD15" s="1" t="s">
         <v>171</v>
@@ -6260,7 +7173,7 @@
         <v>181</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AD16" s="1" t="s">
         <v>171</v>
@@ -6292,7 +7205,7 @@
         <v>183</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>183</v>
@@ -6316,7 +7229,7 @@
         <v>178</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AD17" s="1" t="s">
         <v>171</v>
@@ -6366,7 +7279,7 @@
         <v>172</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AD18" s="1" t="s">
         <v>171</v>
@@ -6404,7 +7317,7 @@
         <v>183</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AD19" s="1" t="s">
         <v>171</v>
@@ -6436,7 +7349,7 @@
         <v>183</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AD20" s="1" t="s">
         <v>171</v>
@@ -6462,7 +7375,7 @@
         <v>183</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AD21" s="1" t="s">
         <v>171</v>
@@ -6488,7 +7401,7 @@
         <v>183</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AD22" s="1" t="s">
         <v>171</v>
@@ -6514,7 +7427,7 @@
         <v>183</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AD23" s="1" t="s">
         <v>171</v>
@@ -6540,7 +7453,7 @@
         <v>183</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AD24" s="1" t="s">
         <v>171</v>
@@ -6566,7 +7479,7 @@
         <v>183</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AD25" s="1" t="s">
         <v>171</v>
@@ -6592,7 +7505,7 @@
         <v>183</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AD26" s="1" t="s">
         <v>171</v>
@@ -6606,7 +7519,7 @@
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>179</v>
@@ -6730,10 +7643,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6745,7 +7658,7 @@
     <col min="6" max="6" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="1" customWidth="1"/>
     <col min="10" max="10" width="19.44140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="58.21875" style="1" bestFit="1" customWidth="1"/>
@@ -6763,7 +7676,7 @@
         <v>190</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>187</v>
@@ -6772,34 +7685,34 @@
         <v>191</v>
       </c>
       <c r="F1" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="J1" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="K1" s="35" t="s">
         <v>368</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="L1" s="35" t="s">
         <v>369</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="M1" s="37" t="s">
         <v>370</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="N1" s="37" t="s">
         <v>371</v>
       </c>
-      <c r="L1" s="35" t="s">
-        <v>372</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>373</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>374</v>
-      </c>
       <c r="O1" s="38" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6815,27 +7728,27 @@
       </c>
       <c r="E2" s="38"/>
       <c r="F2" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="I2" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="G2" s="43" t="s">
-        <v>446</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>448</v>
-      </c>
       <c r="J2" s="38" t="s">
-        <v>351</v>
+        <v>455</v>
       </c>
       <c r="K2" s="38"/>
       <c r="L2" s="38" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M2" s="38"/>
       <c r="N2" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O2" s="38"/>
     </row>
@@ -6852,15 +7765,15 @@
       </c>
       <c r="E3" s="38"/>
       <c r="F3" s="38"/>
-      <c r="G3" s="43"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="38"/>
-      <c r="I3" s="43"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="38"/>
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
       <c r="N3" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O3" s="38"/>
     </row>
@@ -6885,7 +7798,7 @@
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
       <c r="N4" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O4" s="38"/>
     </row>
@@ -6894,7 +7807,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="36">
@@ -6910,7 +7823,7 @@
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
       <c r="N5" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O5" s="38"/>
     </row>
@@ -6935,66 +7848,78 @@
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
       <c r="N6" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O6" s="38"/>
     </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="44" t="s">
+    <row r="7" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
         <v>20</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>462</v>
+      </c>
       <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
+      <c r="L7" s="45" t="s">
+        <v>464</v>
+      </c>
       <c r="M7" s="38"/>
       <c r="N7" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>430</v>
-      </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44">
+      <c r="B8" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38">
         <v>20</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
       <c r="N8" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O8" s="38"/>
+    </row>
+    <row r="9" spans="1:15" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="B9" s="38" t="s">
         <v>429</v>
-      </c>
-      <c r="O8" s="38"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="38" t="s">
-        <v>431</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>432</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="38">
@@ -7002,34 +7927,36 @@
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="I9" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="G9" s="43" t="s">
-        <v>446</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>450</v>
-      </c>
-      <c r="I9" s="43" t="s">
+      <c r="J9" s="38" t="s">
         <v>448</v>
       </c>
-      <c r="J9" s="38" t="s">
-        <v>451</v>
-      </c>
       <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
+      <c r="L9" s="38" t="s">
+        <v>471</v>
+      </c>
       <c r="M9" s="38"/>
       <c r="N9" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O9" s="38"/>
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="38" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="38">
@@ -7037,27 +7964,27 @@
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>446</v>
+        <v>442</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>443</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="K10" s="38"/>
       <c r="L10" s="38" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="M10" s="38"/>
       <c r="N10" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O10" s="38"/>
     </row>
@@ -7066,7 +7993,7 @@
         <v>215</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>217</v>
+        <v>469</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="38">
@@ -7074,36 +8001,36 @@
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="I11" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="G11" s="43" t="s">
-        <v>446</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="I11" s="43" t="s">
-        <v>448</v>
-      </c>
       <c r="J11" s="38" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="K11" s="38"/>
       <c r="L11" s="38" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="M11" s="38"/>
       <c r="N11" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O11" s="38"/>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="38">
@@ -7111,34 +8038,34 @@
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>446</v>
+        <v>442</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>443</v>
       </c>
       <c r="H12" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="I12" s="38" t="s">
         <v>450</v>
       </c>
-      <c r="I12" s="38" t="s">
-        <v>455</v>
-      </c>
       <c r="J12" s="38" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="K12" s="38"/>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
       <c r="N12" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O12" s="38"/>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="38" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="38">
@@ -7146,34 +8073,34 @@
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>446</v>
+        <v>442</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>443</v>
       </c>
       <c r="H13" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="I13" s="38" t="s">
         <v>450</v>
       </c>
-      <c r="I13" s="38" t="s">
-        <v>455</v>
-      </c>
       <c r="J13" s="38" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
       <c r="N13" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O13" s="38"/>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="38" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="38">
@@ -7181,34 +8108,34 @@
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="G14" s="43" t="s">
-        <v>446</v>
+        <v>442</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>443</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
       <c r="N14" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O14" s="38"/>
     </row>
     <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="38" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="38">
@@ -7216,50 +8143,50 @@
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>446</v>
+        <v>442</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>443</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
       <c r="N15" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O15" s="38"/>
     </row>
     <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44">
+      <c r="B16" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43">
         <v>100</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
       <c r="K16" s="38"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O16" s="38"/>
     </row>
@@ -7268,7 +8195,7 @@
         <v>44</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="38">
@@ -7276,27 +8203,27 @@
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>446</v>
+        <v>442</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>443</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="K17" s="38"/>
       <c r="L17" s="38" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="M17" s="38"/>
       <c r="N17" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O17" s="38"/>
     </row>
@@ -7305,7 +8232,7 @@
         <v>47</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="38">
@@ -7313,27 +8240,27 @@
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="I18" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="G18" s="43" t="s">
-        <v>446</v>
-      </c>
-      <c r="H18" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>448</v>
-      </c>
       <c r="J18" s="38" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="K18" s="38"/>
       <c r="L18" s="38" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M18" s="38"/>
       <c r="N18" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O18" s="38"/>
     </row>
@@ -7342,7 +8269,7 @@
         <v>48</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="38">
@@ -7350,68 +8277,68 @@
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="I19" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="G19" s="43" t="s">
-        <v>446</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="I19" s="43" t="s">
-        <v>448</v>
-      </c>
       <c r="J19" s="38" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="K19" s="38"/>
       <c r="L19" s="38" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="M19" s="38"/>
       <c r="N19" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O19" s="38"/>
     </row>
     <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
+      <c r="B20" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
     </row>
     <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="44" t="s">
-        <v>233</v>
-      </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
+      <c r="B21" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="38" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="38">
@@ -7419,87 +8346,27 @@
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="I22" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="G22" s="43" t="s">
-        <v>446</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="I22" s="43" t="s">
-        <v>448</v>
-      </c>
       <c r="J22" s="38" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
       <c r="M22" s="38"/>
       <c r="N22" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O22" s="38"/>
-    </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38">
-        <v>11</v>
-      </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="G23" s="43" t="s">
-        <v>446</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="I23" s="43" t="s">
-        <v>448</v>
-      </c>
-      <c r="J23" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38" t="s">
-        <v>429</v>
-      </c>
-      <c r="O23" s="38"/>
-    </row>
-    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38">
-        <v>19.2</v>
-      </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38" t="s">
-        <v>429</v>
-      </c>
-      <c r="O24" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -7638,17 +8505,17 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="45" t="s">
-        <v>409</v>
-      </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
+      <c r="I4" s="44" t="s">
+        <v>406</v>
+      </c>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -7658,10 +8525,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -7676,31 +8543,31 @@
         <v>193</v>
       </c>
       <c r="I5" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="L5" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="M5" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="N5" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="O5" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="P5" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="Q5" s="31" t="s">
         <v>371</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7708,36 +8575,36 @@
         <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,33 +8615,33 @@
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E7" s="5">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7785,7 +8652,7 @@
         <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E8" s="5">
         <v>50</v>
@@ -7796,10 +8663,10 @@
         <v>85</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
@@ -7813,7 +8680,7 @@
         <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
@@ -7827,7 +8694,7 @@
         <v>216</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
@@ -7838,10 +8705,10 @@
         <v>139</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E12" s="5">
         <v>20</v>
@@ -7852,10 +8719,10 @@
         <v>140</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E13" s="5">
         <v>100</v>
@@ -7866,10 +8733,10 @@
         <v>52</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E14" s="5">
         <v>20</v>
@@ -7880,10 +8747,10 @@
         <v>53</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E15" s="5">
         <v>50</v>
@@ -7894,10 +8761,10 @@
         <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E16" s="5">
         <v>8</v>
@@ -7908,10 +8775,10 @@
         <v>48</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E17" s="5">
         <v>8</v>
@@ -7922,10 +8789,10 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E18" s="5">
         <v>8</v>
@@ -7936,10 +8803,10 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E19" s="5">
         <v>8</v>
@@ -7950,10 +8817,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E20" s="5">
         <v>11</v>
@@ -7967,7 +8834,7 @@
         <v>213</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E21" s="5">
         <v>20</v>
@@ -8082,17 +8949,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="45" t="s">
-        <v>409</v>
-      </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
+      <c r="I3" s="44" t="s">
+        <v>406</v>
+      </c>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -8102,10 +8969,10 @@
         <v>190</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>187</v>
@@ -8120,31 +8987,31 @@
         <v>193</v>
       </c>
       <c r="I4" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="L4" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="M4" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="N4" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="O4" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="P4" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="Q4" s="31" t="s">
         <v>371</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8152,34 +9019,34 @@
         <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E5" s="1">
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>405</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8190,34 +9057,34 @@
         <v>216</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E6" s="1">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8225,10 +9092,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E7" s="1">
         <v>11</v>
@@ -8242,7 +9109,7 @@
         <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E8" s="1">
         <v>50</v>
@@ -8256,7 +9123,7 @@
         <v>189</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -8267,10 +9134,10 @@
         <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -8284,7 +9151,7 @@
         <v>194</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
@@ -8295,10 +9162,10 @@
         <v>119</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -8309,10 +9176,10 @@
         <v>120</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E13" s="1">
         <v>20</v>
@@ -8323,10 +9190,10 @@
         <v>121</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -8340,7 +9207,7 @@
         <v>213</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E15" s="1">
         <v>20</v>
@@ -8455,17 +9322,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="45" t="s">
-        <v>409</v>
-      </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
+      <c r="I3" s="44" t="s">
+        <v>406</v>
+      </c>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
     </row>
     <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -8475,10 +9342,10 @@
         <v>190</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>187</v>
@@ -8493,31 +9360,31 @@
         <v>193</v>
       </c>
       <c r="I4" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="L4" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="M4" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="N4" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="O4" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="P4" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="Q4" s="31" t="s">
         <v>371</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8525,34 +9392,34 @@
         <v>123</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E5" s="1">
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8563,34 +9430,34 @@
         <v>216</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E6" s="1">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8598,10 +9465,10 @@
         <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E7" s="1">
         <v>11</v>
@@ -8615,7 +9482,7 @@
         <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E8" s="1">
         <v>50</v>
@@ -8629,7 +9496,7 @@
         <v>189</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -8640,10 +9507,10 @@
         <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -8657,7 +9524,7 @@
         <v>194</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
@@ -8668,10 +9535,10 @@
         <v>125</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -8682,10 +9549,10 @@
         <v>127</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E13" s="1">
         <v>20</v>
@@ -8696,10 +9563,10 @@
         <v>121</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -8713,7 +9580,7 @@
         <v>213</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E15" s="1">
         <v>20</v>
@@ -8737,6 +9604,795 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EE7B5B-550E-4665-B6EF-861CC74C178B}">
+  <dimension ref="A1:O24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="109.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="58.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="50.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>371</v>
+      </c>
+      <c r="O1" s="38" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
+        <v>10</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>455</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38" t="s">
+        <v>446</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O2" s="38"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36">
+        <v>50</v>
+      </c>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O3" s="38"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36">
+        <v>50</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O4" s="38"/>
+    </row>
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36">
+        <v>8</v>
+      </c>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36">
+        <v>8</v>
+      </c>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O6" s="38"/>
+    </row>
+    <row r="7" spans="1:15" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
+        <v>20</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="45" t="s">
+        <v>464</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38">
+        <v>20</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O8" s="38"/>
+    </row>
+    <row r="9" spans="1:15" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38">
+        <v>15</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O9" s="38"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="38" t="s">
+        <v>430</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38">
+        <v>15</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>432</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>430</v>
+      </c>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O10" s="38"/>
+    </row>
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38">
+        <v>20</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O11" s="38"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38">
+        <v>8</v>
+      </c>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>450</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O12" s="38"/>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="38" t="s">
+        <v>435</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>436</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38">
+        <v>200</v>
+      </c>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>450</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>452</v>
+      </c>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O13" s="38"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="38" t="s">
+        <v>437</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>438</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38">
+        <v>8</v>
+      </c>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>453</v>
+      </c>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O14" s="38"/>
+    </row>
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="38" t="s">
+        <v>440</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38">
+        <v>200</v>
+      </c>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>454</v>
+      </c>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O15" s="38"/>
+    </row>
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43">
+        <v>100</v>
+      </c>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O16" s="38"/>
+    </row>
+    <row r="17" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38">
+        <v>20</v>
+      </c>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>460</v>
+      </c>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O17" s="38"/>
+    </row>
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38">
+        <v>10</v>
+      </c>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>455</v>
+      </c>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38" t="s">
+        <v>456</v>
+      </c>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O18" s="38"/>
+    </row>
+    <row r="19" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38">
+        <v>10</v>
+      </c>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>455</v>
+      </c>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O19" s="38"/>
+    </row>
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43">
+        <v>10</v>
+      </c>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43" t="s">
+        <v>442</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>443</v>
+      </c>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+    </row>
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43">
+        <v>10</v>
+      </c>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43" t="s">
+        <v>442</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>443</v>
+      </c>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+    </row>
+    <row r="22" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>468</v>
+      </c>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43">
+        <v>10</v>
+      </c>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43" t="s">
+        <v>442</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>443</v>
+      </c>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+    </row>
+    <row r="23" spans="1:15" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="43" t="s">
+        <v>465</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>466</v>
+      </c>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43">
+        <v>10</v>
+      </c>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43" t="s">
+        <v>442</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>443</v>
+      </c>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+    </row>
+    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38">
+        <v>11</v>
+      </c>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="I24" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="J24" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="O24" s="38"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B8EF36-DED1-4AE4-8E82-79A80977A3B5}">
   <dimension ref="A1:O16"/>
   <sheetViews>
@@ -8771,7 +10427,7 @@
         <v>190</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>187</v>
@@ -8780,34 +10436,34 @@
         <v>191</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="L1" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>374</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -8815,31 +10471,31 @@
         <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -8853,25 +10509,25 @@
         <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -8890,7 +10546,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D5" s="1">
         <v>8</v>
@@ -8912,7 +10568,7 @@
         <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D7" s="1">
         <v>100</v>
@@ -8923,7 +10579,7 @@
         <v>114</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D8" s="1">
         <v>50</v>
@@ -8945,7 +10601,7 @@
         <v>52</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D10" s="1">
         <v>20</v>
@@ -8956,7 +10612,7 @@
         <v>53</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D11" s="1">
         <v>50</v>
@@ -8967,14 +10623,14 @@
         <v>115</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="1">
         <v>2</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="49.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -8982,13 +10638,13 @@
         <v>116</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D13" s="1">
         <v>20</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -8996,7 +10652,7 @@
         <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D14" s="1">
         <v>19.2</v>
@@ -9007,7 +10663,7 @@
         <v>117</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D15" s="1">
         <v>20</v>
@@ -9029,7 +10685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B97A6D-8857-4D87-AF49-4B4418AC3D8F}">
   <dimension ref="A1:X29"/>
   <sheetViews>
@@ -9089,52 +10745,52 @@
         <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>146</v>
@@ -9225,17 +10881,17 @@
       <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I4" s="45" t="s">
-        <v>409</v>
-      </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
+      <c r="I4" s="44" t="s">
+        <v>406</v>
+      </c>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -9245,10 +10901,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -9263,31 +10919,31 @@
         <v>193</v>
       </c>
       <c r="I5" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="L5" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="M5" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="N5" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="O5" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="P5" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="Q5" s="31" t="s">
         <v>371</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -9295,34 +10951,34 @@
         <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E6" s="1">
         <v>8</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="P6" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
@@ -9333,31 +10989,31 @@
         <v>194</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E7" s="1">
         <v>8</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
@@ -9365,10 +11021,10 @@
         <v>86</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -9382,7 +11038,7 @@
         <v>188</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -9396,7 +11052,7 @@
         <v>189</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E10" s="1">
         <v>50</v>
@@ -9407,10 +11063,10 @@
         <v>89</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
@@ -9421,10 +11077,10 @@
         <v>91</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -9432,13 +11088,13 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
@@ -9446,13 +11102,13 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E14" s="1">
         <v>50</v>
@@ -9460,13 +11116,13 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E15" s="1">
         <v>50</v>
@@ -9474,13 +11130,13 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E16" s="1">
         <v>50</v>
@@ -9488,13 +11144,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E17" s="1">
         <v>50</v>
@@ -9502,13 +11158,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E18" s="1">
         <v>50</v>
@@ -9516,13 +11172,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E19" s="1">
         <v>50</v>
@@ -9530,13 +11186,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E20" s="1">
         <v>50</v>
@@ -9544,13 +11200,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E21" s="1">
         <v>50</v>
@@ -9558,13 +11214,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E22" s="1">
         <v>50</v>
@@ -9572,13 +11228,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E23" s="1">
         <v>50</v>
@@ -9586,13 +11242,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E24" s="1">
         <v>50</v>
@@ -9600,13 +11256,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E25" s="1">
         <v>50</v>
@@ -9614,13 +11270,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E26" s="1">
         <v>50</v>
@@ -9628,13 +11284,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E27" s="1">
         <v>50</v>
@@ -9642,13 +11298,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E28" s="1">
         <v>50</v>
@@ -9662,7 +11318,7 @@
         <v>213</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E29" s="1">
         <v>20</v>
@@ -9674,886 +11330,4 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE88DAFB-0E6A-4114-9298-6358DAA44DC1}">
-  <dimension ref="A1:AL42"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="48.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="52.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="34" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>44593</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="1">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1">
-        <v>61568876989</v>
-      </c>
-      <c r="M2" s="1">
-        <v>78546589</v>
-      </c>
-      <c r="N2" s="1">
-        <v>75477856</v>
-      </c>
-      <c r="O2" s="1">
-        <v>12457856</v>
-      </c>
-      <c r="P2" s="2">
-        <v>44593</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>44622</v>
-      </c>
-      <c r="R2" s="2">
-        <v>44617</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="2">
-        <v>44586</v>
-      </c>
-      <c r="U2" s="2">
-        <v>44586</v>
-      </c>
-      <c r="V2" s="3">
-        <v>10000</v>
-      </c>
-      <c r="W2" s="3">
-        <v>13535</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="16">
-        <v>44566.370775462965</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="I4" s="45" t="s">
-        <v>409</v>
-      </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-    </row>
-    <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>353</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>371</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E6" s="1">
-        <v>50</v>
-      </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E7" s="1">
-        <v>50</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E8" s="1">
-        <v>8</v>
-      </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E9" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E10" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E11" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E13" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E14" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E16" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E17" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E18" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E19" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E20" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E21" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E22" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E23" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E24" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E25" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E26" s="1">
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E27" s="1">
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E28" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="1" t="str">
-        <f t="shared" ref="E31:E42" si="0">RIGHT(C31,4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E42" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I4:Q4"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Documentos/Mapeamento das Fontes de Dados/ASPECT/MAPEAMENTO_ASPECT.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/ASPECT/MAPEAMENTO_ASPECT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ASPECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10401EC6-D388-4884-B94D-57187D2A5D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6C72FA-2791-443D-B3ED-B9034BECD2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" firstSheet="2" activeTab="6" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="474">
   <si>
     <t>CPF</t>
   </si>
@@ -1481,6 +1481,9 @@
   </si>
   <si>
     <t>CONCAT([Calldetail].[SeqNum],[Calldetail].[CallId]) AS IDCALL</t>
+  </si>
+  <si>
+    <t>PLATAFORMA OU FONTE ORIGEM DO DADO</t>
   </si>
 </sst>
 </file>
@@ -1812,7 +1815,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1945,9 +1948,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7643,10 +7643,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7880,7 +7880,7 @@
         <v>462</v>
       </c>
       <c r="K7" s="38"/>
-      <c r="L7" s="45" t="s">
+      <c r="L7" s="38" t="s">
         <v>464</v>
       </c>
       <c r="M7" s="38"/>
@@ -8367,6 +8367,30 @@
         <v>426</v>
       </c>
       <c r="O22" s="38"/>
+    </row>
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>473</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38">
+        <v>30</v>
+      </c>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -9605,10 +9629,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EE7B5B-550E-4665-B6EF-861CC74C178B}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9842,7 +9866,7 @@
         <v>462</v>
       </c>
       <c r="K7" s="38"/>
-      <c r="L7" s="45" t="s">
+      <c r="L7" s="38" t="s">
         <v>464</v>
       </c>
       <c r="M7" s="38"/>
@@ -10284,6 +10308,11 @@
       <c r="H20" s="43"/>
       <c r="I20" s="43"/>
       <c r="J20" s="43"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
     </row>
     <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="43" t="s">
@@ -10306,6 +10335,11 @@
       <c r="H21" s="43"/>
       <c r="I21" s="43"/>
       <c r="J21" s="43"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="43" t="s">
@@ -10328,6 +10362,11 @@
       <c r="H22" s="43"/>
       <c r="I22" s="43"/>
       <c r="J22" s="43"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
     </row>
     <row r="23" spans="1:15" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="43" t="s">
@@ -10350,6 +10389,11 @@
       <c r="H23" s="43"/>
       <c r="I23" s="43"/>
       <c r="J23" s="43"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
     </row>
     <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="38" t="s">
@@ -10385,6 +10429,31 @@
         <v>426</v>
       </c>
       <c r="O24" s="38"/>
+    </row>
+    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>473</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38">
+        <v>30</v>
+      </c>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentos/Mapeamento das Fontes de Dados/ASPECT/MAPEAMENTO_ASPECT.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/ASPECT/MAPEAMENTO_ASPECT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ASPECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6C72FA-2791-443D-B3ED-B9034BECD2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360ABC06-6726-4DE4-A192-6E4597BFC118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -20,16 +20,14 @@
     <sheet name="TELEFONE" sheetId="16" state="hidden" r:id="rId5"/>
     <sheet name="EMAIL" sheetId="17" state="hidden" r:id="rId6"/>
     <sheet name="ACIONA_DISCADOR_INBOUND" sheetId="20" r:id="rId7"/>
-    <sheet name="MULTICANAIS" sheetId="9" r:id="rId8"/>
-    <sheet name="CADASTRO" sheetId="14" state="hidden" r:id="rId9"/>
-    <sheet name="CARTEIRA ATIVA" sheetId="1" state="hidden" r:id="rId10"/>
-    <sheet name="DEXPARA" sheetId="6" state="hidden" r:id="rId11"/>
-    <sheet name="ACORDOS" sheetId="7" state="hidden" r:id="rId12"/>
-    <sheet name="PAGAMENTOS" sheetId="8" state="hidden" r:id="rId13"/>
-    <sheet name="TEMPOS" sheetId="4" r:id="rId14"/>
-    <sheet name="PAUSAS" sheetId="13" r:id="rId15"/>
-    <sheet name="PESQUISA" sheetId="5" r:id="rId16"/>
-    <sheet name="DEADLINE" sheetId="19" state="hidden" r:id="rId17"/>
+    <sheet name="CADASTRO" sheetId="14" state="hidden" r:id="rId8"/>
+    <sheet name="CARTEIRA ATIVA" sheetId="1" state="hidden" r:id="rId9"/>
+    <sheet name="DEXPARA" sheetId="6" state="hidden" r:id="rId10"/>
+    <sheet name="ACORDOS" sheetId="7" state="hidden" r:id="rId11"/>
+    <sheet name="PAGAMENTOS" sheetId="8" state="hidden" r:id="rId12"/>
+    <sheet name="TEMPOS" sheetId="4" r:id="rId13"/>
+    <sheet name="PAUSAS" sheetId="13" r:id="rId14"/>
+    <sheet name="DEADLINE" sheetId="19" state="hidden" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="468">
   <si>
     <t>CPF</t>
   </si>
@@ -804,15 +802,6 @@
     <t>DATA DA REALIZAÇÃO DA PAUSA</t>
   </si>
   <si>
-    <t>NOTA DE SATISFAÇÃO DO CLIENTE</t>
-  </si>
-  <si>
-    <t>NOTA DA AVALIAÇÃO PELO CLIENTE (NPS)</t>
-  </si>
-  <si>
-    <t>DATA DA REALIZAÇÃO DA PESQUISA DE SATISFAÇÃO</t>
-  </si>
-  <si>
     <t>ID DO OPERADOR CADASTRADO NO CRM</t>
   </si>
   <si>
@@ -867,36 +856,9 @@
     <t>VALOR DO PAGAMENTO CRAVADO NO CRM</t>
   </si>
   <si>
-    <t>NOME DO OPERADOR QUE REALIZOU O CRAVAMENTO DA AÇÃO</t>
-  </si>
-  <si>
-    <t>ID DA AÇÃO CRIADO NO MOMENTO DE SEU DISPARO</t>
-  </si>
-  <si>
-    <t>1 = TEVE RESPOSTA , 0 = NÃO TEVE  RESPOSTA</t>
-  </si>
-  <si>
-    <t>SE A AÇÃO TEVE RETORNO</t>
-  </si>
-  <si>
-    <t>SE FOI SMS, EMAIL, URA, CHAT, WHATSAPP ETC</t>
-  </si>
-  <si>
-    <t>1 = SMS, 2 = EMAIL, 3 = URA, 4 = CHAT BOT, 5 = WHATSAPP</t>
-  </si>
-  <si>
-    <t>CUSTO DA AÇÃO</t>
-  </si>
-  <si>
-    <t>CANAL FORNECEDOR QUE REALIZOU A AÇÃO</t>
-  </si>
-  <si>
     <t>DATA DA REALIZAÇÃO DO PAGAMENTO</t>
   </si>
   <si>
-    <t>DATA DO ENVIO DA AÇÃO</t>
-  </si>
-  <si>
     <t>NOME DO CRM CADASTRADO</t>
   </si>
   <si>
@@ -1215,9 +1177,6 @@
     <t>PAUSAS, PAUSE</t>
   </si>
   <si>
-    <t>NPS, PESQUISA_CLI</t>
-  </si>
-  <si>
     <t>TBACORDO, TB_CONTRACTS</t>
   </si>
   <si>
@@ -1420,12 +1379,6 @@
   </si>
   <si>
     <t>CallStartDt</t>
-  </si>
-  <si>
-    <t>Convert([VARCHAR](19), DateAdd(HOUR, - 3, [CD].[CallStartDt]), 120)</t>
-  </si>
-  <si>
-    <t>Convert([VARCHAR](19), DateAdd(HOUR, - 3, [CD].[EndGaurdDt]), 120)</t>
   </si>
   <si>
     <t>DialedNum</t>
@@ -1484,6 +1437,33 @@
   </si>
   <si>
     <t>PLATAFORMA OU FONTE ORIGEM DO DADO</t>
+  </si>
+  <si>
+    <t>NUMERO DEVEDOR_ID, IDENTIFICADOR_ID OU TITULO_ID, COSTCODE QUE POSSIBILITE LOCALIZAR O ID_KEY DA TABELA CARTEIRA</t>
+  </si>
+  <si>
+    <t>ID DO OPERADOR OU LOGIN</t>
+  </si>
+  <si>
+    <t>ID DA CHAMADA</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>NOME DA CAMPANHA DISCADA</t>
+  </si>
+  <si>
+    <t>DATETIME2</t>
+  </si>
+  <si>
+    <t>NVARCHAR</t>
+  </si>
+  <si>
+    <t>Convert([NVARCHAR](19), DateAdd(HOUR, - 3, [CD].[CallStartDt]), 120)</t>
+  </si>
+  <si>
+    <t>Convert([NVARCHAR](19), DateAdd(HOUR, - 3, [CD].[EndGaurdDt]), 120)</t>
   </si>
 </sst>
 </file>
@@ -1682,7 +1662,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1782,21 +1762,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FFBFBFBF"/>
       </left>
       <right style="medium">
@@ -1815,7 +1780,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1899,9 +1864,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1922,9 +1884,6 @@
     <xf numFmtId="0" fontId="9" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1934,13 +1893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2283,10 +2236,10 @@
         <v>193</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2360,888 +2313,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE88DAFB-0E6A-4114-9298-6358DAA44DC1}">
-  <dimension ref="A1:AL42"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="48.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="52.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="34" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>44593</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="1">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1">
-        <v>61568876989</v>
-      </c>
-      <c r="M2" s="1">
-        <v>78546589</v>
-      </c>
-      <c r="N2" s="1">
-        <v>75477856</v>
-      </c>
-      <c r="O2" s="1">
-        <v>12457856</v>
-      </c>
-      <c r="P2" s="2">
-        <v>44593</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>44622</v>
-      </c>
-      <c r="R2" s="2">
-        <v>44617</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="2">
-        <v>44586</v>
-      </c>
-      <c r="U2" s="2">
-        <v>44586</v>
-      </c>
-      <c r="V2" s="3">
-        <v>10000</v>
-      </c>
-      <c r="W2" s="3">
-        <v>13535</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="16">
-        <v>44566.370775462965</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="I4" s="44" t="s">
-        <v>406</v>
-      </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-    </row>
-    <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E6" s="1">
-        <v>50</v>
-      </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E7" s="1">
-        <v>50</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E8" s="1">
-        <v>8</v>
-      </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E9" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E10" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E11" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E13" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E14" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E16" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E17" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E18" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E19" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E20" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E21" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E22" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E23" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E24" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E25" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E26" s="1">
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E27" s="1">
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E28" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="1" t="str">
-        <f t="shared" ref="E31:E42" si="0">RIGHT(C31,4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E42" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I4:Q4"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B44F7F0-7B7D-413E-AA95-E491BFA5A425}">
   <dimension ref="A1:Y29"/>
   <sheetViews>
@@ -3434,17 +2505,17 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I3" s="44" t="s">
-        <v>406</v>
-      </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
+      <c r="I3" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -3454,10 +2525,10 @@
         <v>190</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>187</v>
@@ -3471,32 +2542,32 @@
       <c r="H4" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="I4" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>371</v>
+      <c r="I4" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -3504,34 +2575,34 @@
         <v>84</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -3542,31 +2613,31 @@
         <v>188</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -3577,7 +2648,7 @@
         <v>189</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E7" s="1">
         <v>50</v>
@@ -3591,7 +2662,7 @@
         <v>224</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -3605,7 +2676,7 @@
         <v>194</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
@@ -3616,10 +2687,10 @@
         <v>147</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E10" s="1">
         <v>20</v>
@@ -3630,10 +2701,10 @@
         <v>148</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E11" s="1">
         <v>50</v>
@@ -3644,10 +2715,10 @@
         <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E12" s="1">
         <v>20</v>
@@ -3658,10 +2729,10 @@
         <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
@@ -3672,16 +2743,16 @@
         <v>144</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
@@ -3689,16 +2760,16 @@
         <v>93</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
@@ -3706,16 +2777,16 @@
         <v>94</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -3723,16 +2794,16 @@
         <v>95</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -3740,16 +2811,16 @@
         <v>96</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -3757,16 +2828,16 @@
         <v>97</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -3774,16 +2845,16 @@
         <v>98</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -3791,16 +2862,16 @@
         <v>99</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -3808,16 +2879,16 @@
         <v>100</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -3825,16 +2896,16 @@
         <v>101</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -3842,16 +2913,16 @@
         <v>102</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -3859,16 +2930,16 @@
         <v>103</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -3876,16 +2947,16 @@
         <v>104</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -3893,16 +2964,16 @@
         <v>105</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -3910,16 +2981,16 @@
         <v>145</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -3944,7 +3015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4503D2B1-6995-4181-A579-EBD303531330}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -4069,17 +3140,17 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="44" t="s">
-        <v>406</v>
-      </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
+      <c r="I4" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -4089,10 +3160,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -4106,32 +3177,32 @@
       <c r="H5" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>371</v>
+      <c r="I5" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,36 +3210,36 @@
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,33 +3250,33 @@
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E7" s="5">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,7 +3287,7 @@
         <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E8" s="5">
         <v>50</v>
@@ -4230,7 +3301,7 @@
         <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
@@ -4244,7 +3315,7 @@
         <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
@@ -4255,10 +3326,10 @@
         <v>106</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
@@ -4272,7 +3343,7 @@
         <v>216</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E12" s="5">
         <v>20</v>
@@ -4283,10 +3354,10 @@
         <v>139</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E13" s="5">
         <v>20</v>
@@ -4297,10 +3368,10 @@
         <v>140</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E14" s="5">
         <v>100</v>
@@ -4314,7 +3385,7 @@
         <v>225</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E15" s="5">
         <v>20</v>
@@ -4328,7 +3399,7 @@
         <v>226</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E16" s="5">
         <v>50</v>
@@ -4339,7 +3410,7 @@
         <v>112</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>180</v>
@@ -4356,7 +3427,7 @@
         <v>213</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E18" s="5">
         <v>20</v>
@@ -4370,7 +3441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5638346-13E4-4391-8323-38C7FA4704D0}">
   <dimension ref="A1:R20"/>
   <sheetViews>
@@ -4509,17 +3580,17 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J4" s="44" t="s">
-        <v>406</v>
-      </c>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
+      <c r="J4" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -4529,10 +3600,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -4546,32 +3617,32 @@
       <c r="H5" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>371</v>
+      <c r="I5" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -4579,36 +3650,36 @@
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -4619,33 +3690,33 @@
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E7" s="5">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -4656,7 +3727,7 @@
         <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E8" s="5">
         <v>50</v>
@@ -4670,7 +3741,7 @@
         <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
@@ -4684,7 +3755,7 @@
         <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
@@ -4695,10 +3766,10 @@
         <v>106</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
@@ -4709,10 +3780,10 @@
         <v>108</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E12" s="5">
         <v>20</v>
@@ -4726,7 +3797,7 @@
         <v>216</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E13" s="5">
         <v>20</v>
@@ -4737,10 +3808,10 @@
         <v>139</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E14" s="5">
         <v>20</v>
@@ -4751,10 +3822,10 @@
         <v>140</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E15" s="5">
         <v>100</v>
@@ -4765,16 +3836,16 @@
         <v>109</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E16" s="5">
         <v>20</v>
       </c>
-      <c r="F16" s="29" t="s">
-        <v>269</v>
+      <c r="F16" s="28" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -4785,7 +3856,7 @@
         <v>225</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E17" s="5">
         <v>20</v>
@@ -4799,7 +3870,7 @@
         <v>226</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E18" s="5">
         <v>50</v>
@@ -4810,7 +3881,7 @@
         <v>113</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>180</v>
@@ -4827,7 +3898,7 @@
         <v>213</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E20" s="5">
         <v>20</v>
@@ -4841,7 +3912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3224E281-B9C3-43DE-9C24-CA7016DDAC13}">
   <dimension ref="A1:O25"/>
   <sheetViews>
@@ -4878,7 +3949,7 @@
         <v>190</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>187</v>
@@ -4886,35 +3957,35 @@
       <c r="E1" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>371</v>
+      <c r="F1" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>359</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -4922,33 +3993,33 @@
         <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D2" s="5">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -4962,27 +4033,27 @@
         <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -5023,7 +4094,7 @@
         <v>141</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D7" s="5">
         <v>20</v>
@@ -5034,7 +4105,7 @@
         <v>142</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D8" s="5">
         <v>100</v>
@@ -5232,7 +4303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76B7F98-F046-4D38-B531-0938E5524784}">
   <dimension ref="A1:O15"/>
   <sheetViews>
@@ -5264,7 +4335,7 @@
         <v>190</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>187</v>
@@ -5272,35 +4343,35 @@
       <c r="E1" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>371</v>
+      <c r="F1" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>359</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -5314,27 +4385,27 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -5348,27 +4419,27 @@
         <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -5410,7 +4481,7 @@
         <v>141</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D7" s="5">
         <v>20</v>
@@ -5421,7 +4492,7 @@
         <v>142</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D8" s="5">
         <v>100</v>
@@ -5432,7 +4503,7 @@
         <v>77</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D9" s="5">
         <v>8</v>
@@ -5443,7 +4514,7 @@
         <v>78</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D10" s="5">
         <v>8</v>
@@ -5454,7 +4525,7 @@
         <v>63</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D11" s="5">
         <v>8</v>
@@ -5465,7 +4536,7 @@
         <v>80</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D12" s="5">
         <v>50</v>
@@ -5476,7 +4547,7 @@
         <v>79</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D13" s="5">
         <v>4</v>
@@ -5487,7 +4558,7 @@
         <v>81</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D14" s="5">
         <v>20</v>
@@ -5509,239 +4580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920C411-EA90-40BF-87D0-8A7E5345C20C}">
-  <dimension ref="A1:O11"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D2" s="5">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" s="5">
-        <v>50</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D5" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D7" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D8" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D10" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D11" s="5">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE3E272-40FD-4D6E-8CC1-A618C9F1A948}">
   <dimension ref="G2:K15"/>
   <sheetViews>
@@ -5758,199 +4597,199 @@
   </cols>
   <sheetData>
     <row r="2" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="H2" s="30" t="s">
-        <v>420</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>421</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>422</v>
+      <c r="H2" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G3" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="H3" s="32">
+        <v>394</v>
+      </c>
+      <c r="H3" s="31">
         <v>45467</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="31">
         <v>45471</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G4" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="H4" s="32">
+        <v>395</v>
+      </c>
+      <c r="H4" s="31">
         <v>45474</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="31">
         <v>45476</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G5" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="H5" s="32">
+        <v>396</v>
+      </c>
+      <c r="H5" s="31">
         <v>45477</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="31">
         <v>45481</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G6" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H6" s="31">
+        <v>45482</v>
+      </c>
+      <c r="I6" s="31">
+        <v>45484</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>410</v>
-      </c>
-      <c r="H6" s="32">
-        <v>45482</v>
-      </c>
-      <c r="I6" s="32">
-        <v>45484</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="7" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G7" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="H7" s="32">
+        <v>398</v>
+      </c>
+      <c r="H7" s="31">
         <v>45488</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="31">
         <v>45490</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G8" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="H8" s="32">
+        <v>399</v>
+      </c>
+      <c r="H8" s="31">
         <v>45491</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="31">
         <v>45495</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G9" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="H9" s="32">
+        <v>400</v>
+      </c>
+      <c r="H9" s="31">
         <v>45496</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="31">
         <v>45502</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G10" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="H10" s="32">
+        <v>401</v>
+      </c>
+      <c r="H10" s="31">
         <v>45503</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="31">
         <v>45504</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G11" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="H11" s="32">
+        <v>402</v>
+      </c>
+      <c r="H11" s="31">
         <v>45505</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="31">
         <v>45509</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G12" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="H12" s="32">
+        <v>403</v>
+      </c>
+      <c r="H12" s="31">
         <v>45510</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="31">
         <v>45512</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G13" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="H13" s="32">
+        <v>404</v>
+      </c>
+      <c r="H13" s="31">
         <v>45513</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="31">
         <v>45517</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G14" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="H14" s="32">
+        <v>405</v>
+      </c>
+      <c r="H14" s="31">
         <v>45518</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="31">
         <v>45520</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G15" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="H15" s="32">
+        <v>406</v>
+      </c>
+      <c r="H15" s="31">
         <v>45523</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I15" s="31">
         <v>45525</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -6021,51 +4860,51 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
@@ -6803,7 +5642,7 @@
         <v>178</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="AD11" s="1" t="s">
         <v>171</v>
@@ -6883,7 +5722,7 @@
         <v>178</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="AD12" s="1" t="s">
         <v>171</v>
@@ -6963,7 +5802,7 @@
         <v>171</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="AD13" s="1" t="s">
         <v>171</v>
@@ -7037,7 +5876,7 @@
         <v>179</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="AD14" s="1" t="s">
         <v>171</v>
@@ -7111,7 +5950,7 @@
         <v>178</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="AD15" s="1" t="s">
         <v>171</v>
@@ -7173,7 +6012,7 @@
         <v>181</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="AD16" s="1" t="s">
         <v>171</v>
@@ -7229,7 +6068,7 @@
         <v>178</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="AD17" s="1" t="s">
         <v>171</v>
@@ -7279,7 +6118,7 @@
         <v>172</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="AD18" s="1" t="s">
         <v>171</v>
@@ -7317,7 +6156,7 @@
         <v>183</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="AD19" s="1" t="s">
         <v>171</v>
@@ -7349,7 +6188,7 @@
         <v>183</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="AD20" s="1" t="s">
         <v>171</v>
@@ -7375,7 +6214,7 @@
         <v>183</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="AD21" s="1" t="s">
         <v>171</v>
@@ -7401,7 +6240,7 @@
         <v>183</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="AD22" s="1" t="s">
         <v>171</v>
@@ -7427,7 +6266,7 @@
         <v>183</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="AD23" s="1" t="s">
         <v>171</v>
@@ -7453,7 +6292,7 @@
         <v>183</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="AD24" s="1" t="s">
         <v>171</v>
@@ -7479,7 +6318,7 @@
         <v>183</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="AD25" s="1" t="s">
         <v>171</v>
@@ -7505,7 +6344,7 @@
         <v>183</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="AD26" s="1" t="s">
         <v>171</v>
@@ -7519,7 +6358,7 @@
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>179</v>
@@ -7643,10 +6482,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7669,728 +6508,674 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="42" t="s">
-        <v>363</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>364</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>365</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>366</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>367</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>368</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>369</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>370</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>371</v>
-      </c>
-      <c r="O1" s="38" t="s">
-        <v>425</v>
+      <c r="F1" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="C2" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="D2" s="36">
         <v>10</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="J2" s="36" t="s">
         <v>442</v>
       </c>
-      <c r="G2" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>455</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38" t="s">
-        <v>446</v>
-      </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O2" s="38"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O2" s="36"/>
+    </row>
+    <row r="3" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>459</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>465</v>
+      </c>
       <c r="D3" s="36">
-        <v>50</v>
-      </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O3" s="38"/>
+        <v>20</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>447</v>
+      </c>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O3" s="36"/>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="36"/>
+      <c r="A4" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>465</v>
+      </c>
       <c r="D4" s="36">
-        <v>50</v>
-      </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O4" s="38"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O4" s="36"/>
+    </row>
+    <row r="5" spans="1:15" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="36" t="s">
-        <v>85</v>
+        <v>415</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="36"/>
+        <v>460</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>465</v>
+      </c>
       <c r="D5" s="36">
-        <v>8</v>
-      </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O5" s="38"/>
+        <v>30</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>435</v>
+      </c>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O5" s="36"/>
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="36" t="s">
-        <v>87</v>
+        <v>417</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="36"/>
+        <v>418</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>465</v>
+      </c>
       <c r="D6" s="36">
+        <v>100</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O6" s="36"/>
+    </row>
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>461</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>462</v>
+      </c>
+      <c r="D7" s="36">
+        <v>19</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>436</v>
+      </c>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36" t="s">
+        <v>457</v>
+      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O7" s="36"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>462</v>
+      </c>
+      <c r="D8" s="36">
+        <v>19</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>438</v>
+      </c>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O8" s="36"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="D9" s="36">
+        <v>200</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O9" s="36"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>462</v>
+      </c>
+      <c r="D10" s="36">
+        <v>19</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O10" s="36"/>
+    </row>
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="D11" s="36">
+        <v>200</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O11" s="36"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="D12" s="36">
+        <v>250</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O12" s="36"/>
+    </row>
+    <row r="13" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="D13" s="36">
+        <v>50</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>444</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36" t="s">
+        <v>446</v>
+      </c>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O13" s="36"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>464</v>
+      </c>
+      <c r="D14" s="36">
+        <v>19</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O14" s="36"/>
+    </row>
+    <row r="15" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>464</v>
+      </c>
+      <c r="D15" s="36">
         <v>8</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O6" s="38"/>
-    </row>
-    <row r="7" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
+      <c r="E15" s="36"/>
+      <c r="F15" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O15" s="36"/>
+    </row>
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>464</v>
+      </c>
+      <c r="D16" s="36">
+        <v>8</v>
+      </c>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+    </row>
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>464</v>
+      </c>
+      <c r="D17" s="36">
+        <v>8</v>
+      </c>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="D18" s="36">
         <v>20</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="G7" s="38" t="s">
+      <c r="E18" s="36"/>
+      <c r="F18" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="J18" s="36" t="s">
         <v>443</v>
       </c>
-      <c r="H7" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>463</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O7" s="38"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38">
-        <v>20</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O8" s="38"/>
-    </row>
-    <row r="9" spans="1:15" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="38" t="s">
-        <v>428</v>
-      </c>
-      <c r="B9" s="38" t="s">
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O18" s="36"/>
+    </row>
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>458</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="D19" s="36">
+        <v>30</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36" t="s">
         <v>429</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38">
-        <v>15</v>
-      </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>448</v>
-      </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38" t="s">
-        <v>471</v>
-      </c>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O9" s="38"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
-        <v>430</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>431</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38">
-        <v>15</v>
-      </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>432</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>430</v>
-      </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38" t="s">
-        <v>470</v>
-      </c>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O10" s="38"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>469</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38">
-        <v>20</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>449</v>
-      </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O11" s="38"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="38" t="s">
-        <v>433</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>434</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38">
-        <v>8</v>
-      </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>450</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O12" s="38"/>
-    </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="38" t="s">
-        <v>435</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>436</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38">
-        <v>200</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="I13" s="38" t="s">
-        <v>450</v>
-      </c>
-      <c r="J13" s="38" t="s">
-        <v>452</v>
-      </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O13" s="38"/>
-    </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>438</v>
-      </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38">
-        <v>8</v>
-      </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>439</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>453</v>
-      </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O14" s="38"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="38" t="s">
-        <v>440</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38">
-        <v>200</v>
-      </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>439</v>
-      </c>
-      <c r="J15" s="38" t="s">
-        <v>454</v>
-      </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O15" s="38"/>
-    </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43">
-        <v>100</v>
-      </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O16" s="38"/>
-    </row>
-    <row r="17" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38">
-        <v>20</v>
-      </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="I17" s="38" t="s">
-        <v>459</v>
-      </c>
-      <c r="J17" s="38" t="s">
-        <v>460</v>
-      </c>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O17" s="38"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38">
-        <v>8</v>
-      </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H18" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="I18" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>455</v>
-      </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38" t="s">
-        <v>456</v>
-      </c>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O18" s="38"/>
-    </row>
-    <row r="19" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38">
-        <v>8</v>
-      </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="J19" s="38" t="s">
-        <v>455</v>
-      </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38" t="s">
-        <v>457</v>
-      </c>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O19" s="38"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-    </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-    </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38">
-        <v>11</v>
-      </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="J22" s="38" t="s">
-        <v>458</v>
-      </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O22" s="38"/>
-    </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>473</v>
-      </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38">
-        <v>30</v>
-      </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -8529,17 +7314,17 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="44" t="s">
-        <v>406</v>
-      </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
+      <c r="I4" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -8549,10 +7334,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -8566,32 +7351,32 @@
       <c r="H5" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>371</v>
+      <c r="I5" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8602,33 +7387,33 @@
         <v>223</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8639,33 +7424,33 @@
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E7" s="5">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8676,7 +7461,7 @@
         <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E8" s="5">
         <v>50</v>
@@ -8690,7 +7475,7 @@
         <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
@@ -8704,7 +7489,7 @@
         <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
@@ -8718,7 +7503,7 @@
         <v>216</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
@@ -8729,10 +7514,10 @@
         <v>139</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E12" s="5">
         <v>20</v>
@@ -8743,10 +7528,10 @@
         <v>140</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E13" s="5">
         <v>100</v>
@@ -8760,7 +7545,7 @@
         <v>225</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E14" s="5">
         <v>20</v>
@@ -8774,7 +7559,7 @@
         <v>226</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E15" s="5">
         <v>50</v>
@@ -8788,7 +7573,7 @@
         <v>227</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="E16" s="5">
         <v>8</v>
@@ -8802,7 +7587,7 @@
         <v>228</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="E17" s="5">
         <v>8</v>
@@ -8816,7 +7601,7 @@
         <v>229</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="E18" s="5">
         <v>8</v>
@@ -8830,7 +7615,7 @@
         <v>230</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="E19" s="5">
         <v>8</v>
@@ -8844,7 +7629,7 @@
         <v>231</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E20" s="5">
         <v>11</v>
@@ -8858,7 +7643,7 @@
         <v>213</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E21" s="5">
         <v>20</v>
@@ -8973,17 +7758,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="44" t="s">
-        <v>406</v>
-      </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
+      <c r="I3" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -8993,10 +7778,10 @@
         <v>190</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>187</v>
@@ -9010,32 +7795,32 @@
       <c r="H4" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="I4" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>371</v>
+      <c r="I4" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9043,34 +7828,34 @@
         <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E5" s="1">
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9081,34 +7866,34 @@
         <v>216</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E6" s="1">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9116,10 +7901,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E7" s="1">
         <v>11</v>
@@ -9133,7 +7918,7 @@
         <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E8" s="1">
         <v>50</v>
@@ -9147,7 +7932,7 @@
         <v>189</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -9161,7 +7946,7 @@
         <v>224</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -9175,7 +7960,7 @@
         <v>194</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
@@ -9186,10 +7971,10 @@
         <v>119</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -9200,10 +7985,10 @@
         <v>120</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E13" s="1">
         <v>20</v>
@@ -9214,10 +7999,10 @@
         <v>121</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -9231,7 +8016,7 @@
         <v>213</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E15" s="1">
         <v>20</v>
@@ -9346,17 +8131,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="44" t="s">
-        <v>406</v>
-      </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
+      <c r="I3" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -9366,10 +8151,10 @@
         <v>190</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>187</v>
@@ -9383,32 +8168,32 @@
       <c r="H4" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="I4" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>371</v>
+      <c r="I4" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9416,34 +8201,34 @@
         <v>123</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E5" s="1">
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9454,34 +8239,34 @@
         <v>216</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E6" s="1">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9489,10 +8274,10 @@
         <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E7" s="1">
         <v>11</v>
@@ -9506,7 +8291,7 @@
         <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E8" s="1">
         <v>50</v>
@@ -9520,7 +8305,7 @@
         <v>189</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -9534,7 +8319,7 @@
         <v>224</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -9548,7 +8333,7 @@
         <v>194</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
@@ -9559,10 +8344,10 @@
         <v>125</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -9573,10 +8358,10 @@
         <v>127</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="E13" s="1">
         <v>20</v>
@@ -9587,10 +8372,10 @@
         <v>121</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -9604,7 +8389,7 @@
         <v>213</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E15" s="1">
         <v>20</v>
@@ -9629,10 +8414,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EE7B5B-550E-4665-B6EF-861CC74C178B}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:B23"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9655,805 +8440,737 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="42" t="s">
-        <v>363</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>364</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>365</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>366</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>367</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>368</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>369</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>370</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>371</v>
-      </c>
-      <c r="O1" s="38" t="s">
-        <v>425</v>
+      <c r="F1" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38">
+      <c r="C2" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="D2" s="36">
         <v>10</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="J2" s="36" t="s">
         <v>442</v>
       </c>
-      <c r="G2" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>455</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38" t="s">
-        <v>446</v>
-      </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O2" s="38"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O2" s="36"/>
+    </row>
+    <row r="3" spans="1:15" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>465</v>
+      </c>
       <c r="D3" s="36">
-        <v>50</v>
-      </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O3" s="38"/>
+        <v>20</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>447</v>
+      </c>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O3" s="36"/>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="36"/>
+      <c r="A4" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>465</v>
+      </c>
       <c r="D4" s="36">
-        <v>50</v>
-      </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O4" s="38"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O4" s="36"/>
+    </row>
+    <row r="5" spans="1:15" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="36"/>
+        <v>415</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>465</v>
+      </c>
       <c r="D5" s="36">
-        <v>8</v>
-      </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O5" s="38"/>
+        <v>30</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>435</v>
+      </c>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O5" s="36"/>
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="36"/>
+        <v>417</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>418</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>465</v>
+      </c>
       <c r="D6" s="36">
-        <v>8</v>
-      </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O6" s="36"/>
+    </row>
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>462</v>
+      </c>
+      <c r="D7" s="36">
+        <v>19</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>436</v>
+      </c>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36" t="s">
+        <v>457</v>
+      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O7" s="36"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>462</v>
+      </c>
+      <c r="D8" s="36">
+        <v>19</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>438</v>
+      </c>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O8" s="36"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>423</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="D9" s="36">
+        <v>200</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O9" s="36"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>462</v>
+      </c>
+      <c r="D10" s="36">
+        <v>19</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="I10" s="36" t="s">
         <v>426</v>
       </c>
-      <c r="O6" s="38"/>
-    </row>
-    <row r="7" spans="1:15" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
+      <c r="J10" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O10" s="36"/>
+    </row>
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="D11" s="36">
+        <v>200</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O11" s="36"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="D12" s="36">
+        <v>250</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O12" s="36"/>
+    </row>
+    <row r="13" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="D13" s="36">
+        <v>50</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>444</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36" t="s">
+        <v>446</v>
+      </c>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O13" s="36"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>464</v>
+      </c>
+      <c r="D14" s="36">
+        <v>19</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O14" s="36"/>
+    </row>
+    <row r="15" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>464</v>
+      </c>
+      <c r="D15" s="36">
+        <v>19</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O15" s="36"/>
+    </row>
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>464</v>
+      </c>
+      <c r="D16" s="36">
+        <v>19</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+    </row>
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>464</v>
+      </c>
+      <c r="D17" s="36">
+        <v>19</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+    </row>
+    <row r="18" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="36" t="s">
+        <v>452</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>453</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>464</v>
+      </c>
+      <c r="D18" s="36">
+        <v>19</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+    </row>
+    <row r="19" spans="1:15" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="36" t="s">
+        <v>450</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>464</v>
+      </c>
+      <c r="D19" s="36">
+        <v>19</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+    </row>
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="D20" s="36">
         <v>20</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="G7" s="38" t="s">
+      <c r="E20" s="36"/>
+      <c r="F20" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="J20" s="36" t="s">
         <v>443</v>
       </c>
-      <c r="H7" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>463</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O7" s="38"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38">
-        <v>20</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O8" s="38"/>
-    </row>
-    <row r="9" spans="1:15" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="38" t="s">
-        <v>428</v>
-      </c>
-      <c r="B9" s="38" t="s">
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O20" s="36"/>
+    </row>
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>458</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="D21" s="36">
+        <v>30</v>
+      </c>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36" t="s">
         <v>429</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38">
-        <v>15</v>
-      </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>448</v>
-      </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38" t="s">
-        <v>471</v>
-      </c>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O9" s="38"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
-        <v>430</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>431</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38">
-        <v>15</v>
-      </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>432</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>430</v>
-      </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38" t="s">
-        <v>470</v>
-      </c>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O10" s="38"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>469</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38">
-        <v>20</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>449</v>
-      </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O11" s="38"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="38" t="s">
-        <v>433</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>434</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38">
-        <v>8</v>
-      </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>450</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O12" s="38"/>
-    </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="38" t="s">
-        <v>435</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>436</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38">
-        <v>200</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="I13" s="38" t="s">
-        <v>450</v>
-      </c>
-      <c r="J13" s="38" t="s">
-        <v>452</v>
-      </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O13" s="38"/>
-    </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>438</v>
-      </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38">
-        <v>8</v>
-      </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>439</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>453</v>
-      </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O14" s="38"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="38" t="s">
-        <v>440</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38">
-        <v>200</v>
-      </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>439</v>
-      </c>
-      <c r="J15" s="38" t="s">
-        <v>454</v>
-      </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O15" s="38"/>
-    </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43">
-        <v>100</v>
-      </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O16" s="38"/>
-    </row>
-    <row r="17" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38">
-        <v>20</v>
-      </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="I17" s="38" t="s">
-        <v>459</v>
-      </c>
-      <c r="J17" s="38" t="s">
-        <v>460</v>
-      </c>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O17" s="38"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38">
-        <v>10</v>
-      </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H18" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="I18" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>455</v>
-      </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38" t="s">
-        <v>456</v>
-      </c>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O18" s="38"/>
-    </row>
-    <row r="19" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38">
-        <v>10</v>
-      </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="J19" s="38" t="s">
-        <v>455</v>
-      </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38" t="s">
-        <v>457</v>
-      </c>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O19" s="38"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43">
-        <v>10</v>
-      </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43" t="s">
-        <v>442</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>443</v>
-      </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-    </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43">
-        <v>10</v>
-      </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43" t="s">
-        <v>442</v>
-      </c>
-      <c r="G21" s="43" t="s">
-        <v>443</v>
-      </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-    </row>
-    <row r="22" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="43" t="s">
-        <v>467</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>468</v>
-      </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43">
-        <v>10</v>
-      </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43" t="s">
-        <v>442</v>
-      </c>
-      <c r="G22" s="43" t="s">
-        <v>443</v>
-      </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-    </row>
-    <row r="23" spans="1:15" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="43" t="s">
-        <v>465</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>466</v>
-      </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43">
-        <v>10</v>
-      </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43" t="s">
-        <v>442</v>
-      </c>
-      <c r="G23" s="43" t="s">
-        <v>443</v>
-      </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-    </row>
-    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38">
-        <v>11</v>
-      </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H24" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="I24" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="J24" s="38" t="s">
-        <v>458</v>
-      </c>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="O24" s="38"/>
-    </row>
-    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>473</v>
-      </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38">
-        <v>30</v>
-      </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -10462,299 +9179,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B8EF36-DED1-4AE4-8E82-79A80977A3B5}">
-  <dimension ref="A1:O16"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="106.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="48.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="52.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D2" s="1">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" s="1">
-        <v>50</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D5" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D7" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D8" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D9" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D10" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="49.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="49.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D13" s="1">
-        <v>20</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D14" s="1">
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D15" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D16" s="1">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B97A6D-8857-4D87-AF49-4B4418AC3D8F}">
   <dimension ref="A1:X29"/>
   <sheetViews>
@@ -10814,52 +9238,52 @@
         <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>146</v>
@@ -10950,17 +9374,17 @@
       <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I4" s="44" t="s">
-        <v>406</v>
-      </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
+      <c r="I4" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -10970,10 +9394,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -10987,32 +9411,32 @@
       <c r="H5" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>371</v>
+      <c r="I5" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -11023,31 +9447,31 @@
         <v>224</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E6" s="1">
         <v>8</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
@@ -11058,31 +9482,31 @@
         <v>194</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E7" s="1">
         <v>8</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
@@ -11093,7 +9517,7 @@
         <v>222</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -11107,7 +9531,7 @@
         <v>188</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -11121,7 +9545,7 @@
         <v>189</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E10" s="1">
         <v>50</v>
@@ -11132,10 +9556,10 @@
         <v>89</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
@@ -11146,10 +9570,10 @@
         <v>91</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -11157,13 +9581,13 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
@@ -11171,13 +9595,13 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E14" s="1">
         <v>50</v>
@@ -11185,13 +9609,13 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E15" s="1">
         <v>50</v>
@@ -11199,13 +9623,13 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E16" s="1">
         <v>50</v>
@@ -11213,13 +9637,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E17" s="1">
         <v>50</v>
@@ -11227,13 +9651,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E18" s="1">
         <v>50</v>
@@ -11241,13 +9665,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E19" s="1">
         <v>50</v>
@@ -11255,13 +9679,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E20" s="1">
         <v>50</v>
@@ -11269,13 +9693,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E21" s="1">
         <v>50</v>
@@ -11283,13 +9707,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E22" s="1">
         <v>50</v>
@@ -11297,13 +9721,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E23" s="1">
         <v>50</v>
@@ -11311,13 +9735,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E24" s="1">
         <v>50</v>
@@ -11325,13 +9749,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E25" s="1">
         <v>50</v>
@@ -11339,13 +9763,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E26" s="1">
         <v>50</v>
@@ -11353,13 +9777,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E27" s="1">
         <v>50</v>
@@ -11367,13 +9791,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E28" s="1">
         <v>50</v>
@@ -11387,7 +9811,7 @@
         <v>213</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E29" s="1">
         <v>20</v>
@@ -11399,4 +9823,886 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE88DAFB-0E6A-4114-9298-6358DAA44DC1}">
+  <dimension ref="A1:AL42"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="48.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="52.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="34" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>44593</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="1">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1">
+        <v>61568876989</v>
+      </c>
+      <c r="M2" s="1">
+        <v>78546589</v>
+      </c>
+      <c r="N2" s="1">
+        <v>75477856</v>
+      </c>
+      <c r="O2" s="1">
+        <v>12457856</v>
+      </c>
+      <c r="P2" s="2">
+        <v>44593</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>44622</v>
+      </c>
+      <c r="R2" s="2">
+        <v>44617</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="2">
+        <v>44586</v>
+      </c>
+      <c r="U2" s="2">
+        <v>44586</v>
+      </c>
+      <c r="V2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="W2" s="3">
+        <v>13535</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="16">
+        <v>44566.370775462965</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="I4" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+    </row>
+    <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E6" s="1">
+        <v>50</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E7" s="1">
+        <v>50</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E13" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E16" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E17" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E18" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E19" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E20" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E21" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E22" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E23" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E24" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E25" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="1">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="1">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E28" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f t="shared" ref="E31:E42" si="0">RIGHT(C31,4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I4:Q4"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documentos/Mapeamento das Fontes de Dados/ASPECT/MAPEAMENTO_ASPECT.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/ASPECT/MAPEAMENTO_ASPECT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ASPECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360ABC06-6726-4DE4-A192-6E4597BFC118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46098FA1-0AC3-448F-B7D0-994EC25A5088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
@@ -25,8 +25,8 @@
     <sheet name="DEXPARA" sheetId="6" state="hidden" r:id="rId10"/>
     <sheet name="ACORDOS" sheetId="7" state="hidden" r:id="rId11"/>
     <sheet name="PAGAMENTOS" sheetId="8" state="hidden" r:id="rId12"/>
-    <sheet name="TEMPOS" sheetId="4" r:id="rId13"/>
-    <sheet name="PAUSAS" sheetId="13" r:id="rId14"/>
+    <sheet name="TEMPOS" sheetId="4" state="hidden" r:id="rId13"/>
+    <sheet name="PAUSAS" sheetId="13" state="hidden" r:id="rId14"/>
     <sheet name="DEADLINE" sheetId="19" state="hidden" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>

--- a/Documentos/Mapeamento das Fontes de Dados/ASPECT/MAPEAMENTO_ASPECT.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/ASPECT/MAPEAMENTO_ASPECT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ASPECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46098FA1-0AC3-448F-B7D0-994EC25A5088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97678C97-659E-4D26-AC34-4D027A3113F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="479">
   <si>
     <t>CPF</t>
   </si>
@@ -1382,15 +1382,6 @@
   </si>
   <si>
     <t>DialedNum</t>
-  </si>
-  <si>
-    <t>RouteAccess</t>
-  </si>
-  <si>
-    <t>RouteAccess_Desc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cruzando o Service.RouteAccess_Id com RouteAccess.RouteAccess_Id </t>
   </si>
   <si>
     <t>Param3</t>
@@ -1464,6 +1455,48 @@
   </si>
   <si>
     <t>Convert([NVARCHAR](19), DateAdd(HOUR, - 3, [CD].[EndGaurdDt]), 120)</t>
+  </si>
+  <si>
+    <t>ResourceGroupDesc</t>
+  </si>
+  <si>
+    <t>ResourceGroup</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>Cruzando o Calldetail.ResourceGroup_Id com ResourceGroup.ResourceGroupId</t>
+  </si>
+  <si>
+    <t>Param8</t>
+  </si>
+  <si>
+    <t>Param2</t>
+  </si>
+  <si>
+    <t>Parametro 9 é o .raw por isso levamos o parametro 8 que detalha melhor</t>
+  </si>
+  <si>
+    <t>AODCallDetail</t>
+  </si>
+  <si>
+    <t>ConnClearDt</t>
+  </si>
+  <si>
+    <t>WrapEndDt</t>
+  </si>
+  <si>
+    <t>EndGaurdDt</t>
+  </si>
+  <si>
+    <t>QueueStartDt</t>
+  </si>
+  <si>
+    <t>ACDCallDetail</t>
+  </si>
+  <si>
+    <t>QueueEndDt</t>
   </si>
 </sst>
 </file>
@@ -1780,7 +1813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1894,9 +1927,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2505,17 +2535,17 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="39" t="s">
         <v>393</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -3140,17 +3170,17 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="39" t="s">
         <v>393</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -3580,17 +3610,17 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="39" t="s">
         <v>393</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -6484,8 +6514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6598,10 +6628,10 @@
         <v>46</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D3" s="36">
         <v>20</v>
@@ -6617,14 +6647,14 @@
         <v>431</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K3" s="36"/>
       <c r="L3" s="36" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M3" s="36"/>
       <c r="N3" s="36" t="s">
@@ -6640,17 +6670,27 @@
         <v>414</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D4" s="36">
         <v>20</v>
       </c>
       <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
+      <c r="F4" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>470</v>
+      </c>
       <c r="K4" s="36"/>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
@@ -6664,10 +6704,10 @@
         <v>415</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D5" s="36">
         <v>30</v>
@@ -6690,7 +6730,7 @@
       </c>
       <c r="K5" s="36"/>
       <c r="L5" s="36" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M5" s="36"/>
       <c r="N5" s="36" t="s">
@@ -6706,7 +6746,7 @@
         <v>418</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D6" s="36">
         <v>100</v>
@@ -6729,7 +6769,7 @@
       </c>
       <c r="K6" s="36"/>
       <c r="L6" s="36" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M6" s="36"/>
       <c r="N6" s="36" t="s">
@@ -6742,10 +6782,10 @@
         <v>215</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D7" s="36">
         <v>19</v>
@@ -6768,7 +6808,7 @@
       </c>
       <c r="K7" s="36"/>
       <c r="L7" s="36" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M7" s="36"/>
       <c r="N7" s="36" t="s">
@@ -6784,7 +6824,7 @@
         <v>421</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D8" s="36">
         <v>19</v>
@@ -6818,10 +6858,10 @@
         <v>422</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D9" s="36">
         <v>200</v>
@@ -6858,7 +6898,7 @@
         <v>425</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D10" s="36">
         <v>19</v>
@@ -6895,7 +6935,7 @@
         <v>428</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D11" s="36">
         <v>200</v>
@@ -6924,7 +6964,7 @@
       </c>
       <c r="O11" s="36"/>
     </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="36" t="s">
         <v>43</v>
       </c>
@@ -6932,21 +6972,31 @@
         <v>217</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D12" s="36">
         <v>250</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39" t="s">
+      <c r="E12" s="36"/>
+      <c r="F12" s="36" t="s">
         <v>429</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
+      <c r="G12" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>469</v>
+      </c>
       <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
+      <c r="L12" s="36" t="s">
+        <v>471</v>
+      </c>
       <c r="M12" s="36"/>
       <c r="N12" s="36" t="s">
         <v>413</v>
@@ -6961,7 +7011,7 @@
         <v>218</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D13" s="36">
         <v>50</v>
@@ -6974,17 +7024,17 @@
         <v>430</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>434</v>
+        <v>467</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>444</v>
+        <v>466</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="K13" s="36"/>
       <c r="L13" s="36" t="s">
-        <v>446</v>
+        <v>468</v>
       </c>
       <c r="M13" s="36"/>
       <c r="N13" s="36" t="s">
@@ -6992,7 +7042,7 @@
       </c>
       <c r="O13" s="36"/>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="36" t="s">
         <v>47</v>
       </c>
@@ -7000,7 +7050,7 @@
         <v>219</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D14" s="36">
         <v>19</v>
@@ -7023,7 +7073,7 @@
       </c>
       <c r="K14" s="36"/>
       <c r="L14" s="36" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="M14" s="36"/>
       <c r="N14" s="36" t="s">
@@ -7039,7 +7089,7 @@
         <v>220</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D15" s="36">
         <v>8</v>
@@ -7058,11 +7108,11 @@
         <v>432</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="K15" s="36"/>
       <c r="L15" s="36" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="M15" s="36"/>
       <c r="N15" s="36" t="s">
@@ -7078,19 +7128,29 @@
         <v>229</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D16" s="36">
         <v>8</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39" t="s">
+      <c r="E16" s="36"/>
+      <c r="F16" s="36" t="s">
         <v>429</v>
       </c>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
+      <c r="G16" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>472</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
     </row>
     <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="36" t="s">
@@ -7100,19 +7160,29 @@
         <v>230</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D17" s="36">
         <v>8</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39" t="s">
+      <c r="E17" s="36"/>
+      <c r="F17" s="36" t="s">
         <v>429</v>
       </c>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
+      <c r="G17" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>472</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="36" t="s">
@@ -7122,7 +7192,7 @@
         <v>221</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D18" s="36">
         <v>20</v>
@@ -7156,10 +7226,10 @@
         <v>109</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D19" s="36">
         <v>30</v>
@@ -7314,17 +7384,17 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="39" t="s">
         <v>393</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -7758,17 +7828,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="39" t="s">
         <v>393</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -8131,17 +8201,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="39" t="s">
         <v>393</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -8417,7 +8487,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="F13" sqref="F13:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8533,7 +8603,7 @@
         <v>216</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D3" s="36">
         <v>20</v>
@@ -8549,14 +8619,14 @@
         <v>431</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K3" s="36"/>
       <c r="L3" s="36" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M3" s="36"/>
       <c r="N3" s="36" t="s">
@@ -8572,17 +8642,27 @@
         <v>414</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D4" s="36">
         <v>20</v>
       </c>
       <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
+      <c r="F4" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>470</v>
+      </c>
       <c r="K4" s="36"/>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
@@ -8599,7 +8679,7 @@
         <v>416</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D5" s="36">
         <v>30</v>
@@ -8622,7 +8702,7 @@
       </c>
       <c r="K5" s="36"/>
       <c r="L5" s="36" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M5" s="36"/>
       <c r="N5" s="36" t="s">
@@ -8638,7 +8718,7 @@
         <v>418</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D6" s="36">
         <v>100</v>
@@ -8661,7 +8741,7 @@
       </c>
       <c r="K6" s="36"/>
       <c r="L6" s="36" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M6" s="36"/>
       <c r="N6" s="36" t="s">
@@ -8674,10 +8754,10 @@
         <v>215</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D7" s="36">
         <v>19</v>
@@ -8700,7 +8780,7 @@
       </c>
       <c r="K7" s="36"/>
       <c r="L7" s="36" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M7" s="36"/>
       <c r="N7" s="36" t="s">
@@ -8716,7 +8796,7 @@
         <v>421</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D8" s="36">
         <v>19</v>
@@ -8753,7 +8833,7 @@
         <v>423</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D9" s="36">
         <v>200</v>
@@ -8790,7 +8870,7 @@
         <v>425</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D10" s="36">
         <v>19</v>
@@ -8827,7 +8907,7 @@
         <v>428</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D11" s="36">
         <v>200</v>
@@ -8856,7 +8936,7 @@
       </c>
       <c r="O11" s="36"/>
     </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="36" t="s">
         <v>43</v>
       </c>
@@ -8864,19 +8944,31 @@
         <v>217</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D12" s="36">
         <v>250</v>
       </c>
       <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
+      <c r="F12" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>469</v>
+      </c>
       <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
+      <c r="L12" s="36" t="s">
+        <v>471</v>
+      </c>
       <c r="M12" s="36"/>
       <c r="N12" s="36" t="s">
         <v>413</v>
@@ -8891,7 +8983,7 @@
         <v>218</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D13" s="36">
         <v>50</v>
@@ -8904,17 +8996,17 @@
         <v>430</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>434</v>
+        <v>467</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>444</v>
+        <v>466</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="K13" s="36"/>
       <c r="L13" s="36" t="s">
-        <v>446</v>
+        <v>468</v>
       </c>
       <c r="M13" s="36"/>
       <c r="N13" s="36" t="s">
@@ -8922,7 +9014,7 @@
       </c>
       <c r="O13" s="36"/>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="36" t="s">
         <v>47</v>
       </c>
@@ -8930,7 +9022,7 @@
         <v>219</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D14" s="36">
         <v>19</v>
@@ -8953,7 +9045,7 @@
       </c>
       <c r="K14" s="36"/>
       <c r="L14" s="36" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="M14" s="36"/>
       <c r="N14" s="36" t="s">
@@ -8969,7 +9061,7 @@
         <v>220</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D15" s="36">
         <v>19</v>
@@ -8992,7 +9084,7 @@
       </c>
       <c r="K15" s="36"/>
       <c r="L15" s="36" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="M15" s="36"/>
       <c r="N15" s="36" t="s">
@@ -9008,19 +9100,27 @@
         <v>229</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D16" s="36">
         <v>19</v>
       </c>
       <c r="E16" s="36"/>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="36" t="s">
         <v>429</v>
       </c>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
+      <c r="G16" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>477</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>473</v>
+      </c>
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
       <c r="M16" s="36"/>
@@ -9035,19 +9135,27 @@
         <v>230</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D17" s="36">
         <v>19</v>
       </c>
       <c r="E17" s="36"/>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="36" t="s">
         <v>429</v>
       </c>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
+      <c r="G17" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>477</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>474</v>
+      </c>
       <c r="K17" s="36"/>
       <c r="L17" s="36"/>
       <c r="M17" s="36"/>
@@ -9056,25 +9164,33 @@
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="36" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D18" s="36">
         <v>19</v>
       </c>
       <c r="E18" s="36"/>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="36" t="s">
         <v>429</v>
       </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
+      <c r="G18" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>477</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>476</v>
+      </c>
       <c r="K18" s="36"/>
       <c r="L18" s="36"/>
       <c r="M18" s="36"/>
@@ -9083,25 +9199,33 @@
     </row>
     <row r="19" spans="1:15" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="36" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D19" s="36">
         <v>19</v>
       </c>
       <c r="E19" s="36"/>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="36" t="s">
         <v>429</v>
       </c>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="G19" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>477</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>478</v>
+      </c>
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
       <c r="M19" s="36"/>
@@ -9116,7 +9240,7 @@
         <v>221</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D20" s="36">
         <v>20</v>
@@ -9150,10 +9274,10 @@
         <v>109</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D21" s="36">
         <v>30</v>
@@ -9374,17 +9498,17 @@
       <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="39" t="s">
         <v>393</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -10100,17 +10224,17 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="39" t="s">
         <v>393</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
     </row>
     <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">

--- a/Documentos/Mapeamento das Fontes de Dados/ASPECT/MAPEAMENTO_ASPECT.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/ASPECT/MAPEAMENTO_ASPECT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ASPECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97678C97-659E-4D26-AC34-4D027A3113F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888522F1-C7E2-4280-9A98-E330AB1C4810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" firstSheet="2" activeTab="6" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="483">
   <si>
     <t>CPF</t>
   </si>
@@ -1497,6 +1497,18 @@
   </si>
   <si>
     <t>QueueEndDt</t>
+  </si>
+  <si>
+    <t>DATA_INSERT</t>
+  </si>
+  <si>
+    <t>MOMENTO QUE O DADO FOI INSERIDO NA TABELA</t>
+  </si>
+  <si>
+    <t>DATETIMENOW()</t>
+  </si>
+  <si>
+    <t>PK</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1707,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1808,12 +1820,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1927,6 +1976,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2535,17 +2593,17 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="42" t="s">
         <v>393</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
     </row>
     <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -3170,17 +3228,17 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="42" t="s">
         <v>393</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -3610,17 +3668,17 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="42" t="s">
         <v>393</v>
       </c>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -6512,10 +6570,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:L13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6790,7 +6848,9 @@
       <c r="D7" s="36">
         <v>19</v>
       </c>
-      <c r="E7" s="36"/>
+      <c r="E7" s="36" t="s">
+        <v>482</v>
+      </c>
       <c r="F7" s="36" t="s">
         <v>429</v>
       </c>
@@ -7235,19 +7295,45 @@
         <v>30</v>
       </c>
       <c r="E19" s="36"/>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="39" t="s">
         <v>429</v>
       </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="41"/>
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
       <c r="M19" s="36"/>
       <c r="N19" s="36"/>
     </row>
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>461</v>
+      </c>
+      <c r="D20" s="36">
+        <v>19</v>
+      </c>
+      <c r="E20" s="36"/>
+      <c r="F20" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="41"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F19:J19"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7384,17 +7470,17 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="42" t="s">
         <v>393</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -7828,17 +7914,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="42" t="s">
         <v>393</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -8201,17 +8287,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="42" t="s">
         <v>393</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
     </row>
     <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -8484,10 +8570,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EE7B5B-550E-4665-B6EF-861CC74C178B}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:L13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8762,7 +8848,9 @@
       <c r="D7" s="36">
         <v>19</v>
       </c>
-      <c r="E7" s="36"/>
+      <c r="E7" s="36" t="s">
+        <v>482</v>
+      </c>
       <c r="F7" s="36" t="s">
         <v>429</v>
       </c>
@@ -9273,7 +9361,7 @@
       <c r="A21" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="36" t="s">
         <v>455</v>
       </c>
       <c r="C21" s="36" t="s">
@@ -9283,20 +9371,46 @@
         <v>30</v>
       </c>
       <c r="E21" s="36"/>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="39" t="s">
         <v>429</v>
       </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="41"/>
       <c r="K21" s="36"/>
       <c r="L21" s="36"/>
       <c r="M21" s="36"/>
       <c r="N21" s="36"/>
       <c r="O21" s="36"/>
     </row>
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>461</v>
+      </c>
+      <c r="D22" s="36">
+        <v>19</v>
+      </c>
+      <c r="E22" s="36"/>
+      <c r="F22" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="41"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F22:J22"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9498,17 +9612,17 @@
       <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="42" t="s">
         <v>393</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -10224,17 +10338,17 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="42" t="s">
         <v>393</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
     </row>
     <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">

--- a/Documentos/Mapeamento das Fontes de Dados/ASPECT/MAPEAMENTO_ASPECT.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/ASPECT/MAPEAMENTO_ASPECT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ASPECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888522F1-C7E2-4280-9A98-E330AB1C4810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE9DC9A-83A5-4842-A604-4DCDD0C329C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" firstSheet="2" activeTab="6" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="485">
   <si>
     <t>CPF</t>
   </si>
@@ -1289,9 +1289,6 @@
   </si>
   <si>
     <t>QUERY</t>
-  </si>
-  <si>
-    <t>TIM</t>
   </si>
   <si>
     <t>CPF DO CLIENTE</t>
@@ -1510,6 +1507,15 @@
   <si>
     <t>PK</t>
   </si>
+  <si>
+    <t>EVENTO_ID</t>
+  </si>
+  <si>
+    <t>ID DO ACIONAMENTO NO DW</t>
+  </si>
+  <si>
+    <t>IDENTITY</t>
+  </si>
 </sst>
 </file>
 
@@ -1519,7 +1525,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1596,20 +1602,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1690,24 +1688,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1F4E78"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF44546A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1741,36 +1727,6 @@
         <color rgb="FFBFBFBF"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFBFBFBF"/>
-      </top>
-      <bottom style="medium">
         <color rgb="FFBFBFBF"/>
       </bottom>
       <diagonal/>
@@ -1862,7 +1818,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1960,31 +1916,25 @@
     <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2593,17 +2543,17 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="40" t="s">
         <v>393</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -3228,17 +3178,17 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="40" t="s">
         <v>393</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -3668,17 +3618,17 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="40" t="s">
         <v>393</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -6570,10 +6520,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6581,7 +6531,8 @@
     <col min="1" max="1" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="109.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -6599,740 +6550,746 @@
       <c r="A1" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="36" t="s">
         <v>351</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="33" t="s">
         <v>358</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="33" t="s">
         <v>359</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="34" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:15" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="D2" s="34">
+        <v>19</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>481</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+    </row>
+    <row r="3" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B3" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C3" s="34" t="s">
         <v>336</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D3" s="34">
         <v>10</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G3" s="34" t="s">
         <v>429</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="H3" s="34" t="s">
         <v>430</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="I3" s="34" t="s">
         <v>431</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="J3" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34" t="s">
         <v>432</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+    </row>
+    <row r="4" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>455</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D4" s="34">
+        <v>20</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>443</v>
+      </c>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+    </row>
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D5" s="34">
+        <v>20</v>
+      </c>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>469</v>
+      </c>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+    </row>
+    <row r="6" spans="1:15" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D6" s="34">
+        <v>30</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34" t="s">
+        <v>452</v>
+      </c>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+    </row>
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>417</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D7" s="34">
+        <v>100</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34" t="s">
+        <v>451</v>
+      </c>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>457</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="D8" s="34">
+        <v>19</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34" t="s">
+        <v>453</v>
+      </c>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="D9" s="34">
+        <v>19</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>459</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D10" s="34">
+        <v>200</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+    </row>
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="D11" s="34">
+        <v>19</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D12" s="34">
+        <v>200</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+    </row>
+    <row r="13" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D13" s="34">
+        <v>250</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>468</v>
+      </c>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+    </row>
+    <row r="14" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D14" s="34">
+        <v>50</v>
+      </c>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>466</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>465</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>464</v>
+      </c>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+    </row>
+    <row r="15" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D15" s="34">
+        <v>19</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+    </row>
+    <row r="16" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D16" s="34">
+        <v>8</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>474</v>
+      </c>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+    </row>
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D17" s="34">
+        <v>8</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>472</v>
+      </c>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+    </row>
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D18" s="34">
+        <v>8</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+    </row>
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D19" s="34">
+        <v>20</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="J19" s="34" t="s">
         <v>442</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36" t="s">
-        <v>433</v>
-      </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="O2" s="36"/>
-    </row>
-    <row r="3" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>456</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>462</v>
-      </c>
-      <c r="D3" s="36">
-        <v>20</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>445</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>444</v>
-      </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="O3" s="36"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>414</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>462</v>
-      </c>
-      <c r="D4" s="36">
-        <v>20</v>
-      </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>445</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>470</v>
-      </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="O4" s="36"/>
-    </row>
-    <row r="5" spans="1:15" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="36" t="s">
-        <v>415</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>457</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>462</v>
-      </c>
-      <c r="D5" s="36">
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+    </row>
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D20" s="34">
         <v>30</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>432</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>435</v>
-      </c>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36" t="s">
-        <v>453</v>
-      </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="O5" s="36"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="36" t="s">
-        <v>417</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>418</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>462</v>
-      </c>
-      <c r="D6" s="36">
-        <v>100</v>
-      </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>434</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>419</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>417</v>
-      </c>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36" t="s">
-        <v>452</v>
-      </c>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="O6" s="36"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>458</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>459</v>
-      </c>
-      <c r="D7" s="36">
+      <c r="E20" s="34"/>
+      <c r="F20" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+    </row>
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D21" s="34">
         <v>19</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>482</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>432</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>436</v>
-      </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36" t="s">
-        <v>454</v>
-      </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="O7" s="36"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="36" t="s">
-        <v>420</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>421</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>459</v>
-      </c>
-      <c r="D8" s="36">
-        <v>19</v>
-      </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>434</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>437</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>438</v>
-      </c>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="O8" s="36"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="36" t="s">
-        <v>422</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>460</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>462</v>
-      </c>
-      <c r="D9" s="36">
-        <v>200</v>
-      </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>434</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>437</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>439</v>
-      </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="O9" s="36"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="36" t="s">
-        <v>424</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>425</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>459</v>
-      </c>
-      <c r="D10" s="36">
-        <v>19</v>
-      </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>434</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>426</v>
-      </c>
-      <c r="J10" s="36" t="s">
-        <v>440</v>
-      </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="O10" s="36"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="36" t="s">
-        <v>427</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>428</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>462</v>
-      </c>
-      <c r="D11" s="36">
-        <v>200</v>
-      </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>434</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>426</v>
-      </c>
-      <c r="J11" s="36" t="s">
-        <v>441</v>
-      </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="O11" s="36"/>
-    </row>
-    <row r="12" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>462</v>
-      </c>
-      <c r="D12" s="36">
-        <v>250</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="I12" s="36" t="s">
-        <v>445</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>469</v>
-      </c>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36" t="s">
-        <v>471</v>
-      </c>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="O12" s="36"/>
-    </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>462</v>
-      </c>
-      <c r="D13" s="36">
-        <v>50</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>467</v>
-      </c>
-      <c r="I13" s="36" t="s">
-        <v>466</v>
-      </c>
-      <c r="J13" s="36" t="s">
-        <v>465</v>
-      </c>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36" t="s">
-        <v>468</v>
-      </c>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="O13" s="36"/>
-    </row>
-    <row r="14" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>461</v>
-      </c>
-      <c r="D14" s="36">
-        <v>19</v>
-      </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="I14" s="36" t="s">
-        <v>432</v>
-      </c>
-      <c r="J14" s="36" t="s">
-        <v>442</v>
-      </c>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36" t="s">
-        <v>463</v>
-      </c>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="O14" s="36"/>
-    </row>
-    <row r="15" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>461</v>
-      </c>
-      <c r="D15" s="36">
-        <v>8</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H15" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="I15" s="36" t="s">
-        <v>432</v>
-      </c>
-      <c r="J15" s="36" t="s">
-        <v>475</v>
-      </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36" t="s">
-        <v>464</v>
-      </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="O15" s="36"/>
-    </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>461</v>
-      </c>
-      <c r="D16" s="36">
-        <v>8</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="I16" s="36" t="s">
-        <v>472</v>
-      </c>
-      <c r="J16" s="36" t="s">
-        <v>473</v>
-      </c>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-    </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>461</v>
-      </c>
-      <c r="D17" s="36">
-        <v>8</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>472</v>
-      </c>
-      <c r="J17" s="36" t="s">
-        <v>474</v>
-      </c>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>462</v>
-      </c>
-      <c r="D18" s="36">
-        <v>20</v>
-      </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="I18" s="36" t="s">
-        <v>432</v>
-      </c>
-      <c r="J18" s="36" t="s">
-        <v>443</v>
-      </c>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="O18" s="36"/>
-    </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>455</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>462</v>
-      </c>
-      <c r="D19" s="36">
-        <v>30</v>
-      </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="39" t="s">
-        <v>429</v>
-      </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="E21" s="34"/>
+      <c r="F21" s="37" t="s">
         <v>480</v>
       </c>
-      <c r="C20" s="36" t="s">
-        <v>461</v>
-      </c>
-      <c r="D20" s="36">
-        <v>19</v>
-      </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="39" t="s">
-        <v>481</v>
-      </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="41"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="F21:J21"/>
     <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7470,17 +7427,17 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="40" t="s">
         <v>393</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -7914,17 +7871,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="40" t="s">
         <v>393</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -8287,17 +8244,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="40" t="s">
         <v>393</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -8570,10 +8527,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EE7B5B-550E-4665-B6EF-861CC74C178B}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8596,820 +8553,818 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="36" t="s">
         <v>351</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="33" t="s">
         <v>358</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="33" t="s">
         <v>359</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="34" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:15" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="D2" s="34">
+        <v>19</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>481</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+    </row>
+    <row r="3" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B3" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C3" s="34" t="s">
         <v>336</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D3" s="34">
         <v>10</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G3" s="34" t="s">
         <v>429</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="H3" s="34" t="s">
         <v>430</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="I3" s="34" t="s">
         <v>431</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="J3" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34" t="s">
         <v>432</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+    </row>
+    <row r="4" spans="1:15" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D4" s="34">
+        <v>20</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>443</v>
+      </c>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+    </row>
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D5" s="34">
+        <v>20</v>
+      </c>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>469</v>
+      </c>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+    </row>
+    <row r="6" spans="1:15" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D6" s="34">
+        <v>30</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34" t="s">
+        <v>452</v>
+      </c>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+    </row>
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D7" s="34">
+        <v>100</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34" t="s">
+        <v>451</v>
+      </c>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="D8" s="34">
+        <v>19</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34" t="s">
+        <v>453</v>
+      </c>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="D9" s="34">
+        <v>19</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D10" s="34">
+        <v>200</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+    </row>
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="D11" s="34">
+        <v>19</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D12" s="34">
+        <v>200</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+    </row>
+    <row r="13" spans="1:15" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D13" s="34">
+        <v>250</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>468</v>
+      </c>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+    </row>
+    <row r="14" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D14" s="34">
+        <v>50</v>
+      </c>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>466</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>465</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>464</v>
+      </c>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+    </row>
+    <row r="15" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D15" s="34">
+        <v>19</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+    </row>
+    <row r="16" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D16" s="34">
+        <v>19</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+    </row>
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D17" s="34">
+        <v>19</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>472</v>
+      </c>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+    </row>
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D18" s="34">
+        <v>19</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+    </row>
+    <row r="19" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D19" s="34">
+        <v>19</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>475</v>
+      </c>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+    </row>
+    <row r="20" spans="1:15" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="34" t="s">
+        <v>446</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D20" s="34">
+        <v>19</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+    </row>
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D21" s="34">
+        <v>20</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="J21" s="34" t="s">
         <v>442</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36" t="s">
-        <v>433</v>
-      </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="O2" s="36"/>
-    </row>
-    <row r="3" spans="1:15" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>462</v>
-      </c>
-      <c r="D3" s="36">
-        <v>20</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>445</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>444</v>
-      </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="O3" s="36"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>414</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>462</v>
-      </c>
-      <c r="D4" s="36">
-        <v>20</v>
-      </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>445</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>470</v>
-      </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="O4" s="36"/>
-    </row>
-    <row r="5" spans="1:15" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="36" t="s">
-        <v>415</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>416</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>462</v>
-      </c>
-      <c r="D5" s="36">
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+    </row>
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D22" s="34">
         <v>30</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>432</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>435</v>
-      </c>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36" t="s">
-        <v>453</v>
-      </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="O5" s="36"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="36" t="s">
-        <v>417</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>418</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>462</v>
-      </c>
-      <c r="D6" s="36">
-        <v>100</v>
-      </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>434</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>419</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>417</v>
-      </c>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36" t="s">
-        <v>452</v>
-      </c>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="O6" s="36"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>451</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>459</v>
-      </c>
-      <c r="D7" s="36">
+      <c r="E22" s="34"/>
+      <c r="F22" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+    </row>
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D23" s="34">
         <v>19</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>482</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>432</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>436</v>
-      </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36" t="s">
-        <v>454</v>
-      </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="O7" s="36"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="36" t="s">
-        <v>420</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>421</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>459</v>
-      </c>
-      <c r="D8" s="36">
-        <v>19</v>
-      </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>434</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>437</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>438</v>
-      </c>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="O8" s="36"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="36" t="s">
-        <v>422</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>423</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>462</v>
-      </c>
-      <c r="D9" s="36">
-        <v>200</v>
-      </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>434</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>437</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>439</v>
-      </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="O9" s="36"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="36" t="s">
-        <v>424</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>425</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>459</v>
-      </c>
-      <c r="D10" s="36">
-        <v>19</v>
-      </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>434</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>426</v>
-      </c>
-      <c r="J10" s="36" t="s">
-        <v>440</v>
-      </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="O10" s="36"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="36" t="s">
-        <v>427</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>428</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>462</v>
-      </c>
-      <c r="D11" s="36">
-        <v>200</v>
-      </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>434</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>426</v>
-      </c>
-      <c r="J11" s="36" t="s">
-        <v>441</v>
-      </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="O11" s="36"/>
-    </row>
-    <row r="12" spans="1:15" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>462</v>
-      </c>
-      <c r="D12" s="36">
-        <v>250</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="I12" s="36" t="s">
-        <v>445</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>469</v>
-      </c>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36" t="s">
-        <v>471</v>
-      </c>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="O12" s="36"/>
-    </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>462</v>
-      </c>
-      <c r="D13" s="36">
-        <v>50</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>467</v>
-      </c>
-      <c r="I13" s="36" t="s">
-        <v>466</v>
-      </c>
-      <c r="J13" s="36" t="s">
-        <v>465</v>
-      </c>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36" t="s">
-        <v>468</v>
-      </c>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="O13" s="36"/>
-    </row>
-    <row r="14" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>461</v>
-      </c>
-      <c r="D14" s="36">
-        <v>19</v>
-      </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="I14" s="36" t="s">
-        <v>432</v>
-      </c>
-      <c r="J14" s="36" t="s">
-        <v>442</v>
-      </c>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36" t="s">
-        <v>463</v>
-      </c>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="O14" s="36"/>
-    </row>
-    <row r="15" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>461</v>
-      </c>
-      <c r="D15" s="36">
-        <v>19</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H15" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="I15" s="36" t="s">
-        <v>432</v>
-      </c>
-      <c r="J15" s="36" t="s">
-        <v>442</v>
-      </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36" t="s">
-        <v>464</v>
-      </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="O15" s="36"/>
-    </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>461</v>
-      </c>
-      <c r="D16" s="36">
-        <v>19</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="I16" s="36" t="s">
-        <v>477</v>
-      </c>
-      <c r="J16" s="36" t="s">
-        <v>473</v>
-      </c>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-    </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>461</v>
-      </c>
-      <c r="D17" s="36">
-        <v>19</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>477</v>
-      </c>
-      <c r="J17" s="36" t="s">
-        <v>474</v>
-      </c>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-    </row>
-    <row r="18" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="36" t="s">
-        <v>449</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>450</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>461</v>
-      </c>
-      <c r="D18" s="36">
-        <v>19</v>
-      </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="I18" s="36" t="s">
-        <v>477</v>
-      </c>
-      <c r="J18" s="36" t="s">
-        <v>476</v>
-      </c>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-    </row>
-    <row r="19" spans="1:15" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="36" t="s">
-        <v>447</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>448</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>461</v>
-      </c>
-      <c r="D19" s="36">
-        <v>19</v>
-      </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H19" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="I19" s="36" t="s">
-        <v>477</v>
-      </c>
-      <c r="J19" s="36" t="s">
-        <v>478</v>
-      </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>462</v>
-      </c>
-      <c r="D20" s="36">
-        <v>20</v>
-      </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="I20" s="36" t="s">
-        <v>432</v>
-      </c>
-      <c r="J20" s="36" t="s">
-        <v>443</v>
-      </c>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="O20" s="36"/>
-    </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>455</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>462</v>
-      </c>
-      <c r="D21" s="36">
-        <v>30</v>
-      </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="39" t="s">
-        <v>429</v>
-      </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-    </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="E23" s="34"/>
+      <c r="F23" s="37" t="s">
         <v>480</v>
       </c>
-      <c r="C22" s="36" t="s">
-        <v>461</v>
-      </c>
-      <c r="D22" s="36">
-        <v>19</v>
-      </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="39" t="s">
-        <v>481</v>
-      </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="41"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F21:J21"/>
+  <mergeCells count="3">
     <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9612,17 +9567,17 @@
       <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="40" t="s">
         <v>393</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -10338,17 +10293,17 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="40" t="s">
         <v>393</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">

--- a/Documentos/Mapeamento das Fontes de Dados/ASPECT/MAPEAMENTO_ASPECT.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/ASPECT/MAPEAMENTO_ASPECT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ASPECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE9DC9A-83A5-4842-A604-4DCDD0C329C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F8352A-C1D2-4DF4-B8A5-8739372EAEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="489">
   <si>
     <t>CPF</t>
   </si>
@@ -1515,6 +1515,46 @@
   </si>
   <si>
     <t>IDENTITY</t>
+  </si>
+  <si>
+    <t>BANCO</t>
+  </si>
+  <si>
+    <t>HOST (IP) DO BANCO ORIGEM</t>
+  </si>
+  <si>
+    <t>NOME DO BANCO DE DADOS ORIGEM</t>
+  </si>
+  <si>
+    <t>SELECT 
+    CAST(DateAdd(HOUR, - 3, A.CallStartDt) AS DATE) AS DATA,
+    REPLACE(C.Param3, '.', '') AS ID_KEY,
+    C.Param2 AS CPF,
+    A.User_Id AS ID_AGENTE,
+    CONCAT(E.User_F_Name,' ',E.User_L_Name) AS AGENTE,
+    CONCAT(A.SeqNum,A.CallId) AS CALL_ID,
+    D.Service_Id AS ID_CAMPANHA,
+    D.Service_c AS NOME_CAMPANHA,
+    F.Disp_Id AS ID_TABULACAO,
+    F.Disposition_Desc AS NOME_TABULACAO,
+    C.Param8 AS MAILING,
+    G.ResourceGroupDesc AS ROTA,
+    DateAdd(HOUR, - 3, A.CallStartDt) AS INICIO_CHAMADA,
+    DateAdd(HOUR, - 3, A.EndGaurdDt) AS FIM_CHAMADA,
+    DateAdd(HOUR, - 3, B.ConnClearDt) AS INICIO_POS,
+    DateAdd(HOUR, - 3, B.WrapEndDt) AS FIM_POS,
+    A.DialedNum AS TELEFONE,
+    '10.12.101.21' AS INSTANCIA,
+    'detail_epro' AS BANCO,
+    'ASPECT' AS ORIGEM
+FROM detail_epro..Calldetail A WITH (NOLOCK)
+INNER JOIN detail_epro..AODCallDetail  B WITH (NOLOCK) ON A.CallId = B.CallId AND A.SeqNum = B.SeqNum
+LEFT JOIN detail_epro..MediaDataDetail C WITH (NOLOCK) ON A.CallId = C.CallId AND A.SeqNum = C.SeqNum
+LEFT JOIN config_epro.dbo.Service D WITH (NOLOCK) ON A.Service_Id = D.Service_Id
+LEFT JOIN config_epro..Users E WITH (NOLOCK) ON A.User_Id = E.User_Id
+LEFT JOIN config_epro..Disposition F WITH (NOLOCK) ON F.Disp_Id = B.AgentDispId
+LEFT JOIN resource..ResourceGroup G WITH (NOLOCK) ON A.ResourceGroup_Id = G.ResourceGroup_Id
+WHERE A.CallStartDt BETWEEN '2024-07-15 11:00:00.000' AND '2024-07-15 11:59:59.999'</t>
   </si>
 </sst>
 </file>
@@ -1693,7 +1733,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1813,12 +1853,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1939,6 +2016,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6520,33 +6606,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="109.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.88671875" style="1" customWidth="1"/>
     <col min="10" max="10" width="19.44140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="58.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="50.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.77734375" style="1"/>
+    <col min="12" max="12" width="31.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="24.88671875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
         <v>186</v>
       </c>
@@ -6583,17 +6667,11 @@
       <c r="L1" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="M1" s="33" t="s">
-        <v>358</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>359</v>
-      </c>
-      <c r="O1" s="34" t="s">
+      <c r="M1" s="34" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>482</v>
       </c>
@@ -6618,11 +6696,11 @@
       <c r="J2" s="39"/>
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-    </row>
-    <row r="3" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M2" s="41" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
         <v>29</v>
       </c>
@@ -6655,11 +6733,9 @@
       <c r="L3" s="34" t="s">
         <v>432</v>
       </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-    </row>
-    <row r="4" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="42"/>
+    </row>
+    <row r="4" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
         <v>46</v>
       </c>
@@ -6692,11 +6768,9 @@
       <c r="L4" s="34" t="s">
         <v>445</v>
       </c>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M4" s="42"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
@@ -6727,11 +6801,9 @@
       </c>
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-    </row>
-    <row r="6" spans="1:15" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="42"/>
+    </row>
+    <row r="6" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
         <v>414</v>
       </c>
@@ -6764,11 +6836,9 @@
       <c r="L6" s="34" t="s">
         <v>452</v>
       </c>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="42"/>
+    </row>
+    <row r="7" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
         <v>416</v>
       </c>
@@ -6801,11 +6871,9 @@
       <c r="L7" s="34" t="s">
         <v>451</v>
       </c>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="42"/>
+    </row>
+    <row r="8" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
         <v>215</v>
       </c>
@@ -6838,11 +6906,9 @@
       <c r="L8" s="34" t="s">
         <v>453</v>
       </c>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M8" s="42"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
         <v>419</v>
       </c>
@@ -6873,11 +6939,9 @@
       </c>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="42"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
         <v>421</v>
       </c>
@@ -6908,11 +6972,9 @@
       </c>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="42"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="34" t="s">
         <v>423</v>
       </c>
@@ -6943,11 +7005,9 @@
       </c>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="42"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="34" t="s">
         <v>426</v>
       </c>
@@ -6978,11 +7038,9 @@
       </c>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-    </row>
-    <row r="13" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="42"/>
+    </row>
+    <row r="13" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="s">
         <v>43</v>
       </c>
@@ -7015,11 +7073,9 @@
       <c r="L13" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-    </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M13" s="42"/>
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
         <v>44</v>
       </c>
@@ -7052,11 +7108,9 @@
       <c r="L14" s="34" t="s">
         <v>467</v>
       </c>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-    </row>
-    <row r="15" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M14" s="42"/>
+    </row>
+    <row r="15" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
         <v>47</v>
       </c>
@@ -7089,11 +7143,9 @@
       <c r="L15" s="34" t="s">
         <v>462</v>
       </c>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-    </row>
-    <row r="16" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M15" s="42"/>
+    </row>
+    <row r="16" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="34" t="s">
         <v>48</v>
       </c>
@@ -7126,11 +7178,9 @@
       <c r="L16" s="34" t="s">
         <v>463</v>
       </c>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-    </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M16" s="42"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="34" t="s">
         <v>55</v>
       </c>
@@ -7161,10 +7211,9 @@
       </c>
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M17" s="42"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="34" t="s">
         <v>56</v>
       </c>
@@ -7195,10 +7244,9 @@
       </c>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-    </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M18" s="42"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="34" t="s">
         <v>12</v>
       </c>
@@ -7229,26 +7277,24 @@
       </c>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M19" s="42"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="34" t="s">
-        <v>109</v>
+        <v>352</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>461</v>
       </c>
       <c r="D20" s="34">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E20" s="34"/>
       <c r="F20" s="37" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
@@ -7256,25 +7302,24 @@
       <c r="J20" s="39"/>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-    </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>479</v>
+      <c r="M20" s="42"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="34" t="s">
+        <v>485</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>487</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D21" s="34">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21" s="34"/>
       <c r="F21" s="37" t="s">
-        <v>480</v>
+        <v>430</v>
       </c>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
@@ -7282,14 +7327,66 @@
       <c r="J21" s="39"/>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
+      <c r="M21" s="42"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D22" s="34">
+        <v>30</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="42"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D23" s="34">
+        <v>19</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="M2:M23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F2:J2"/>
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8536,7 +8633,7 @@
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="109.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.44140625" style="1" bestFit="1" customWidth="1"/>

--- a/Documentos/Mapeamento das Fontes de Dados/ASPECT/MAPEAMENTO_ASPECT.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/ASPECT/MAPEAMENTO_ASPECT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ASPECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F8352A-C1D2-4DF4-B8A5-8739372EAEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02FD823-4304-4FD7-BF50-4411C1E1DEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="490">
   <si>
     <t>CPF</t>
   </si>
@@ -1555,6 +1555,9 @@
 LEFT JOIN config_epro..Disposition F WITH (NOLOCK) ON F.Disp_Id = B.AgentDispId
 LEFT JOIN resource..ResourceGroup G WITH (NOLOCK) ON A.ResourceGroup_Id = G.ResourceGroup_Id
 WHERE A.CallStartDt BETWEEN '2024-07-15 11:00:00.000' AND '2024-07-15 11:59:59.999'</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
   </si>
 </sst>
 </file>
@@ -2005,6 +2008,15 @@
     <xf numFmtId="0" fontId="9" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2016,15 +2028,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2629,17 +2632,17 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -3264,17 +3267,17 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -3704,17 +3707,17 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -6608,9 +6611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6687,16 +6688,16 @@
       <c r="E2" s="34" t="s">
         <v>481</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="40" t="s">
         <v>484</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="37" t="s">
         <v>488</v>
       </c>
     </row>
@@ -6733,7 +6734,7 @@
       <c r="L3" s="34" t="s">
         <v>432</v>
       </c>
-      <c r="M3" s="42"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
@@ -6743,7 +6744,7 @@
         <v>455</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="D4" s="34">
         <v>20</v>
@@ -6768,7 +6769,7 @@
       <c r="L4" s="34" t="s">
         <v>445</v>
       </c>
-      <c r="M4" s="42"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
@@ -6778,7 +6779,7 @@
         <v>413</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="D5" s="34">
         <v>20</v>
@@ -6801,7 +6802,7 @@
       </c>
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
-      <c r="M5" s="42"/>
+      <c r="M5" s="38"/>
     </row>
     <row r="6" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
@@ -6814,7 +6815,7 @@
         <v>461</v>
       </c>
       <c r="D6" s="34">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="34" t="s">
@@ -6836,7 +6837,7 @@
       <c r="L6" s="34" t="s">
         <v>452</v>
       </c>
-      <c r="M6" s="42"/>
+      <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
@@ -6849,7 +6850,7 @@
         <v>461</v>
       </c>
       <c r="D7" s="34">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34" t="s">
@@ -6871,7 +6872,7 @@
       <c r="L7" s="34" t="s">
         <v>451</v>
       </c>
-      <c r="M7" s="42"/>
+      <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
@@ -6906,7 +6907,7 @@
       <c r="L8" s="34" t="s">
         <v>453</v>
       </c>
-      <c r="M8" s="42"/>
+      <c r="M8" s="38"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
@@ -6939,7 +6940,7 @@
       </c>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
-      <c r="M9" s="42"/>
+      <c r="M9" s="38"/>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
@@ -6952,7 +6953,7 @@
         <v>461</v>
       </c>
       <c r="D10" s="34">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="34" t="s">
@@ -6972,7 +6973,7 @@
       </c>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
-      <c r="M10" s="42"/>
+      <c r="M10" s="38"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="34" t="s">
@@ -7005,7 +7006,7 @@
       </c>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
-      <c r="M11" s="42"/>
+      <c r="M11" s="38"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="34" t="s">
@@ -7018,7 +7019,7 @@
         <v>461</v>
       </c>
       <c r="D12" s="34">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" s="34" t="s">
@@ -7038,7 +7039,7 @@
       </c>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
-      <c r="M12" s="42"/>
+      <c r="M12" s="38"/>
     </row>
     <row r="13" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="s">
@@ -7048,10 +7049,10 @@
         <v>217</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="D13" s="34">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="34" t="s">
@@ -7073,7 +7074,7 @@
       <c r="L13" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="M13" s="42"/>
+      <c r="M13" s="38"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
@@ -7083,10 +7084,10 @@
         <v>218</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="D14" s="34">
-        <v>50</v>
+        <v>260</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="34" t="s">
@@ -7108,7 +7109,7 @@
       <c r="L14" s="34" t="s">
         <v>467</v>
       </c>
-      <c r="M14" s="42"/>
+      <c r="M14" s="38"/>
     </row>
     <row r="15" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
@@ -7143,7 +7144,7 @@
       <c r="L15" s="34" t="s">
         <v>462</v>
       </c>
-      <c r="M15" s="42"/>
+      <c r="M15" s="38"/>
     </row>
     <row r="16" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="34" t="s">
@@ -7156,7 +7157,7 @@
         <v>460</v>
       </c>
       <c r="D16" s="34">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="34" t="s">
@@ -7178,7 +7179,7 @@
       <c r="L16" s="34" t="s">
         <v>463</v>
       </c>
-      <c r="M16" s="42"/>
+      <c r="M16" s="38"/>
     </row>
     <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="34" t="s">
@@ -7191,7 +7192,7 @@
         <v>460</v>
       </c>
       <c r="D17" s="34">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="34" t="s">
@@ -7211,7 +7212,7 @@
       </c>
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
-      <c r="M17" s="42"/>
+      <c r="M17" s="38"/>
     </row>
     <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="34" t="s">
@@ -7224,7 +7225,7 @@
         <v>460</v>
       </c>
       <c r="D18" s="34">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E18" s="34"/>
       <c r="F18" s="34" t="s">
@@ -7244,7 +7245,7 @@
       </c>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
-      <c r="M18" s="42"/>
+      <c r="M18" s="38"/>
     </row>
     <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="34" t="s">
@@ -7254,10 +7255,10 @@
         <v>221</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="D19" s="34">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E19" s="34"/>
       <c r="F19" s="34" t="s">
@@ -7277,7 +7278,7 @@
       </c>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
-      <c r="M19" s="42"/>
+      <c r="M19" s="38"/>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="34" t="s">
@@ -7287,22 +7288,22 @@
         <v>486</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="D20" s="34">
         <v>20</v>
       </c>
       <c r="E20" s="34"/>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="40" t="s">
         <v>429</v>
       </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="42"/>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
-      <c r="M20" s="42"/>
+      <c r="M20" s="38"/>
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="34" t="s">
@@ -7312,22 +7313,22 @@
         <v>487</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="D21" s="34">
         <v>20</v>
       </c>
       <c r="E21" s="34"/>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="40" t="s">
         <v>430</v>
       </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="39"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="42"/>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
-      <c r="M21" s="42"/>
+      <c r="M21" s="38"/>
     </row>
     <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="34" t="s">
@@ -7337,28 +7338,28 @@
         <v>454</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="D22" s="34">
         <v>30</v>
       </c>
       <c r="E22" s="34"/>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="40" t="s">
         <v>428</v>
       </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="39"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
-      <c r="M22" s="42"/>
+      <c r="M22" s="38"/>
     </row>
     <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="34" t="s">
         <v>478</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="34" t="s">
         <v>479</v>
       </c>
       <c r="C23" s="34" t="s">
@@ -7368,16 +7369,16 @@
         <v>19</v>
       </c>
       <c r="E23" s="34"/>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="40" t="s">
         <v>480</v>
       </c>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="39"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="42"/>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
-      <c r="M23" s="43"/>
+      <c r="M23" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7524,17 +7525,17 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -7968,17 +7969,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -8341,17 +8342,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -8712,13 +8713,13 @@
       <c r="E2" s="34" t="s">
         <v>481</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="40" t="s">
         <v>484</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
       <c r="M2" s="34"/>
@@ -9422,13 +9423,13 @@
         <v>30</v>
       </c>
       <c r="E22" s="34"/>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="40" t="s">
         <v>428</v>
       </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="39"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
       <c r="M22" s="34"/>
@@ -9449,13 +9450,13 @@
         <v>19</v>
       </c>
       <c r="E23" s="34"/>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="40" t="s">
         <v>480</v>
       </c>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="39"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9664,17 +9665,17 @@
       <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -10390,17 +10391,17 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">

--- a/Documentos/Mapeamento das Fontes de Dados/ASPECT/MAPEAMENTO_ASPECT.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/ASPECT/MAPEAMENTO_ASPECT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ASPECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02FD823-4304-4FD7-BF50-4411C1E1DEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA33224-107C-4ABF-9B00-C845E526786C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" firstSheet="2" activeTab="6" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -6611,7 +6611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8625,10 +8625,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EE7B5B-550E-4665-B6EF-861CC74C178B}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8771,7 +8771,7 @@
         <v>216</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="D4" s="34">
         <v>20</v>
@@ -8808,7 +8808,7 @@
         <v>413</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="D5" s="34">
         <v>20</v>
@@ -8846,7 +8846,7 @@
         <v>461</v>
       </c>
       <c r="D6" s="34">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="34" t="s">
@@ -8883,7 +8883,7 @@
         <v>461</v>
       </c>
       <c r="D7" s="34">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34" t="s">
@@ -9062,7 +9062,7 @@
         <v>461</v>
       </c>
       <c r="D12" s="34">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" s="34" t="s">
@@ -9094,10 +9094,10 @@
         <v>217</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="D13" s="34">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="34" t="s">
@@ -9410,58 +9410,59 @@
       <c r="O21" s="34"/>
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>454</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>461</v>
-      </c>
-      <c r="D22" s="34">
-        <v>30</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="40" t="s">
-        <v>428</v>
-      </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="42"/>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
       <c r="M22" s="34"/>
       <c r="N22" s="34"/>
       <c r="O22" s="34"/>
     </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D24" s="34">
+        <v>30</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="42"/>
+    </row>
+    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="34" t="s">
         <v>478</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="34" t="s">
         <v>479</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C25" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D25" s="34">
         <v>19</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="40" t="s">
+      <c r="F25" s="40" t="s">
         <v>480</v>
       </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="42"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="F25:J25"/>
     <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentos/Mapeamento das Fontes de Dados/ASPECT/MAPEAMENTO_ASPECT.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/ASPECT/MAPEAMENTO_ASPECT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ASPECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA33224-107C-4ABF-9B00-C845E526786C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C871FB5-C9FB-4FDA-BD95-28E1381E3214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" firstSheet="2" activeTab="6" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="493">
   <si>
     <t>CPF</t>
   </si>
@@ -1559,6 +1559,45 @@
   <si>
     <t>VARCHAR</t>
   </si>
+  <si>
+    <t>ANI</t>
+  </si>
+  <si>
+    <t>Param6</t>
+  </si>
+  <si>
+    <t>SELECT TOP 50
+    CAST(DateAdd(HOUR, - 3, A.CallStartDt) AS DATE) AS DATA,
+    CAST(REPLACE(C.Param3, '.', '') AS VARCHAR(20)) AS ID_KEY,
+    CAST(C.Param6 AS VARCHAR(20)) AS CPF,
+    CAST(A.User_Id AS NVARCHAR(60)) AS ID_AGENTE,
+    CAST(CONCAT(E.User_F_Name, ' ', E.User_L_Name) AS NVARCHAR(250)) AS AGENTE,
+    CAST(CONCAT(A.SeqNum, A.CallId) AS BIGINT) AS CALL_ID,
+    CAST(D.Service_Id AS BIGINT) AS ID_CAMPANHA,
+    CAST(D.Service_c AS NVARCHAR(1200)) AS NOME_CAMPANHA,
+    CAST(F.Disp_Id AS BIGINT) AS ID_TABULACAO,
+    CAST(F.Disposition_Desc AS NVARCHAR(400)) AS NOME_TABULACAO,
+    CAST(C.Param8 AS VARCHAR(500)) AS MAILING,
+    CAST(G.ResourceGroupDesc AS VARCHAR(260)) AS ROTA,
+    CAST(DateAdd(HOUR, - 3, A.CallStartDt) AS DATETIME2) AS INICIO_CHAMADA,
+    CAST(DateAdd(HOUR, - 3, A.EndGaurdDt) AS DATETIME2) AS FIM_CHAMADA,
+    CAST(DateAdd(HOUR, - 3, B.ConnClearDt) AS DATETIME2) AS INICIO_POS,
+    CAST(DateAdd(HOUR, - 3, B.WrapEndDt) AS DATETIME2) AS FIM_POS,
+    CAST(DateAdd(HOUR, - 3, B.QueueStartDt) AS DATETIME2) AS INICIO_FILA,
+    CAST(DateAdd(HOUR, - 3, B.QueueEndDt) AS DATETIME2) AS FIM_FILA,
+    CAST(A.ANI AS VARCHAR(25)) AS TELEFONE,
+    CAST('10.12.101.21' AS VARCHAR(20)) AS INSTANCIA,
+    CAST('detail_epro' AS VARCHAR(20)) AS BANCO,
+    CAST('ASPECT' AS VARCHAR(30)) AS ORIGEM,
+    CAST(GETDATE() AS DATETIME2) AS DATA_INSERT
+FROM detail_epro..Calldetail A WITH (NOLOCK)
+INNER JOIN detail_epro..ACDCallDetail B WITH (NOLOCK) ON A.CallId = B.CallId AND A.SeqNum = B.SeqNum
+LEFT JOIN detail_epro..MediaDataDetail C WITH (NOLOCK) ON A.CallId = C.CallId AND A.SeqNum = C.SeqNum
+LEFT JOIN config_epro.dbo.Service D WITH (NOLOCK) ON A.Service_Id = D.Service_Id
+LEFT JOIN config_epro..Users E WITH (NOLOCK) ON A.User_Id = E.User_Id
+LEFT JOIN config_epro..Disposition F WITH (NOLOCK) ON F.Disp_Id = B.AgentDispId
+LEFT JOIN resource..ResourceGroup G WITH (NOLOCK) ON A.ResourceGroup_Id = G.ResourceGroup_Id</t>
+  </si>
 </sst>
 </file>
 
@@ -1568,7 +1607,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1624,14 +1663,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1736,7 +1767,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1893,12 +1924,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1993,10 +2033,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2005,7 +2042,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2028,6 +2065,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2350,7 +2393,7 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -2358,7 +2401,7 @@
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
@@ -2369,67 +2412,67 @@
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2447,7 +2490,7 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" style="1" bestFit="1" customWidth="1"/>
@@ -2477,7 +2520,7 @@
     <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -2554,7 +2597,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2631,20 +2674,20 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I3" s="43" t="s">
+    <row r="3" spans="1:25">
+      <c r="I3" s="42" t="s">
         <v>393</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-    </row>
-    <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+    </row>
+    <row r="4" spans="1:25" ht="27.6">
       <c r="A4" s="20" t="s">
         <v>186</v>
       </c>
@@ -2697,7 +2740,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>84</v>
       </c>
@@ -2732,7 +2775,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2767,7 +2810,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2781,7 +2824,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
@@ -2795,7 +2838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
@@ -2809,7 +2852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>147</v>
       </c>
@@ -2823,7 +2866,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
         <v>148</v>
       </c>
@@ -2837,7 +2880,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
@@ -2851,7 +2894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -2865,7 +2908,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
         <v>144</v>
       </c>
@@ -2882,7 +2925,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>93</v>
       </c>
@@ -2899,7 +2942,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
         <v>94</v>
       </c>
@@ -2916,7 +2959,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>95</v>
       </c>
@@ -2933,7 +2976,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>96</v>
       </c>
@@ -2950,7 +2993,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>97</v>
       </c>
@@ -2967,7 +3010,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>98</v>
       </c>
@@ -2984,7 +3027,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -3001,7 +3044,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>100</v>
       </c>
@@ -3018,7 +3061,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>101</v>
       </c>
@@ -3035,7 +3078,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>102</v>
       </c>
@@ -3052,7 +3095,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
@@ -3069,7 +3112,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
@@ -3086,7 +3129,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
@@ -3103,7 +3146,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>145</v>
       </c>
@@ -3120,7 +3163,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>146</v>
       </c>
@@ -3150,7 +3193,7 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.88671875" bestFit="1" customWidth="1"/>
@@ -3169,7 +3212,7 @@
     <col min="16" max="16" width="48.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -3210,7 +3253,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="2">
         <v>44593</v>
       </c>
@@ -3251,7 +3294,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3266,20 +3309,20 @@
       <c r="L3" s="6"/>
       <c r="M3" s="16"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="43" t="s">
+    <row r="4" spans="1:17">
+      <c r="I4" s="42" t="s">
         <v>393</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-    </row>
-    <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+    </row>
+    <row r="5" spans="1:17" ht="27.6">
       <c r="A5" s="20" t="s">
         <v>186</v>
       </c>
@@ -3332,7 +3375,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -3369,7 +3412,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3406,7 +3449,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3420,7 +3463,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
@@ -3434,7 +3477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -3448,7 +3491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>106</v>
       </c>
@@ -3462,7 +3505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -3476,7 +3519,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>139</v>
       </c>
@@ -3490,7 +3533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>140</v>
       </c>
@@ -3504,7 +3547,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
@@ -3518,7 +3561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
@@ -3532,7 +3575,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>112</v>
       </c>
@@ -3546,7 +3589,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>146</v>
       </c>
@@ -3576,7 +3619,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="110.88671875" style="5" bestFit="1" customWidth="1"/>
@@ -3598,7 +3641,7 @@
     <col min="18" max="16384" width="13.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -3645,7 +3688,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="2">
         <v>44593</v>
       </c>
@@ -3692,7 +3735,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3706,20 +3749,20 @@
       <c r="N3" s="6"/>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J4" s="43" t="s">
+    <row r="4" spans="1:18">
+      <c r="J4" s="42" t="s">
         <v>393</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="20" t="s">
         <v>186</v>
       </c>
@@ -3772,7 +3815,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -3809,7 +3852,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3846,7 +3889,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3860,7 +3903,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
@@ -3874,7 +3917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -3888,7 +3931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>106</v>
       </c>
@@ -3902,7 +3945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>108</v>
       </c>
@@ -3916,7 +3959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -3930,7 +3973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
         <v>139</v>
       </c>
@@ -3944,7 +3987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>140</v>
       </c>
@@ -3958,7 +4001,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="64.5" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>109</v>
       </c>
@@ -3975,7 +4018,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -3989,7 +4032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -4003,7 +4046,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>113</v>
       </c>
@@ -4017,7 +4060,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>146</v>
       </c>
@@ -4045,7 +4088,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.88671875" style="5" bestFit="1" customWidth="1"/>
@@ -4068,7 +4111,7 @@
     <col min="22" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="20" t="s">
         <v>186</v>
       </c>
@@ -4115,7 +4158,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -4149,7 +4192,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4183,7 +4226,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -4194,7 +4237,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
@@ -4205,7 +4248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
@@ -4216,7 +4259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>141</v>
       </c>
@@ -4227,7 +4270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>142</v>
       </c>
@@ -4238,7 +4281,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
@@ -4249,7 +4292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
@@ -4260,7 +4303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -4271,7 +4314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
@@ -4282,7 +4325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
@@ -4293,7 +4336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -4304,7 +4347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>238</v>
       </c>
@@ -4315,7 +4358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
         <v>63</v>
       </c>
@@ -4326,7 +4369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
@@ -4337,7 +4380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>65</v>
       </c>
@@ -4348,7 +4391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
@@ -4359,7 +4402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
@@ -4370,7 +4413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
@@ -4381,7 +4424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>71</v>
       </c>
@@ -4392,7 +4435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>70</v>
       </c>
@@ -4403,7 +4446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>72</v>
       </c>
@@ -4414,7 +4457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>146</v>
       </c>
@@ -4436,7 +4479,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="5" bestFit="1" customWidth="1"/>
@@ -4454,7 +4497,7 @@
     <col min="14" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="20" t="s">
         <v>186</v>
       </c>
@@ -4501,7 +4544,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -4535,7 +4578,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4569,7 +4612,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -4581,7 +4624,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
@@ -4592,7 +4635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
@@ -4603,7 +4646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>141</v>
       </c>
@@ -4614,7 +4657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>142</v>
       </c>
@@ -4625,7 +4668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>77</v>
       </c>
@@ -4636,7 +4679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
@@ -4647,7 +4690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>63</v>
       </c>
@@ -4658,7 +4701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,7 +4712,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>79</v>
       </c>
@@ -4680,7 +4723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
@@ -4691,7 +4734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
@@ -4715,7 +4758,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="7" max="7" width="31.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
@@ -4723,7 +4766,7 @@
     <col min="11" max="11" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="7:10">
       <c r="G2" s="29" t="s">
         <v>193</v>
       </c>
@@ -4737,7 +4780,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="3" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="7:10">
       <c r="G3" s="1" t="s">
         <v>394</v>
       </c>
@@ -4751,7 +4794,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="4" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="7:10">
       <c r="G4" s="1" t="s">
         <v>395</v>
       </c>
@@ -4765,7 +4808,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="5" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="7:10">
       <c r="G5" s="1" t="s">
         <v>396</v>
       </c>
@@ -4779,7 +4822,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="7:10">
       <c r="G6" s="1" t="s">
         <v>397</v>
       </c>
@@ -4793,7 +4836,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="7" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="7:10">
       <c r="G7" s="1" t="s">
         <v>398</v>
       </c>
@@ -4807,7 +4850,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="8" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="7:10">
       <c r="G8" s="1" t="s">
         <v>399</v>
       </c>
@@ -4821,7 +4864,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="9" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="7:10">
       <c r="G9" s="1" t="s">
         <v>400</v>
       </c>
@@ -4835,7 +4878,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="10" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="7:10">
       <c r="G10" s="1" t="s">
         <v>401</v>
       </c>
@@ -4849,7 +4892,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="7:10">
       <c r="G11" s="1" t="s">
         <v>402</v>
       </c>
@@ -4863,7 +4906,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="7:10">
       <c r="G12" s="1" t="s">
         <v>403</v>
       </c>
@@ -4877,7 +4920,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="7:10">
       <c r="G13" s="1" t="s">
         <v>404</v>
       </c>
@@ -4891,7 +4934,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="14" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="7:10">
       <c r="G14" s="1" t="s">
         <v>405</v>
       </c>
@@ -4905,7 +4948,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="15" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="7:10">
       <c r="G15" s="1" t="s">
         <v>406</v>
       </c>
@@ -4932,7 +4975,7 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -4985,7 +5028,7 @@
     <col min="59" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>347</v>
       </c>
@@ -5029,7 +5072,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39">
       <c r="A2" s="1" t="s">
         <v>346</v>
       </c>
@@ -5073,7 +5116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39">
       <c r="B3" s="20" t="s">
         <v>128</v>
       </c>
@@ -5153,7 +5196,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -5233,7 +5276,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -5313,7 +5356,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39">
       <c r="B6" s="7" t="s">
         <v>85</v>
       </c>
@@ -5393,7 +5436,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39">
       <c r="B7" s="7" t="s">
         <v>87</v>
       </c>
@@ -5473,7 +5516,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -5553,7 +5596,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39">
       <c r="B9" s="1" t="s">
         <v>37</v>
       </c>
@@ -5633,7 +5676,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39">
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
@@ -5713,7 +5756,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39">
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
@@ -5793,7 +5836,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39">
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
@@ -5873,7 +5916,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39">
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
@@ -5953,7 +5996,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39">
       <c r="B14" s="9" t="s">
         <v>0</v>
       </c>
@@ -6027,7 +6070,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39">
       <c r="B15" s="9" t="s">
         <v>1</v>
       </c>
@@ -6089,7 +6132,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39">
       <c r="B16" s="9" t="s">
         <v>2</v>
       </c>
@@ -6151,7 +6194,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:33">
       <c r="B17" s="9" t="s">
         <v>3</v>
       </c>
@@ -6207,7 +6250,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:33">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
@@ -6257,7 +6300,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:33">
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
@@ -6295,7 +6338,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:33">
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
@@ -6327,7 +6370,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:33">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -6353,7 +6396,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:33">
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
@@ -6379,7 +6422,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:33">
       <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
@@ -6405,7 +6448,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:33">
       <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
@@ -6431,7 +6474,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:33">
       <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
@@ -6457,7 +6500,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:33">
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
@@ -6483,7 +6526,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:33">
       <c r="B27" s="1" t="s">
         <v>387</v>
       </c>
@@ -6509,7 +6552,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:33">
       <c r="B28" s="1" t="s">
         <v>123</v>
       </c>
@@ -6523,62 +6566,62 @@
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:33">
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:33">
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:33">
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:33">
       <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:40">
       <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:40">
       <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:40">
       <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:40">
       <c r="B36" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:40">
       <c r="B37" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:40">
       <c r="B38" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:40">
       <c r="B39" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:40">
       <c r="B40" s="1" t="s">
         <v>146</v>
       </c>
@@ -6586,7 +6629,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:40">
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
       <c r="J42" s="21"/>
@@ -6611,9 +6654,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="53.5546875" style="1" customWidth="1"/>
@@ -6631,7 +6676,7 @@
     <col min="14" max="16384" width="11.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="25.8" customHeight="1" thickBot="1">
       <c r="A1" s="32" t="s">
         <v>186</v>
       </c>
@@ -6647,7 +6692,7 @@
       <c r="E1" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>351</v>
       </c>
       <c r="G1" s="32" t="s">
@@ -6668,717 +6713,717 @@
       <c r="L1" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="33" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="25.8" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>483</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>458</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="33">
         <v>19</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="39" t="s">
         <v>484</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="37" t="s">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="36" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:13" ht="22.2" customHeight="1" thickBot="1">
+      <c r="A3" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="33">
         <v>10</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34" t="s">
+      <c r="K3" s="33"/>
+      <c r="L3" s="33" t="s">
         <v>432</v>
       </c>
-      <c r="M3" s="38"/>
-    </row>
-    <row r="4" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="34" t="s">
+      <c r="M3" s="37"/>
+    </row>
+    <row r="4" spans="1:13" ht="21" customHeight="1" thickBot="1">
+      <c r="A4" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>489</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="33">
         <v>20</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34" t="s">
+      <c r="E4" s="33"/>
+      <c r="F4" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34" t="s">
+      <c r="K4" s="33"/>
+      <c r="L4" s="33" t="s">
         <v>445</v>
       </c>
-      <c r="M4" s="38"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="34" t="s">
+      <c r="M4" s="37"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" thickBot="1">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>413</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="33" t="s">
         <v>489</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="33">
         <v>20</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34" t="s">
+      <c r="E5" s="33"/>
+      <c r="F5" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="33" t="s">
         <v>469</v>
       </c>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="38"/>
-    </row>
-    <row r="6" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="34" t="s">
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="37"/>
+    </row>
+    <row r="6" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+      <c r="A6" s="33" t="s">
         <v>414</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>456</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="D6" s="34">
-        <v>60</v>
-      </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34" t="s">
+      <c r="D6" s="33">
+        <v>64</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34" t="s">
+      <c r="K6" s="33"/>
+      <c r="L6" s="33" t="s">
         <v>452</v>
       </c>
-      <c r="M6" s="38"/>
-    </row>
-    <row r="7" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="34" t="s">
+      <c r="M6" s="37"/>
+    </row>
+    <row r="7" spans="1:13" ht="29.4" thickBot="1">
+      <c r="A7" s="33" t="s">
         <v>416</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="33">
         <v>250</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34" t="s">
+      <c r="E7" s="33"/>
+      <c r="F7" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="33" t="s">
         <v>433</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="33" t="s">
         <v>418</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="33" t="s">
         <v>416</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34" t="s">
+      <c r="K7" s="33"/>
+      <c r="L7" s="33" t="s">
         <v>451</v>
       </c>
-      <c r="M7" s="38"/>
-    </row>
-    <row r="8" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="34" t="s">
+      <c r="M7" s="37"/>
+    </row>
+    <row r="8" spans="1:13" ht="29.4" thickBot="1">
+      <c r="A8" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>457</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="33" t="s">
         <v>458</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="33">
         <v>19</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34" t="s">
+      <c r="E8" s="33"/>
+      <c r="F8" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="33" t="s">
         <v>435</v>
       </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34" t="s">
+      <c r="K8" s="33"/>
+      <c r="L8" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="M8" s="38"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="34" t="s">
+      <c r="M8" s="37"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1">
+      <c r="A9" s="33" t="s">
         <v>419</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>420</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="33" t="s">
         <v>458</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="33">
         <v>19</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34" t="s">
+      <c r="E9" s="33"/>
+      <c r="F9" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="33" t="s">
         <v>433</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="33" t="s">
         <v>436</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="38"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="34" t="s">
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="37"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1">
+      <c r="A10" s="33" t="s">
         <v>421</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>459</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="33">
         <v>1200</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34" t="s">
+      <c r="E10" s="33"/>
+      <c r="F10" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="33" t="s">
         <v>433</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="33" t="s">
         <v>436</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="33" t="s">
         <v>438</v>
       </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="38"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="34" t="s">
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="37"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1">
+      <c r="A11" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>424</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="33" t="s">
         <v>458</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="33">
         <v>19</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34" t="s">
+      <c r="E11" s="33"/>
+      <c r="F11" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="33" t="s">
         <v>433</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="33" t="s">
         <v>425</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="33" t="s">
         <v>439</v>
       </c>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="38"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="34" t="s">
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="37"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1">
+      <c r="A12" s="33" t="s">
         <v>426</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>427</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="33">
         <v>400</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34" t="s">
+      <c r="E12" s="33"/>
+      <c r="F12" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="33" t="s">
         <v>433</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="33" t="s">
         <v>425</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="38"/>
-    </row>
-    <row r="13" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="34" t="s">
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="37"/>
+    </row>
+    <row r="13" spans="1:13" ht="43.8" thickBot="1">
+      <c r="A13" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="33" t="s">
         <v>489</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="33">
         <v>500</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34" t="s">
+      <c r="E13" s="33"/>
+      <c r="F13" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="33" t="s">
         <v>468</v>
       </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34" t="s">
+      <c r="K13" s="33"/>
+      <c r="L13" s="33" t="s">
         <v>470</v>
       </c>
-      <c r="M13" s="38"/>
-    </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="34" t="s">
+      <c r="M13" s="37"/>
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1" thickBot="1">
+      <c r="A14" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="33" t="s">
         <v>489</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="33">
         <v>260</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34" t="s">
+      <c r="E14" s="33"/>
+      <c r="F14" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="33" t="s">
         <v>466</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="33" t="s">
         <v>465</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34" t="s">
+      <c r="K14" s="33"/>
+      <c r="L14" s="33" t="s">
         <v>467</v>
       </c>
-      <c r="M14" s="38"/>
-    </row>
-    <row r="15" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34" t="s">
+      <c r="M14" s="37"/>
+    </row>
+    <row r="15" spans="1:13" ht="43.8" thickBot="1">
+      <c r="A15" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>460</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="33">
         <v>19</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34" t="s">
+      <c r="E15" s="33"/>
+      <c r="F15" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="J15" s="34" t="s">
+      <c r="J15" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34" t="s">
+      <c r="K15" s="33"/>
+      <c r="L15" s="33" t="s">
         <v>462</v>
       </c>
-      <c r="M15" s="38"/>
-    </row>
-    <row r="16" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="34" t="s">
+      <c r="M15" s="37"/>
+    </row>
+    <row r="16" spans="1:13" ht="43.8" thickBot="1">
+      <c r="A16" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="33" t="s">
         <v>460</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="33">
         <v>19</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34" t="s">
+      <c r="E16" s="33"/>
+      <c r="F16" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="I16" s="34" t="s">
+      <c r="I16" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="J16" s="34" t="s">
+      <c r="J16" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34" t="s">
+      <c r="K16" s="33"/>
+      <c r="L16" s="33" t="s">
         <v>463</v>
       </c>
-      <c r="M16" s="38"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="34" t="s">
+      <c r="M16" s="37"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1">
+      <c r="A17" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="33" t="s">
         <v>460</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="33">
         <v>19</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34" t="s">
+      <c r="E17" s="33"/>
+      <c r="F17" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="I17" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="J17" s="34" t="s">
+      <c r="J17" s="33" t="s">
         <v>472</v>
       </c>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="38"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="34" t="s">
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="37"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1">
+      <c r="A18" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="33" t="s">
         <v>460</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="33">
         <v>19</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34" t="s">
+      <c r="E18" s="33"/>
+      <c r="F18" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="H18" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="I18" s="34" t="s">
+      <c r="I18" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="J18" s="34" t="s">
+      <c r="J18" s="33" t="s">
         <v>473</v>
       </c>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="38"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="34" t="s">
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="37"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1">
+      <c r="A19" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="33" t="s">
         <v>489</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="33">
         <v>25</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34" t="s">
+      <c r="E19" s="33"/>
+      <c r="F19" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H19" s="34" t="s">
+      <c r="H19" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="I19" s="34" t="s">
+      <c r="I19" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="J19" s="34" t="s">
+      <c r="J19" s="33" t="s">
         <v>442</v>
       </c>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="38"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="34" t="s">
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="37"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1">
+      <c r="A20" s="33" t="s">
         <v>352</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>486</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="33" t="s">
         <v>489</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="33">
         <v>20</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="40" t="s">
+      <c r="E20" s="33"/>
+      <c r="F20" s="39" t="s">
         <v>429</v>
       </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="38"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="34" t="s">
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="37"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1">
+      <c r="A21" s="33" t="s">
         <v>485</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="33" t="s">
         <v>489</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="33">
         <v>20</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="40" t="s">
+      <c r="E21" s="33"/>
+      <c r="F21" s="39" t="s">
         <v>430</v>
       </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="38"/>
-    </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="34" t="s">
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="37"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" thickBot="1">
+      <c r="A22" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="33" t="s">
         <v>489</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="33">
         <v>30</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="40" t="s">
+      <c r="E22" s="33"/>
+      <c r="F22" s="39" t="s">
         <v>428</v>
       </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="38"/>
-    </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="34" t="s">
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="37"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1">
+      <c r="A23" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>479</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="33" t="s">
         <v>460</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="33">
         <v>19</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="40" t="s">
+      <c r="E23" s="33"/>
+      <c r="F23" s="39" t="s">
         <v>480</v>
       </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7402,7 +7447,7 @@
       <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.88671875" style="5" bestFit="1" customWidth="1"/>
@@ -7424,7 +7469,7 @@
     <col min="18" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -7474,7 +7519,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="2">
         <v>44593</v>
       </c>
@@ -7524,20 +7569,20 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="43" t="s">
+    <row r="4" spans="1:17">
+      <c r="I4" s="42" t="s">
         <v>393</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-    </row>
-    <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+    </row>
+    <row r="5" spans="1:17" ht="27.6">
       <c r="A5" s="20" t="s">
         <v>186</v>
       </c>
@@ -7590,7 +7635,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -7627,7 +7672,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -7664,7 +7709,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -7678,7 +7723,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
@@ -7692,7 +7737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -7706,7 +7751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -7720,7 +7765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>139</v>
       </c>
@@ -7734,7 +7779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>140</v>
       </c>
@@ -7748,7 +7793,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -7762,7 +7807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -7776,7 +7821,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
@@ -7790,7 +7835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -7804,7 +7849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -7818,7 +7863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -7832,7 +7877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -7846,7 +7891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>146</v>
       </c>
@@ -7876,7 +7921,7 @@
       <selection activeCell="A5" sqref="A5:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -7898,7 +7943,7 @@
     <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
@@ -7933,7 +7978,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7968,20 +8013,20 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="43" t="s">
+    <row r="3" spans="1:17">
+      <c r="I3" s="42" t="s">
         <v>393</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="20" t="s">
         <v>186</v>
       </c>
@@ -8034,7 +8079,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>118</v>
       </c>
@@ -8069,7 +8114,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -8107,7 +8152,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -8121,7 +8166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -8135,7 +8180,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -8149,7 +8194,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
@@ -8163,7 +8208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
@@ -8177,7 +8222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>119</v>
       </c>
@@ -8191,7 +8236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>120</v>
       </c>
@@ -8205,7 +8250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>121</v>
       </c>
@@ -8219,7 +8264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
@@ -8249,7 +8294,7 @@
       <selection activeCell="A5" sqref="A5:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -8271,7 +8316,7 @@
     <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -8306,7 +8351,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8341,20 +8386,20 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="43" t="s">
+    <row r="3" spans="1:17">
+      <c r="I3" s="42" t="s">
         <v>393</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-    </row>
-    <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+    </row>
+    <row r="4" spans="1:17" ht="27.6">
       <c r="A4" s="20" t="s">
         <v>186</v>
       </c>
@@ -8407,7 +8452,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>123</v>
       </c>
@@ -8442,7 +8487,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -8480,7 +8525,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>101</v>
       </c>
@@ -8494,7 +8539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -8508,7 +8553,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -8522,7 +8567,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
@@ -8536,7 +8581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
@@ -8550,7 +8595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
@@ -8564,7 +8609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>127</v>
       </c>
@@ -8578,7 +8623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>121</v>
       </c>
@@ -8592,7 +8637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
@@ -8606,10 +8651,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5">
       <c r="E17" s="25"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:5">
       <c r="E18" s="24"/>
     </row>
   </sheetData>
@@ -8625,13 +8670,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EE7B5B-550E-4665-B6EF-861CC74C178B}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.77734375" style="1" customWidth="1"/>
@@ -8644,29 +8689,27 @@
     <col min="10" max="10" width="19.44140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="58.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="50.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.77734375" style="1"/>
+    <col min="13" max="13" width="21.88671875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:13" ht="25.8" customHeight="1" thickBot="1">
+      <c r="A1" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>351</v>
       </c>
       <c r="G1" s="32" t="s">
@@ -8688,782 +8731,785 @@
         <v>357</v>
       </c>
       <c r="M1" s="33" t="s">
-        <v>358</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>359</v>
-      </c>
-      <c r="O1" s="34" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="25.8" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>483</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>458</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="33">
         <v>19</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="39" t="s">
         <v>484</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-    </row>
-    <row r="3" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="34" t="s">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="43" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="22.2" customHeight="1" thickBot="1">
+      <c r="A3" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="33">
         <v>10</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34" t="s">
+      <c r="K3" s="33"/>
+      <c r="L3" s="33" t="s">
         <v>432</v>
       </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-    </row>
-    <row r="4" spans="1:15" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="34" t="s">
+      <c r="M3" s="44"/>
+    </row>
+    <row r="4" spans="1:13" ht="27.6" customHeight="1" thickBot="1">
+      <c r="A4" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>489</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="33">
         <v>20</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34" t="s">
+      <c r="E4" s="33"/>
+      <c r="F4" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34" t="s">
+      <c r="K4" s="33"/>
+      <c r="L4" s="33" t="s">
         <v>445</v>
       </c>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="34" t="s">
+      <c r="M4" s="44"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" thickBot="1">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>413</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="33" t="s">
         <v>489</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="33">
         <v>20</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34" t="s">
+      <c r="E5" s="33"/>
+      <c r="F5" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="J5" s="34" t="s">
-        <v>469</v>
-      </c>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-    </row>
-    <row r="6" spans="1:15" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="34" t="s">
+      <c r="J5" s="33" t="s">
+        <v>491</v>
+      </c>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="44"/>
+    </row>
+    <row r="6" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+      <c r="A6" s="33" t="s">
         <v>414</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="33">
         <v>60</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34" t="s">
+      <c r="E6" s="33"/>
+      <c r="F6" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34" t="s">
+      <c r="K6" s="33"/>
+      <c r="L6" s="33" t="s">
         <v>452</v>
       </c>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="34" t="s">
+      <c r="M6" s="44"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1">
+      <c r="A7" s="33" t="s">
         <v>416</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="33">
         <v>250</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34" t="s">
+      <c r="E7" s="33"/>
+      <c r="F7" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="33" t="s">
         <v>433</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="33" t="s">
         <v>418</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="33" t="s">
         <v>416</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34" t="s">
+      <c r="K7" s="33"/>
+      <c r="L7" s="33" t="s">
         <v>451</v>
       </c>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="34" t="s">
+      <c r="M7" s="44"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1">
+      <c r="A8" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>450</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="33" t="s">
         <v>458</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="33">
         <v>19</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34" t="s">
+      <c r="E8" s="33"/>
+      <c r="F8" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="33" t="s">
         <v>435</v>
       </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34" t="s">
+      <c r="K8" s="33"/>
+      <c r="L8" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="34" t="s">
+      <c r="M8" s="44"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1">
+      <c r="A9" s="33" t="s">
         <v>419</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>420</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="33" t="s">
         <v>458</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="33">
         <v>19</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34" t="s">
+      <c r="E9" s="33"/>
+      <c r="F9" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="33" t="s">
         <v>433</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="33" t="s">
         <v>436</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="34" t="s">
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="44"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1">
+      <c r="A10" s="33" t="s">
         <v>421</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="33">
         <v>200</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34" t="s">
+      <c r="E10" s="33"/>
+      <c r="F10" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="33" t="s">
         <v>433</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="33" t="s">
         <v>436</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="33" t="s">
         <v>438</v>
       </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="34" t="s">
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="44"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1">
+      <c r="A11" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>424</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="33" t="s">
         <v>458</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="33">
         <v>19</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34" t="s">
+      <c r="E11" s="33"/>
+      <c r="F11" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="33" t="s">
         <v>433</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="33" t="s">
         <v>425</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="33" t="s">
         <v>439</v>
       </c>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="34" t="s">
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="44"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1">
+      <c r="A12" s="33" t="s">
         <v>426</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="34" t="s">
         <v>427</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="33">
         <v>400</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34" t="s">
+      <c r="E12" s="33"/>
+      <c r="F12" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="33" t="s">
         <v>433</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="33" t="s">
         <v>425</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-    </row>
-    <row r="13" spans="1:15" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="34" t="s">
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="44"/>
+    </row>
+    <row r="13" spans="1:13" ht="22.8" customHeight="1" thickBot="1">
+      <c r="A13" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="33" t="s">
         <v>489</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="33">
         <v>500</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34" t="s">
+      <c r="E13" s="33"/>
+      <c r="F13" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="33" t="s">
         <v>468</v>
       </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34" t="s">
+      <c r="K13" s="33"/>
+      <c r="L13" s="33" t="s">
         <v>470</v>
       </c>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-    </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="34" t="s">
+      <c r="M13" s="44"/>
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1" thickBot="1">
+      <c r="A14" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="C14" s="34" t="s">
-        <v>461</v>
-      </c>
-      <c r="D14" s="34">
-        <v>50</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34" t="s">
+      <c r="C14" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="D14" s="33">
+        <v>260</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="33" t="s">
         <v>466</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="33" t="s">
         <v>465</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34" t="s">
+      <c r="K14" s="33"/>
+      <c r="L14" s="33" t="s">
         <v>467</v>
       </c>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-    </row>
-    <row r="15" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34" t="s">
+      <c r="M14" s="44"/>
+    </row>
+    <row r="15" spans="1:13" ht="29.4" thickBot="1">
+      <c r="A15" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>460</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="33">
         <v>19</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34" t="s">
+      <c r="E15" s="33"/>
+      <c r="F15" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="J15" s="34" t="s">
+      <c r="J15" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34" t="s">
+      <c r="K15" s="33"/>
+      <c r="L15" s="33" t="s">
         <v>462</v>
       </c>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-    </row>
-    <row r="16" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="34" t="s">
+      <c r="M15" s="44"/>
+    </row>
+    <row r="16" spans="1:13" ht="29.4" thickBot="1">
+      <c r="A16" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="33" t="s">
         <v>460</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="33">
         <v>19</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34" t="s">
+      <c r="E16" s="33"/>
+      <c r="F16" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="I16" s="34" t="s">
+      <c r="I16" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="J16" s="34" t="s">
-        <v>441</v>
-      </c>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34" t="s">
+      <c r="J16" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33" t="s">
         <v>463</v>
       </c>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-    </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="34" t="s">
+      <c r="M16" s="44"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1">
+      <c r="A17" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="33" t="s">
         <v>460</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="33">
         <v>19</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34" t="s">
+      <c r="E17" s="33"/>
+      <c r="F17" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="I17" s="33" t="s">
         <v>476</v>
       </c>
-      <c r="J17" s="34" t="s">
+      <c r="J17" s="33" t="s">
         <v>472</v>
       </c>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="34" t="s">
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="44"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1">
+      <c r="A18" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="33" t="s">
         <v>460</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="33">
         <v>19</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34" t="s">
+      <c r="E18" s="33"/>
+      <c r="F18" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="H18" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="I18" s="34" t="s">
+      <c r="I18" s="33" t="s">
         <v>476</v>
       </c>
-      <c r="J18" s="34" t="s">
+      <c r="J18" s="33" t="s">
         <v>473</v>
       </c>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-    </row>
-    <row r="19" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="34" t="s">
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="44"/>
+    </row>
+    <row r="19" spans="1:13" ht="18" customHeight="1" thickBot="1">
+      <c r="A19" s="33" t="s">
         <v>448</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="34" t="s">
         <v>449</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="33" t="s">
         <v>460</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="33">
         <v>19</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34" t="s">
+      <c r="E19" s="33"/>
+      <c r="F19" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H19" s="34" t="s">
+      <c r="H19" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="I19" s="34" t="s">
+      <c r="I19" s="33" t="s">
         <v>476</v>
       </c>
-      <c r="J19" s="34" t="s">
+      <c r="J19" s="33" t="s">
         <v>475</v>
       </c>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-    </row>
-    <row r="20" spans="1:15" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="34" t="s">
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="44"/>
+    </row>
+    <row r="20" spans="1:13" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A20" s="33" t="s">
         <v>446</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="34" t="s">
         <v>447</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="33" t="s">
         <v>460</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="33">
         <v>19</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34" t="s">
+      <c r="E20" s="33"/>
+      <c r="F20" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="H20" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="33" t="s">
         <v>476</v>
       </c>
-      <c r="J20" s="34" t="s">
+      <c r="J20" s="33" t="s">
         <v>477</v>
       </c>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-    </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="34" t="s">
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="44"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1">
+      <c r="A21" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="C21" s="34" t="s">
-        <v>461</v>
-      </c>
-      <c r="D21" s="34">
+      <c r="C21" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="D21" s="33">
+        <v>25</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>490</v>
+      </c>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="44"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" thickBot="1">
+      <c r="A22" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="D22" s="33">
         <v>20</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34" t="s">
+      <c r="E22" s="33"/>
+      <c r="F22" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="44"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1">
+      <c r="A23" s="33" t="s">
+        <v>485</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="D23" s="33">
+        <v>20</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="39" t="s">
+        <v>430</v>
+      </c>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
+      <c r="M23" s="44"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" thickBot="1">
+      <c r="A24" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="D24" s="33">
+        <v>30</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="39" t="s">
         <v>428</v>
       </c>
-      <c r="G21" s="34" t="s">
-        <v>429</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>430</v>
-      </c>
-      <c r="I21" s="34" t="s">
-        <v>431</v>
-      </c>
-      <c r="J21" s="34" t="s">
-        <v>442</v>
-      </c>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-    </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-    </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>454</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>461</v>
-      </c>
-      <c r="D24" s="34">
-        <v>30</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>428</v>
-      </c>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="42"/>
-    </row>
-    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="34" t="s">
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="41"/>
+      <c r="M24" s="44"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" thickBot="1">
+      <c r="A25" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="33" t="s">
         <v>479</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="33" t="s">
         <v>460</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="33">
         <v>19</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="E25" s="33"/>
+      <c r="F25" s="39" t="s">
         <v>480</v>
       </c>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="42"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="41"/>
+      <c r="M25" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="M2:M25"/>
     <mergeCell ref="F24:J24"/>
     <mergeCell ref="F25:J25"/>
     <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9478,7 +9524,7 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -9507,7 +9553,7 @@
     <col min="25" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
@@ -9581,7 +9627,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9655,7 +9701,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="I3" s="26"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
@@ -9665,20 +9711,20 @@
       <c r="O3" s="27"/>
       <c r="P3" s="16"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I4" s="43" t="s">
+    <row r="4" spans="1:24">
+      <c r="I4" s="42" t="s">
         <v>393</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="20" t="s">
         <v>186</v>
       </c>
@@ -9731,7 +9777,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
         <v>85</v>
       </c>
@@ -9766,7 +9812,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
@@ -9801,7 +9847,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8" s="1" t="s">
         <v>86</v>
       </c>
@@ -9815,7 +9861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -9829,7 +9875,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="23.4" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -9843,7 +9889,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
@@ -9857,7 +9903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
         <v>91</v>
       </c>
@@ -9871,7 +9917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13" s="1" t="s">
         <v>271</v>
       </c>
@@ -9885,7 +9931,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14" s="1" t="s">
         <v>272</v>
       </c>
@@ -9899,7 +9945,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
         <v>273</v>
       </c>
@@ -9913,7 +9959,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
         <v>274</v>
       </c>
@@ -9927,7 +9973,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>275</v>
       </c>
@@ -9941,7 +9987,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>276</v>
       </c>
@@ -9955,7 +10001,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>286</v>
       </c>
@@ -9969,7 +10015,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>277</v>
       </c>
@@ -9983,7 +10029,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>278</v>
       </c>
@@ -9997,7 +10043,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>279</v>
       </c>
@@ -10011,7 +10057,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>280</v>
       </c>
@@ -10025,7 +10071,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>281</v>
       </c>
@@ -10039,7 +10085,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>282</v>
       </c>
@@ -10053,7 +10099,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>283</v>
       </c>
@@ -10067,7 +10113,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>285</v>
       </c>
@@ -10081,7 +10127,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>284</v>
       </c>
@@ -10095,7 +10141,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>146</v>
       </c>
@@ -10125,7 +10171,7 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -10159,7 +10205,7 @@
     <col min="39" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -10275,7 +10321,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38">
       <c r="A2" s="2">
         <v>44593</v>
       </c>
@@ -10391,20 +10437,20 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="I4" s="43" t="s">
+    <row r="4" spans="1:38">
+      <c r="I4" s="42" t="s">
         <v>393</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-    </row>
-    <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+    </row>
+    <row r="5" spans="1:38" ht="27" customHeight="1">
       <c r="A5" s="20" t="s">
         <v>186</v>
       </c>
@@ -10457,7 +10503,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" ht="27" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -10495,7 +10541,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -10533,7 +10579,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" ht="25.95" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
@@ -10550,7 +10596,7 @@
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
@@ -10564,7 +10610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -10578,7 +10624,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -10592,7 +10638,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -10606,7 +10652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -10620,7 +10666,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -10634,7 +10680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -10648,7 +10694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -10662,7 +10708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -10676,7 +10722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -10690,7 +10736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -10704,7 +10750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -10718,7 +10764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -10732,7 +10778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -10746,7 +10792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -10760,7 +10806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -10774,7 +10820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -10788,7 +10834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -10802,7 +10848,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -10816,7 +10862,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -10830,7 +10876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>387</v>
       </c>
@@ -10838,7 +10884,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>123</v>
       </c>
@@ -10846,7 +10892,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
@@ -10858,7 +10904,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -10870,7 +10916,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -10882,7 +10928,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
@@ -10894,7 +10940,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -10906,7 +10952,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>17</v>
       </c>
@@ -10918,7 +10964,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
@@ -10930,7 +10976,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -10942,7 +10988,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>20</v>
       </c>
@@ -10954,7 +11000,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -10966,7 +11012,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
@@ -10978,7 +11024,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>146</v>
       </c>

--- a/Documentos/Mapeamento das Fontes de Dados/ASPECT/MAPEAMENTO_ASPECT.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/ASPECT/MAPEAMENTO_ASPECT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ASPECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C871FB5-C9FB-4FDA-BD95-28E1381E3214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E063CBFC-B5D9-4A70-8388-322B9665D3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" firstSheet="2" activeTab="6" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -2069,7 +2069,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6654,8 +6654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4"/>
@@ -8672,8 +8672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EE7B5B-550E-4665-B6EF-861CC74C178B}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4"/>

--- a/Documentos/Mapeamento das Fontes de Dados/ASPECT/MAPEAMENTO_ASPECT.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/ASPECT/MAPEAMENTO_ASPECT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ASPECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\04 - PROJETOS\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ASPECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E063CBFC-B5D9-4A70-8388-322B9665D3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5B105F-8A6D-4E2D-B248-9420CE95A715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="694" firstSheet="2" activeTab="12" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -25,8 +25,8 @@
     <sheet name="DEXPARA" sheetId="6" state="hidden" r:id="rId10"/>
     <sheet name="ACORDOS" sheetId="7" state="hidden" r:id="rId11"/>
     <sheet name="PAGAMENTOS" sheetId="8" state="hidden" r:id="rId12"/>
-    <sheet name="TEMPOS" sheetId="4" state="hidden" r:id="rId13"/>
-    <sheet name="PAUSAS" sheetId="13" state="hidden" r:id="rId14"/>
+    <sheet name="TEMPOS" sheetId="4" r:id="rId13"/>
+    <sheet name="PAUSAS" sheetId="13" r:id="rId14"/>
     <sheet name="DEADLINE" sheetId="19" state="hidden" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="545">
   <si>
     <t>CPF</t>
   </si>
@@ -811,9 +811,6 @@
     <t>ID DO OPERADOR CADASTRADO NO DISCADOR</t>
   </si>
   <si>
-    <t>NOME DO OPERADOR CADASTRADO NO DISCADOR</t>
-  </si>
-  <si>
     <t>ID DO ACORDO CRIADO NO MOMENTO DE SEU CRAVAMENTO NO CRM</t>
   </si>
   <si>
@@ -835,9 +832,6 @@
     <t>ID DA PAUSA CADASTRADO NO DISCADOR</t>
   </si>
   <si>
-    <t>DATA DO TEMPO CONTABILIZADO</t>
-  </si>
-  <si>
     <t>DATA DO CRAVAMENTO DO ACORDO NO CRM</t>
   </si>
   <si>
@@ -1162,13 +1156,7 @@
     <t>DATA_ACIONA,DATE_EVENT_CRM</t>
   </si>
   <si>
-    <t>OLOS,ASPECT</t>
-  </si>
-  <si>
     <t>DBOLOS, DBASPECT</t>
-  </si>
-  <si>
-    <t>TEMPOS, TIME_ALL</t>
   </si>
   <si>
     <t>DATE,DATETIME</t>
@@ -1598,6 +1586,313 @@
 LEFT JOIN config_epro..Disposition F WITH (NOLOCK) ON F.Disp_Id = B.AgentDispId
 LEFT JOIN resource..ResourceGroup G WITH (NOLOCK) ON A.ResourceGroup_Id = G.ResourceGroup_Id</t>
   </si>
+  <si>
+    <t>CAST(DATEADD(HOUR, - 3, t1.LoginDt) AS DATE)</t>
+  </si>
+  <si>
+    <t>LoginDt</t>
+  </si>
+  <si>
+    <t>AgentSignInSummary</t>
+  </si>
+  <si>
+    <t>summary_epro</t>
+  </si>
+  <si>
+    <t>DATETIME DO LOGIN DO OPERADOR EM FORMATO DE DATA</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>LOGIN_DISCADOR_OPERADOR</t>
+  </si>
+  <si>
+    <t>LOGIN_DISCADOR_SUPERVISOR</t>
+  </si>
+  <si>
+    <t>LOGIN DE CADASTRO PELO CONTROL DO OPERADOR</t>
+  </si>
+  <si>
+    <t>NOME COMPLETO DO OPERADOR</t>
+  </si>
+  <si>
+    <t>LOGIN DE CADASTRO DOS SUPERVISORES</t>
+  </si>
+  <si>
+    <t>ID IDENTIFICADOR DA CAMPANHA</t>
+  </si>
+  <si>
+    <t>NOME DESCRIPTION DO ID DA CAMPANHA</t>
+  </si>
+  <si>
+    <t>'10.12.101.21'</t>
+  </si>
+  <si>
+    <t>'detail_epro'</t>
+  </si>
+  <si>
+    <t>'ASPECT'</t>
+  </si>
+  <si>
+    <t>INNER JOIN [config_epro]..[Service_Group] AS [SERG] WITH (NOLOCK) ON [SERG].[User_Id] = t1.User_Id</t>
+  </si>
+  <si>
+    <t>INNER  JOIN [config_epro]..[Service] AS SER  WITH (NOLOCK) ON SER.Service_Id = SERG.Service_Id</t>
+  </si>
+  <si>
+    <t>WorkGroup_Id</t>
+  </si>
+  <si>
+    <t>USR.User_F_Name + ' ' + USR.User_L_Name</t>
+  </si>
+  <si>
+    <t>INNER JOIN [config_epro]..[Service_Group] AS [SERG] WITH (NOLOCK) ON [SERG].[User_Id] = t1.User_Id   || JOIN [config_epro]..[Users] AS [USR] WITH (NOLOCK) ON [SERG].[User_Id] = [USR].[User_Id]</t>
+  </si>
+  <si>
+    <t>Workgroup_Name</t>
+  </si>
+  <si>
+    <t>Workgroup</t>
+  </si>
+  <si>
+    <t>FROM summary_epro..[AgentSignInSummary] t1 WITH (NOLOCK) INNER JOIN config_epro..[Workgroup] wk WITH (NOLOCK) ON t1.Workgroup_Id = wk.Workgroup_Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIN(DATEADD(HOUR, - 3, t1.LoginDt)) </t>
+  </si>
+  <si>
+    <t>MAX(DATEADD(HOUR, - 3, ISNULL(t1.LogoutDt, @dfim))</t>
+  </si>
+  <si>
+    <t>LogoutDt</t>
+  </si>
+  <si>
+    <t>COUNT(t1.LoginDt)</t>
+  </si>
+  <si>
+    <t>COUNT(t1.LogoutDt)</t>
+  </si>
+  <si>
+    <t>SUM(CASE 
+            WHEN t1.LogoutDt IS NOT NULL
+                THEN t1.LoginTime
+            ELSE DATEDIFF(SECOND, t1.LoginDt, ISNULL(t1.LogoutDt, @dfim))
+            END)</t>
+  </si>
+  <si>
+    <t>LoginDt ,LogoutDt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> w.TEMPO_LOGADO - (ISNULL(l.ActiveTime, 0) + ISNULL(l.WrapTime, 0) + w.TEMPO_IDLE) A</t>
+  </si>
+  <si>
+    <t>ISNULL(l.ActiveTime, 0) + ISNULL(l.WrapTime, 0) + w.TEMPO_IDLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISNULL(l.ActiveTime, 0) </t>
+  </si>
+  <si>
+    <t>ActiveTime</t>
+  </si>
+  <si>
+    <t>MediaAgentSummary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISNULL(l.ActiveTime, 0)  /  isnull(l.TotalAgentCalls, 0) </t>
+  </si>
+  <si>
+    <t>ISNULL(l.WrapTime, 0)  /  isnull(l.TotalAgentCalls, 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> w.TEMPO_IDLE /  isnull(l.TotalAgentCalls, 0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ( ISNULL(l.ActiveTime, 0)  /  isnull(l.TotalAgentCalls, 0)) + (ISNULL(l.WrapTime, 0)  /  isnull(l.TotalAgentCalls, 0) ) </t>
+  </si>
+  <si>
+    <t>SET NOCOUNT ON;
+SET ANSI_WARNINGS OFF;
+DECLARE @dinicio DATETIME = CONVERT(DATETIME, CONVERT(VARCHAR(10), GETDATE(), 121) + ' 00:00:00');
+DECLARE @dfim  DATETIME = CONVERT(DATETIME, CONVERT(VARCHAR(10), GETDATE(), 121) + ' 23:59:00');
+DECLARE @ligacoes TABLE (
+    DATA DATE
+    ,LOGIN VARCHAR(30)
+    ,TotalAgentCalls INT
+    ,TotalAgentTime INT
+    ,PreviewTime INT
+    ,PreviewQt INT
+    ,ActiveTime INT
+    ,WrapTime INT
+    )
+INSERT INTO @ligacoes
+SELECT cast(DATEADD(HOUR, - 3, BeginTimePeriodDt) AS DATE) AS DATA
+    ,user_id AS LOGIN
+    ,Sum([TotalAgentCalls])
+    ,Sum([TotalAgentTime])
+    ,Sum([PreviewTime])
+    ,Sum(CASE 
+            WHEN [PreviewTime] &gt; 0
+                THEN 1
+            ELSE 0
+            END) AS PreviewQt
+    ,Sum([ActiveTime])
+    ,Sum([WrapTime])
+FROM summary_epro..[MediaAgentSummary] WITH (NOLOCK)
+WHERE DATEADD(HOUR, - 3, BeginTimePeriodDt) BETWEEN @dinicio
+        AND @dfim
+GROUP BY cast(DATEADD(HOUR, - 3, BeginTimePeriodDt) AS DATE)
+    ,user_id
+-- Criação da tabela temporária
+DECLARE @work TABLE (
+    DATA DATE
+    ,ID_DISCADOR_OPERADOR INT
+    ,LOGIN_DISCADOR_OPERADOR VARCHAR(100)
+    ,NOME_DISCADOR_OPERADOR VARCHAR(100)
+    ,LOGIN_DISCADOR_SUPERVISOR VARCHAR(100)
+    ,LOGIN TIME
+    ,LOGOUT TIME
+    ,QTD_LOGIN INT
+    ,QTD_LOGOUT INT
+    ,TEMPO_LOGADO INT
+    ,TEMPO_DISPONIVEL INT
+    ,TEMPO_IDLE INT
+    , CAMPANHA VARCHAR(100)
+    , ID_CAMPANHA INT
+    , ID_NOVO INT
+    );
+-- Inserção de dados na tabela temporária
+INSERT INTO @work
+SELECT CAST(DATEADD(HOUR, - 3, t1.LoginDt) AS DATE) AS DATA
+    ,t1.WorkGroup_Id AS ID_DISCADOR_OPERADOR
+    ,t1.User_Id AS LOGIN_DISCADOR_OPERADOR
+    ,USR.User_F_Name + ' ' + USR.User_L_Name AS NOME_DISCADOR_OPERADOR
+    ,[WK].[Workgroup_Name] AS LOGIN_DISCADOR_SUPERVISOR
+    ,MIN(DATEADD(HOUR, - 3, t1.LoginDt)) AS LOGIN
+    ,MAX(DATEADD(HOUR, - 3, ISNULL(t1.LogoutDt, @dfim))) AS LOGOUT
+    ,COUNT(t1.LoginDt) AS QTD_LOGIN
+    ,COUNT(t1.LogoutDt) AS QTD_LOGOUT
+    ,SUM(CASE 
+            WHEN t1.LogoutDt IS NOT NULL
+                THEN t1.LoginTime
+            ELSE DATEDIFF(SECOND, t1.LoginDt, ISNULL(t1.LogoutDt, @dfim))
+            END) AS TEMPO_LOGADO
+    ,SUM(t1.GapTime) AS TEMPO_DISPONIVEL
+    ,SUM(t1.IdleTime) AS TEMPO_IDLE
+    ,(SER.Service_c) AS CAMPANHA  
+    ,(SER.Service_Id) AS ID_CAMPANHA
+    ,DENSE_RANK() OVER (
+            PARTITION BY t1.User_Id  ORDER BY SER.Service_c
+            ) AS ID_NOVO
+FROM summary_epro..[AgentSignInSummary] t1 WITH (NOLOCK)
+INNER JOIN config_epro..[Workgroup] wk WITH (NOLOCK) ON t1.Workgroup_Id = wk.Workgroup_Id
+INNER JOIN [config_epro]..[Service_Group] AS [SERG] WITH (NOLOCK) ON [SERG].[User_Id] = t1.User_Id
+INNER  JOIN [config_epro]..[Service] AS SER  WITH (NOLOCK) ON SER.Service_Id = SERG.Service_Id
+JOIN [config_epro]..[Users] AS [USR] WITH (NOLOCK) ON [SERG].[User_Id] = [USR].[User_Id]
+WHERE DATEADD(HOUR, - 3, t1.LoginDt) BETWEEN @dinicio
+        AND @dfim
+GROUP BY CAST(DATEADD(HOUR, - 3, t1.LoginDt) AS DATE)
+    ,t1.User_Id
+    ,t1.WorkGroup_Id
+    ,wk.Workgroup_Name
+    ,USR.User_F_Name + ' ' + USR.User_L_Name 
+    ,(SER.Service_c) 
+    ,(SER.Service_Id)
+-- Consulta dos dados na tabela temporária
+SELECT w.DATA
+    ,w.ID_CAMPANHA
+    ,w.CAMPANHA
+    ,w.ID_DISCADOR_OPERADOR
+    ,w.LOGIN_DISCADOR_OPERADOR
+    ,w.NOME_DISCADOR_OPERADOR
+    ,w.LOGIN_DISCADOR_SUPERVISOR
+    ,w.LOGIN
+    ,w.LOGOUT
+    ,w.QTD_LOGIN
+    ,w.QTD_LOGOUT
+    ,isnull(l.TotalAgentCalls, 0) AS ATENDIDAS
+    ,w.TEMPO_LOGADO
+    ,
+    -- Calcula o total de segundos
+    DATEDIFF(SECOND, w.LOGIN, w.LOGOUT) - IIF(DATEDIFF(SECOND, w.LOGIN, w.LOGOUT) - w.TEMPO_LOGADO &gt; 0, w.TEMPO_LOGADO, 0) AS TEMPO_DESLOGADO
+    ,ISNULL(l.ActiveTime, 0) + ISNULL(l.WrapTime, 0) + w.TEMPO_IDLE AS TEMPO_DISPONIVEL
+    ,
+    -- Tempo de pausa em segundos
+    w.TEMPO_LOGADO - (ISNULL(l.ActiveTime, 0) + ISNULL(l.WrapTime, 0) + w.TEMPO_IDLE) AS TEMPO_PAUSA
+    ,
+    -- Tempo falado em segundos
+    ISNULL(l.ActiveTime, 0) AS TEMPO_FALADO
+    ,
+    -- Tempo de pós-atendimento em segundos
+    ISNULL(l.WrapTime, 0) AS TEMPO_POS
+    ,
+    -- Calcula o tempo deslogado em segundos
+    w.TEMPO_IDLE,
+    ISNULL(l.ActiveTime, 0)  /  isnull(l.TotalAgentCalls, 0)  AS TMA ,
+    ISNULL(l.WrapTime, 0)  /  isnull(l.TotalAgentCalls, 0)  AS TMP ,
+    w.TEMPO_IDLE /  isnull(l.TotalAgentCalls, 0)  AS TME ,
+ AS TMO
+    , '10.12.101.21' as INSTANCIA 
+    , 'detail_epro' AS BANCO
+    , 'ASPECT' AS ORIGEM
+FROM @work w
+LEFT JOIN @ligacoes l ON (
+        l.DATA = w.DATA
+        AND l.LOGIN = w.LOGIN_DISCADOR_OPERADOR
+        )
+WHERE w.ID_NOVO = 1
+AND w.LOGIN_DISCADOR_OPERADOR != 'rstaspectagent'
+and w.DATA = cast(@dinicio as date)</t>
+  </si>
+  <si>
+    <t>CAST(DATEADD(HOUR, - 3, pausas.LoginDt) AS DATE)</t>
+  </si>
+  <si>
+    <t>AgentNotReadySummary</t>
+  </si>
+  <si>
+    <t>FROM summary_epro..[AgentNotReadySummary] pausas WITH (NOLOCK) LEFT JOIN summary_epro..[AgentSignInSummary] AS t1 WITH (NOLOCK) ON t1.User_Id = pausas.User_Id</t>
+  </si>
+  <si>
+    <t>User_F_Name ,User_L_Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USR.User_F_Name + ' ' + USR.User_L_Name </t>
+  </si>
+  <si>
+    <t>CONVERT(TIME, DATEADD(HOUR, - 3, pausas.NotReadyStartDt), 108)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONVERT(TIME, DATEADD(HOUR, - 3, pausas.NotReadyEndDt), 108) </t>
+  </si>
+  <si>
+    <t>NotReadyStartDt</t>
+  </si>
+  <si>
+    <t>NotReadyEndDt</t>
+  </si>
+  <si>
+    <t>SUM(CASE 
+				WHEN pausas.NotReadyEndDt &lt;= @dfim
+					THEN pausas.NotReadyTime
+				ELSE DATEDIFF(SECOND, pausas.NotReadyStartDt, @dfim)
+				END)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISNULL(p.[Description], 'OUTRAS') </t>
+  </si>
+  <si>
+    <t>AgentStatusReason</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNT(pausas.NotReadyStartDt) </t>
+  </si>
+  <si>
+    <t>ReasonId</t>
+  </si>
 </sst>
 </file>
 
@@ -1607,7 +1902,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1681,7 +1976,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1764,6 +2059,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF44546A"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1938,7 +2239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2045,6 +2346,18 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2070,6 +2383,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2393,7 +2712,7 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -2401,78 +2720,78 @@
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2490,7 +2809,7 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" style="1" bestFit="1" customWidth="1"/>
@@ -2520,7 +2839,7 @@
     <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -2597,7 +2916,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2674,20 +2993,20 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
-      <c r="I3" s="42" t="s">
-        <v>393</v>
-      </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-    </row>
-    <row r="4" spans="1:25" ht="27.6">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I3" s="46" t="s">
+        <v>389</v>
+      </c>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+    </row>
+    <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>186</v>
       </c>
@@ -2695,10 +3014,10 @@
         <v>190</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>187</v>
@@ -2713,69 +3032,69 @@
         <v>193</v>
       </c>
       <c r="I4" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="K4" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="L4" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="M4" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="N4" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="O4" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="P4" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="O4" s="29" t="s">
+      <c r="Q4" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="P4" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q4" s="30" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>385</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2783,34 +3102,34 @@
         <v>188</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>385</v>
-      </c>
       <c r="P6" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2818,13 +3137,13 @@
         <v>189</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E7" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
@@ -2832,13 +3151,13 @@
         <v>224</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
@@ -2846,324 +3165,324 @@
         <v>194</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E10" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E11" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E12" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>146</v>
       </c>
@@ -3193,7 +3512,7 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.88671875" bestFit="1" customWidth="1"/>
@@ -3212,7 +3531,7 @@
     <col min="16" max="16" width="48.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -3253,7 +3572,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44593</v>
       </c>
@@ -3294,7 +3613,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3309,20 +3628,20 @@
       <c r="L3" s="6"/>
       <c r="M3" s="16"/>
     </row>
-    <row r="4" spans="1:17">
-      <c r="I4" s="42" t="s">
-        <v>393</v>
-      </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-    </row>
-    <row r="5" spans="1:17" ht="27.6">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I4" s="46" t="s">
+        <v>389</v>
+      </c>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+    </row>
+    <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>186</v>
       </c>
@@ -3330,10 +3649,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -3348,71 +3667,71 @@
         <v>193</v>
       </c>
       <c r="I5" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="K5" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="L5" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="M5" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="N5" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="O5" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="P5" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="O5" s="29" t="s">
+      <c r="Q5" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="P5" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q5" s="30" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3420,36 +3739,36 @@
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E7" s="5">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3457,13 +3776,13 @@
         <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E8" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
@@ -3471,13 +3790,13 @@
         <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -3485,27 +3804,27 @@
         <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -3513,13 +3832,13 @@
         <v>216</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E12" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>139</v>
       </c>
@@ -3527,13 +3846,13 @@
         <v>250</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E13" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>140</v>
       </c>
@@ -3541,13 +3860,13 @@
         <v>251</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E14" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
@@ -3555,13 +3874,13 @@
         <v>225</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E15" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
@@ -3569,18 +3888,18 @@
         <v>226</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E16" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>180</v>
@@ -3589,7 +3908,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>146</v>
       </c>
@@ -3597,7 +3916,7 @@
         <v>213</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E18" s="5">
         <v>20</v>
@@ -3619,7 +3938,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="110.88671875" style="5" bestFit="1" customWidth="1"/>
@@ -3641,7 +3960,7 @@
     <col min="18" max="16384" width="13.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -3688,7 +4007,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44593</v>
       </c>
@@ -3735,7 +4054,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3749,20 +4068,20 @@
       <c r="N3" s="6"/>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="1:18">
-      <c r="J4" s="42" t="s">
-        <v>393</v>
-      </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-    </row>
-    <row r="5" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J4" s="46" t="s">
+        <v>389</v>
+      </c>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>186</v>
       </c>
@@ -3770,10 +4089,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -3788,71 +4107,71 @@
         <v>193</v>
       </c>
       <c r="I5" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="K5" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="L5" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="M5" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="N5" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="O5" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="P5" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="O5" s="29" t="s">
+      <c r="Q5" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="P5" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q5" s="30" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3860,36 +4179,36 @@
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E7" s="5">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3897,13 +4216,13 @@
         <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E8" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
@@ -3911,13 +4230,13 @@
         <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -3925,41 +4244,41 @@
         <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E12" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -3967,13 +4286,13 @@
         <v>216</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E13" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>139</v>
       </c>
@@ -3981,13 +4300,13 @@
         <v>250</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E14" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>140</v>
       </c>
@@ -3995,30 +4314,30 @@
         <v>251</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E15" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="64.5" customHeight="1">
+    <row r="16" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E16" s="5">
         <v>20</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -4026,13 +4345,13 @@
         <v>225</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E17" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -4040,18 +4359,18 @@
         <v>226</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E18" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>180</v>
@@ -4060,7 +4379,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>146</v>
       </c>
@@ -4068,7 +4387,7 @@
         <v>213</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E20" s="5">
         <v>20</v>
@@ -4084,11 +4403,14 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3224E281-B9C3-43DE-9C24-CA7016DDAC13}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G45" sqref="G45"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.88671875" style="5" bestFit="1" customWidth="1"/>
@@ -4098,10 +4420,10 @@
     <col min="6" max="6" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="57.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="176.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="48.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
@@ -4111,362 +4433,866 @@
     <col min="22" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="H1" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="I1" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="J1" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="K1" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="L1" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="K1" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>357</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>359</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="M1" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="N1" s="30"/>
+    </row>
+    <row r="2" spans="1:14" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D2" s="5">
-        <v>10</v>
+        <v>493</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>363</v>
+        <v>424</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>425</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>371</v>
+        <v>492</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>372</v>
+        <v>491</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>373</v>
+        <v>490</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="49" t="s">
         <v>188</v>
       </c>
       <c r="D3" s="5">
         <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>363</v>
+        <v>424</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>425</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>371</v>
+        <v>492</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>372</v>
+        <v>491</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="50" t="s">
         <v>189</v>
       </c>
       <c r="D4" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>224</v>
       </c>
       <c r="D5" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>194</v>
       </c>
       <c r="D6" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="F6" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D7" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>415</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>253</v>
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>485</v>
       </c>
       <c r="D8" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="F8" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D10" s="5">
+        <v>100</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D11" s="5">
+        <v>100</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" s="5">
+        <v>100</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="D9" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
+      <c r="C13" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D10" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1" t="s">
+      <c r="C14" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D11" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1" t="s">
+      <c r="C15" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="D12" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1" t="s">
+      <c r="C16" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D13" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1" t="s">
+      <c r="C17" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="36"/>
+    </row>
+    <row r="18" spans="1:12" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D14" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1" t="s">
+      <c r="C18" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="36" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D15" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1" t="s">
+      <c r="C19" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D16" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
+      <c r="C20" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D17" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
+      <c r="C21" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D18" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
+      <c r="C22" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="D19" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
+      <c r="C23" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D20" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
+      <c r="C24" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D21" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
+      <c r="C25" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D22" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
+      <c r="C26" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D23" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
+      <c r="C27" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D24" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="C28" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D29" s="5">
         <v>20</v>
       </c>
+      <c r="F29" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D30" s="5">
+        <v>20</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D31" s="5">
+        <v>20</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>475</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="D32" s="33">
+        <v>19</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4475,110 +5301,103 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76B7F98-F046-4D38-B531-0938E5524784}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="26.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="27.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="26.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="156.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="26.5546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="H1" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="I1" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="J1" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="K1" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="L1" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="K1" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>357</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>359</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="M1" s="33" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="D2" s="5">
-        <v>10</v>
+      <c r="C2" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>363</v>
+        <v>424</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>425</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>371</v>
+        <v>492</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>374</v>
+        <v>531</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>373</v>
+        <v>490</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="L2" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4589,30 +5408,25 @@
         <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -4622,9 +5436,14 @@
       <c r="D4" s="5">
         <v>50</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="F4" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
@@ -4634,8 +5453,14 @@
       <c r="D5" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="F5" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
@@ -4645,105 +5470,414 @@
       <c r="D6" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="F6" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D7" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>415</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>253</v>
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>485</v>
       </c>
       <c r="D8" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="F8" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D10" s="5">
+        <v>100</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D11" s="5">
+        <v>100</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B12" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D9" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="C13" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="62.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="L14" s="36" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="D10" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="C15" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D15" s="5">
+        <v>50</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D11" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D12" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="C16" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="D13" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="C17" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D18" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D19" s="5">
+        <v>20</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D20" s="5">
+        <v>20</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D15" s="5">
+      <c r="C21" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D21" s="5">
         <v>20</v>
       </c>
+      <c r="F21" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4758,7 +5892,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="31.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
@@ -4766,23 +5900,23 @@
     <col min="11" max="11" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:10">
+    <row r="2" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G2" s="29" t="s">
         <v>193</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="3" spans="7:10">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G3" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="H3" s="31">
         <v>45467</v>
@@ -4791,12 +5925,12 @@
         <v>45471</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="4" spans="7:10">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G4" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H4" s="31">
         <v>45474</v>
@@ -4805,12 +5939,12 @@
         <v>45476</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="5" spans="7:10">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G5" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H5" s="31">
         <v>45477</v>
@@ -4819,12 +5953,12 @@
         <v>45481</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="6" spans="7:10">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G6" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H6" s="31">
         <v>45482</v>
@@ -4833,12 +5967,12 @@
         <v>45484</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="7" spans="7:10">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G7" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H7" s="31">
         <v>45488</v>
@@ -4847,12 +5981,12 @@
         <v>45490</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="8" spans="7:10">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G8" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H8" s="31">
         <v>45491</v>
@@ -4861,12 +5995,12 @@
         <v>45495</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="9" spans="7:10">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G9" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H9" s="31">
         <v>45496</v>
@@ -4875,12 +6009,12 @@
         <v>45502</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="10" spans="7:10">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G10" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H10" s="31">
         <v>45503</v>
@@ -4889,12 +6023,12 @@
         <v>45504</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="11" spans="7:10">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="11" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G11" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H11" s="31">
         <v>45505</v>
@@ -4903,12 +6037,12 @@
         <v>45509</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="12" spans="7:10">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G12" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H12" s="31">
         <v>45510</v>
@@ -4917,12 +6051,12 @@
         <v>45512</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="13" spans="7:10">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="13" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G13" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H13" s="31">
         <v>45513</v>
@@ -4931,12 +6065,12 @@
         <v>45517</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="14" spans="7:10">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="14" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G14" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H14" s="31">
         <v>45518</v>
@@ -4945,12 +6079,12 @@
         <v>45520</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="15" spans="7:10">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="15" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G15" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H15" s="31">
         <v>45523</v>
@@ -4959,7 +6093,7 @@
         <v>45525</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -4975,7 +6109,7 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -5028,53 +6162,53 @@
     <col min="59" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="AL1" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
@@ -5116,7 +6250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
         <v>128</v>
       </c>
@@ -5196,7 +6330,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -5276,7 +6410,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -5356,7 +6490,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>85</v>
       </c>
@@ -5436,7 +6570,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>87</v>
       </c>
@@ -5516,7 +6650,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -5596,7 +6730,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>37</v>
       </c>
@@ -5676,7 +6810,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
@@ -5756,7 +6890,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
@@ -5812,7 +6946,7 @@
         <v>178</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AD11" s="1" t="s">
         <v>171</v>
@@ -5836,7 +6970,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
@@ -5892,7 +7026,7 @@
         <v>178</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AD12" s="1" t="s">
         <v>171</v>
@@ -5916,7 +7050,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
@@ -5972,7 +7106,7 @@
         <v>171</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AD13" s="1" t="s">
         <v>171</v>
@@ -5996,7 +7130,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
         <v>0</v>
       </c>
@@ -6046,7 +7180,7 @@
         <v>179</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD14" s="1" t="s">
         <v>171</v>
@@ -6070,7 +7204,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>1</v>
       </c>
@@ -6120,7 +7254,7 @@
         <v>178</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AD15" s="1" t="s">
         <v>171</v>
@@ -6132,7 +7266,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
         <v>2</v>
       </c>
@@ -6182,7 +7316,7 @@
         <v>181</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AD16" s="1" t="s">
         <v>171</v>
@@ -6194,7 +7328,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="2:33">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>3</v>
       </c>
@@ -6238,7 +7372,7 @@
         <v>178</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AD17" s="1" t="s">
         <v>171</v>
@@ -6250,7 +7384,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="2:33">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
@@ -6288,7 +7422,7 @@
         <v>172</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AD18" s="1" t="s">
         <v>171</v>
@@ -6300,7 +7434,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="2:33">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
@@ -6326,7 +7460,7 @@
         <v>183</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AD19" s="1" t="s">
         <v>171</v>
@@ -6338,7 +7472,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="2:33">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
@@ -6358,7 +7492,7 @@
         <v>183</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AD20" s="1" t="s">
         <v>171</v>
@@ -6370,7 +7504,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="2:33">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -6384,7 +7518,7 @@
         <v>183</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AD21" s="1" t="s">
         <v>171</v>
@@ -6396,7 +7530,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="2:33">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
@@ -6410,7 +7544,7 @@
         <v>183</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AD22" s="1" t="s">
         <v>171</v>
@@ -6422,7 +7556,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="2:33">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
@@ -6436,7 +7570,7 @@
         <v>183</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AD23" s="1" t="s">
         <v>171</v>
@@ -6448,7 +7582,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="2:33">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
@@ -6462,7 +7596,7 @@
         <v>183</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AD24" s="1" t="s">
         <v>171</v>
@@ -6474,7 +7608,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="2:33">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
@@ -6488,7 +7622,7 @@
         <v>183</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AD25" s="1" t="s">
         <v>171</v>
@@ -6500,7 +7634,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="2:33">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
@@ -6514,7 +7648,7 @@
         <v>183</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AD26" s="1" t="s">
         <v>171</v>
@@ -6526,9 +7660,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="2:33">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>179</v>
@@ -6552,7 +7686,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="2:33">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>123</v>
       </c>
@@ -6566,62 +7700,62 @@
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="2:33">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:33">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:33">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:33">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:40">
+    <row r="33" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="2:40">
+    <row r="34" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:40">
+    <row r="35" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:40">
+    <row r="36" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="2:40">
+    <row r="37" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:40">
+    <row r="38" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="2:40">
+    <row r="39" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="2:40">
+    <row r="40" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>146</v>
       </c>
@@ -6629,7 +7763,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="2:40">
+    <row r="42" spans="2:40" x14ac:dyDescent="0.3">
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
       <c r="J42" s="21"/>
@@ -6654,11 +7788,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="53.5546875" style="1" customWidth="1"/>
@@ -6676,7 +7810,7 @@
     <col min="14" max="16384" width="11.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.8" customHeight="1" thickBot="1">
+    <row r="1" spans="1:13" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
         <v>186</v>
       </c>
@@ -6684,7 +7818,7 @@
         <v>190</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>187</v>
@@ -6693,60 +7827,60 @@
         <v>191</v>
       </c>
       <c r="F1" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="H1" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="I1" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="J1" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="K1" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="L1" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="K1" s="32" t="s">
-        <v>356</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>357</v>
-      </c>
       <c r="M1" s="33" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="25.8" customHeight="1" thickBot="1">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D2" s="33">
         <v>19</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>481</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>484</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41"/>
+        <v>477</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45"/>
       <c r="K2" s="33"/>
       <c r="L2" s="33"/>
-      <c r="M2" s="36" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="22.2" customHeight="1" thickBot="1">
+      <c r="M2" s="40" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
         <v>29</v>
       </c>
@@ -6754,339 +7888,339 @@
         <v>214</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D3" s="33">
         <v>10</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K3" s="33"/>
       <c r="L3" s="33" t="s">
-        <v>432</v>
-      </c>
-      <c r="M3" s="37"/>
-    </row>
-    <row r="4" spans="1:13" ht="21" customHeight="1" thickBot="1">
+        <v>428</v>
+      </c>
+      <c r="M3" s="41"/>
+    </row>
+    <row r="4" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="33" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D4" s="33">
         <v>20</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="33" t="s">
-        <v>445</v>
-      </c>
-      <c r="M4" s="37"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1">
+        <v>441</v>
+      </c>
+      <c r="M4" s="41"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D5" s="33">
         <v>20</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
-      <c r="M5" s="37"/>
-    </row>
-    <row r="6" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+      <c r="M5" s="41"/>
+    </row>
+    <row r="6" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D6" s="33">
         <v>64</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H6" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="J6" s="33" t="s">
         <v>430</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>434</v>
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="M6" s="37"/>
-    </row>
-    <row r="7" spans="1:13" ht="29.4" thickBot="1">
+        <v>448</v>
+      </c>
+      <c r="M6" s="41"/>
+    </row>
+    <row r="7" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D7" s="33">
         <v>250</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G7" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H7" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H7" s="33" t="s">
-        <v>433</v>
-      </c>
       <c r="I7" s="33" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="33" t="s">
-        <v>451</v>
-      </c>
-      <c r="M7" s="37"/>
-    </row>
-    <row r="8" spans="1:13" ht="29.4" thickBot="1">
+        <v>447</v>
+      </c>
+      <c r="M7" s="41"/>
+    </row>
+    <row r="8" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="33" t="s">
         <v>215</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D8" s="33">
         <v>19</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I8" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="J8" s="33" t="s">
         <v>431</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>435</v>
       </c>
       <c r="K8" s="33"/>
       <c r="L8" s="33" t="s">
-        <v>453</v>
-      </c>
-      <c r="M8" s="37"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1">
+        <v>449</v>
+      </c>
+      <c r="M8" s="41"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D9" s="33">
         <v>19</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G9" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H9" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="I9" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="J9" s="33" t="s">
         <v>433</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>436</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>437</v>
       </c>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
-      <c r="M9" s="37"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1">
+      <c r="M9" s="41"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="33" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D10" s="33">
         <v>1200</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G10" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H10" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H10" s="33" t="s">
-        <v>433</v>
-      </c>
       <c r="I10" s="33" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
-      <c r="M10" s="37"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1">
+      <c r="M10" s="41"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="33" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D11" s="33">
         <v>19</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G11" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H11" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H11" s="33" t="s">
-        <v>433</v>
-      </c>
       <c r="I11" s="33" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
-      <c r="M11" s="37"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1">
+      <c r="M11" s="41"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D12" s="33">
         <v>400</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G12" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H12" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H12" s="33" t="s">
-        <v>433</v>
-      </c>
       <c r="I12" s="33" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
-      <c r="M12" s="37"/>
-    </row>
-    <row r="13" spans="1:13" ht="43.8" thickBot="1">
+      <c r="M12" s="41"/>
+    </row>
+    <row r="13" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
         <v>43</v>
       </c>
@@ -7094,34 +8228,34 @@
         <v>217</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D13" s="33">
         <v>500</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="33" t="s">
-        <v>470</v>
-      </c>
-      <c r="M13" s="37"/>
-    </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1" thickBot="1">
+        <v>466</v>
+      </c>
+      <c r="M13" s="41"/>
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
         <v>44</v>
       </c>
@@ -7129,34 +8263,34 @@
         <v>218</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D14" s="33">
         <v>260</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K14" s="33"/>
       <c r="L14" s="33" t="s">
-        <v>467</v>
-      </c>
-      <c r="M14" s="37"/>
-    </row>
-    <row r="15" spans="1:13" ht="43.8" thickBot="1">
+        <v>463</v>
+      </c>
+      <c r="M14" s="41"/>
+    </row>
+    <row r="15" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="33" t="s">
         <v>47</v>
       </c>
@@ -7164,34 +8298,34 @@
         <v>219</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D15" s="33">
         <v>19</v>
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K15" s="33"/>
       <c r="L15" s="33" t="s">
-        <v>462</v>
-      </c>
-      <c r="M15" s="37"/>
-    </row>
-    <row r="16" spans="1:13" ht="43.8" thickBot="1">
+        <v>458</v>
+      </c>
+      <c r="M15" s="41"/>
+    </row>
+    <row r="16" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="33" t="s">
         <v>48</v>
       </c>
@@ -7199,34 +8333,34 @@
         <v>220</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D16" s="33">
         <v>19</v>
       </c>
       <c r="E16" s="33"/>
       <c r="F16" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="K16" s="33"/>
       <c r="L16" s="33" t="s">
-        <v>463</v>
-      </c>
-      <c r="M16" s="37"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1">
+        <v>459</v>
+      </c>
+      <c r="M16" s="41"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="33" t="s">
         <v>55</v>
       </c>
@@ -7234,32 +8368,32 @@
         <v>229</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D17" s="33">
         <v>19</v>
       </c>
       <c r="E17" s="33"/>
       <c r="F17" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="K17" s="33"/>
       <c r="L17" s="33"/>
-      <c r="M17" s="37"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1">
+      <c r="M17" s="41"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="33" t="s">
         <v>56</v>
       </c>
@@ -7267,32 +8401,32 @@
         <v>230</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D18" s="33">
         <v>19</v>
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="K18" s="33"/>
       <c r="L18" s="33"/>
-      <c r="M18" s="37"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1">
+      <c r="M18" s="41"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="33" t="s">
         <v>12</v>
       </c>
@@ -7300,130 +8434,130 @@
         <v>221</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D19" s="33">
         <v>25</v>
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K19" s="33"/>
       <c r="L19" s="33"/>
-      <c r="M19" s="37"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1">
+      <c r="M19" s="41"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="33" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D20" s="33">
         <v>20</v>
       </c>
       <c r="E20" s="33"/>
-      <c r="F20" s="39" t="s">
-        <v>429</v>
-      </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="41"/>
+      <c r="F20" s="43" t="s">
+        <v>425</v>
+      </c>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="45"/>
       <c r="K20" s="33"/>
       <c r="L20" s="33"/>
-      <c r="M20" s="37"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1">
+      <c r="M20" s="41"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="C21" s="33" t="s">
         <v>485</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>489</v>
       </c>
       <c r="D21" s="33">
         <v>20</v>
       </c>
       <c r="E21" s="33"/>
-      <c r="F21" s="39" t="s">
-        <v>430</v>
-      </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="41"/>
+      <c r="F21" s="43" t="s">
+        <v>426</v>
+      </c>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="45"/>
       <c r="K21" s="33"/>
       <c r="L21" s="33"/>
-      <c r="M21" s="37"/>
-    </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1">
+      <c r="M21" s="41"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="33" t="s">
         <v>109</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D22" s="33">
         <v>30</v>
       </c>
       <c r="E22" s="33"/>
-      <c r="F22" s="39" t="s">
-        <v>428</v>
-      </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="41"/>
+      <c r="F22" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="45"/>
       <c r="K22" s="33"/>
       <c r="L22" s="33"/>
-      <c r="M22" s="37"/>
-    </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1">
+      <c r="M22" s="41"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="33" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D23" s="33">
         <v>19</v>
       </c>
       <c r="E23" s="33"/>
-      <c r="F23" s="39" t="s">
-        <v>480</v>
-      </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
+      <c r="F23" s="43" t="s">
+        <v>476</v>
+      </c>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
       <c r="K23" s="33"/>
       <c r="L23" s="33"/>
-      <c r="M23" s="38"/>
+      <c r="M23" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7447,7 +8581,7 @@
       <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.88671875" style="5" bestFit="1" customWidth="1"/>
@@ -7469,7 +8603,7 @@
     <col min="18" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -7519,7 +8653,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44593</v>
       </c>
@@ -7569,20 +8703,20 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="I4" s="42" t="s">
-        <v>393</v>
-      </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-    </row>
-    <row r="5" spans="1:17" ht="27.6">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I4" s="46" t="s">
+        <v>389</v>
+      </c>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+    </row>
+    <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>186</v>
       </c>
@@ -7590,10 +8724,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -7608,34 +8742,34 @@
         <v>193</v>
       </c>
       <c r="I5" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="K5" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="L5" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="M5" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="N5" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="O5" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="P5" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="O5" s="29" t="s">
+      <c r="Q5" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="P5" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q5" s="30" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -7643,36 +8777,36 @@
         <v>223</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -7680,36 +8814,36 @@
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E7" s="5">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -7717,13 +8851,13 @@
         <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E8" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
@@ -7731,13 +8865,13 @@
         <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -7745,13 +8879,13 @@
         <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -7759,13 +8893,13 @@
         <v>216</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>139</v>
       </c>
@@ -7773,13 +8907,13 @@
         <v>250</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E12" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>140</v>
       </c>
@@ -7787,13 +8921,13 @@
         <v>251</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E13" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -7801,13 +8935,13 @@
         <v>225</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E14" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -7815,13 +8949,13 @@
         <v>226</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E15" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
@@ -7829,13 +8963,13 @@
         <v>227</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E16" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -7843,13 +8977,13 @@
         <v>228</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E17" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -7857,13 +8991,13 @@
         <v>229</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E18" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -7871,13 +9005,13 @@
         <v>230</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E19" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -7885,13 +9019,13 @@
         <v>231</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E20" s="5">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>146</v>
       </c>
@@ -7899,7 +9033,7 @@
         <v>213</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E21" s="5">
         <v>20</v>
@@ -7921,7 +9055,7 @@
       <selection activeCell="A5" sqref="A5:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -7943,7 +9077,7 @@
     <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
@@ -7978,7 +9112,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8013,20 +9147,20 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="I3" s="42" t="s">
-        <v>393</v>
-      </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-    </row>
-    <row r="4" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I3" s="46" t="s">
+        <v>389</v>
+      </c>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>186</v>
       </c>
@@ -8034,10 +9168,10 @@
         <v>190</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>187</v>
@@ -8052,69 +9186,69 @@
         <v>193</v>
       </c>
       <c r="I4" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="K4" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="L4" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="M4" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="N4" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="O4" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="P4" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="O4" s="29" t="s">
+      <c r="Q4" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="P4" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q4" s="30" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E5" s="1">
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -8122,51 +9256,51 @@
         <v>216</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E6" s="1">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E7" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -8174,13 +9308,13 @@
         <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E8" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -8188,13 +9322,13 @@
         <v>189</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
@@ -8202,13 +9336,13 @@
         <v>224</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
@@ -8216,55 +9350,55 @@
         <v>194</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E13" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
@@ -8272,7 +9406,7 @@
         <v>213</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E15" s="1">
         <v>20</v>
@@ -8294,7 +9428,7 @@
       <selection activeCell="A5" sqref="A5:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -8316,7 +9450,7 @@
     <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -8351,7 +9485,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8386,20 +9520,20 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="I3" s="42" t="s">
-        <v>393</v>
-      </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-    </row>
-    <row r="4" spans="1:17" ht="27.6">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I3" s="46" t="s">
+        <v>389</v>
+      </c>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+    </row>
+    <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>186</v>
       </c>
@@ -8407,10 +9541,10 @@
         <v>190</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>187</v>
@@ -8425,69 +9559,69 @@
         <v>193</v>
       </c>
       <c r="I4" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="K4" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="L4" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="M4" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="N4" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="O4" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="P4" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="O4" s="29" t="s">
+      <c r="Q4" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="P4" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q4" s="30" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E5" s="1">
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -8495,51 +9629,51 @@
         <v>216</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E6" s="1">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E7" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -8547,13 +9681,13 @@
         <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E8" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -8561,13 +9695,13 @@
         <v>189</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
@@ -8575,13 +9709,13 @@
         <v>224</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
@@ -8589,55 +9723,55 @@
         <v>194</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E13" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
@@ -8645,16 +9779,16 @@
         <v>213</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E15" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="5:5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="25"/>
     </row>
-    <row r="18" spans="5:5">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" s="24"/>
     </row>
   </sheetData>
@@ -8673,10 +9807,10 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.77734375" style="1" customWidth="1"/>
@@ -8693,7 +9827,7 @@
     <col min="14" max="16384" width="11.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.8" customHeight="1" thickBot="1">
+    <row r="1" spans="1:13" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
         <v>186</v>
       </c>
@@ -8701,7 +9835,7 @@
         <v>190</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>187</v>
@@ -8710,60 +9844,60 @@
         <v>191</v>
       </c>
       <c r="F1" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="H1" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="I1" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="J1" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="K1" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="L1" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="K1" s="32" t="s">
-        <v>356</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>357</v>
-      </c>
       <c r="M1" s="33" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="25.8" customHeight="1" thickBot="1">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D2" s="33">
         <v>19</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>481</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>484</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41"/>
+        <v>477</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45"/>
       <c r="K2" s="33"/>
       <c r="L2" s="33"/>
-      <c r="M2" s="43" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="22.2" customHeight="1" thickBot="1">
+      <c r="M2" s="47" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
         <v>29</v>
       </c>
@@ -8771,34 +9905,34 @@
         <v>214</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D3" s="33">
         <v>10</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K3" s="33"/>
       <c r="L3" s="33" t="s">
-        <v>432</v>
-      </c>
-      <c r="M3" s="44"/>
-    </row>
-    <row r="4" spans="1:13" ht="27.6" customHeight="1" thickBot="1">
+        <v>428</v>
+      </c>
+      <c r="M3" s="48"/>
+    </row>
+    <row r="4" spans="1:13" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="33" t="s">
         <v>46</v>
       </c>
@@ -8806,304 +9940,304 @@
         <v>216</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D4" s="33">
         <v>20</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="33" t="s">
-        <v>445</v>
-      </c>
-      <c r="M4" s="44"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1">
+        <v>441</v>
+      </c>
+      <c r="M4" s="48"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D5" s="33">
         <v>20</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
-      <c r="M5" s="44"/>
-    </row>
-    <row r="6" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+      <c r="M5" s="48"/>
+    </row>
+    <row r="6" spans="1:13" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D6" s="33">
         <v>60</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H6" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="J6" s="33" t="s">
         <v>430</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>434</v>
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="M6" s="44"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1">
+        <v>448</v>
+      </c>
+      <c r="M6" s="48"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D7" s="33">
         <v>250</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G7" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H7" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H7" s="33" t="s">
-        <v>433</v>
-      </c>
       <c r="I7" s="33" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="33" t="s">
-        <v>451</v>
-      </c>
-      <c r="M7" s="44"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1">
+        <v>447</v>
+      </c>
+      <c r="M7" s="48"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="33" t="s">
         <v>215</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D8" s="33">
         <v>19</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I8" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="J8" s="33" t="s">
         <v>431</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>435</v>
       </c>
       <c r="K8" s="33"/>
       <c r="L8" s="33" t="s">
-        <v>453</v>
-      </c>
-      <c r="M8" s="44"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1">
+        <v>449</v>
+      </c>
+      <c r="M8" s="48"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D9" s="33">
         <v>19</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G9" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H9" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="I9" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="J9" s="33" t="s">
         <v>433</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>436</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>437</v>
       </c>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
-      <c r="M9" s="44"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1">
+      <c r="M9" s="48"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="33" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D10" s="33">
         <v>200</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G10" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H10" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H10" s="33" t="s">
-        <v>433</v>
-      </c>
       <c r="I10" s="33" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
-      <c r="M10" s="44"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1">
+      <c r="M10" s="48"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="33" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D11" s="33">
         <v>19</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G11" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H11" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H11" s="33" t="s">
-        <v>433</v>
-      </c>
       <c r="I11" s="33" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
-      <c r="M11" s="44"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1">
+      <c r="M11" s="48"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D12" s="33">
         <v>400</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G12" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H12" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H12" s="33" t="s">
-        <v>433</v>
-      </c>
       <c r="I12" s="33" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
-      <c r="M12" s="44"/>
-    </row>
-    <row r="13" spans="1:13" ht="22.8" customHeight="1" thickBot="1">
+      <c r="M12" s="48"/>
+    </row>
+    <row r="13" spans="1:13" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
         <v>43</v>
       </c>
@@ -9111,34 +10245,34 @@
         <v>217</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D13" s="33">
         <v>500</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="33" t="s">
-        <v>470</v>
-      </c>
-      <c r="M13" s="44"/>
-    </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1" thickBot="1">
+        <v>466</v>
+      </c>
+      <c r="M13" s="48"/>
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
         <v>44</v>
       </c>
@@ -9146,34 +10280,34 @@
         <v>218</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D14" s="33">
         <v>260</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K14" s="33"/>
       <c r="L14" s="33" t="s">
-        <v>467</v>
-      </c>
-      <c r="M14" s="44"/>
-    </row>
-    <row r="15" spans="1:13" ht="29.4" thickBot="1">
+        <v>463</v>
+      </c>
+      <c r="M14" s="48"/>
+    </row>
+    <row r="15" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="33" t="s">
         <v>47</v>
       </c>
@@ -9181,34 +10315,34 @@
         <v>219</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D15" s="33">
         <v>19</v>
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K15" s="33"/>
       <c r="L15" s="33" t="s">
-        <v>462</v>
-      </c>
-      <c r="M15" s="44"/>
-    </row>
-    <row r="16" spans="1:13" ht="29.4" thickBot="1">
+        <v>458</v>
+      </c>
+      <c r="M15" s="48"/>
+    </row>
+    <row r="16" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="33" t="s">
         <v>48</v>
       </c>
@@ -9216,34 +10350,34 @@
         <v>220</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D16" s="33">
         <v>19</v>
       </c>
       <c r="E16" s="33"/>
       <c r="F16" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="K16" s="33"/>
       <c r="L16" s="33" t="s">
-        <v>463</v>
-      </c>
-      <c r="M16" s="44"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1">
+        <v>459</v>
+      </c>
+      <c r="M16" s="48"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="33" t="s">
         <v>55</v>
       </c>
@@ -9251,32 +10385,32 @@
         <v>229</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D17" s="33">
         <v>19</v>
       </c>
       <c r="E17" s="33"/>
       <c r="F17" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="K17" s="33"/>
       <c r="L17" s="33"/>
-      <c r="M17" s="44"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1">
+      <c r="M17" s="48"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="33" t="s">
         <v>56</v>
       </c>
@@ -9284,98 +10418,98 @@
         <v>230</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D18" s="33">
         <v>19</v>
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="K18" s="33"/>
       <c r="L18" s="33"/>
-      <c r="M18" s="44"/>
-    </row>
-    <row r="19" spans="1:13" ht="18" customHeight="1" thickBot="1">
+      <c r="M18" s="48"/>
+    </row>
+    <row r="19" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="33" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D19" s="33">
         <v>19</v>
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K19" s="33"/>
       <c r="L19" s="33"/>
-      <c r="M19" s="44"/>
-    </row>
-    <row r="20" spans="1:13" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="M19" s="48"/>
+    </row>
+    <row r="20" spans="1:13" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="33" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D20" s="33">
         <v>19</v>
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="K20" s="33"/>
       <c r="L20" s="33"/>
-      <c r="M20" s="44"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1">
+      <c r="M20" s="48"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="33" t="s">
         <v>12</v>
       </c>
@@ -9383,124 +10517,124 @@
         <v>221</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D21" s="33">
         <v>25</v>
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="K21" s="33"/>
       <c r="L21" s="33"/>
-      <c r="M21" s="44"/>
-    </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1">
+      <c r="M21" s="48"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="33" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D22" s="33">
         <v>20</v>
       </c>
       <c r="E22" s="33"/>
-      <c r="F22" s="39" t="s">
-        <v>429</v>
-      </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="41"/>
+      <c r="F22" s="43" t="s">
+        <v>425</v>
+      </c>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="45"/>
       <c r="K22" s="33"/>
       <c r="L22" s="33"/>
-      <c r="M22" s="44"/>
-    </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1">
+      <c r="M22" s="48"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="C23" s="33" t="s">
         <v>485</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>489</v>
       </c>
       <c r="D23" s="33">
         <v>20</v>
       </c>
       <c r="E23" s="33"/>
-      <c r="F23" s="39" t="s">
-        <v>430</v>
-      </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
-      <c r="M23" s="44"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1">
+      <c r="F23" s="43" t="s">
+        <v>426</v>
+      </c>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
+      <c r="M23" s="48"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="33" t="s">
         <v>109</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D24" s="33">
         <v>30</v>
       </c>
       <c r="E24" s="33"/>
-      <c r="F24" s="39" t="s">
-        <v>428</v>
-      </c>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="41"/>
-      <c r="M24" s="44"/>
-    </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1">
+      <c r="F24" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="45"/>
+      <c r="M24" s="48"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="33" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D25" s="33">
         <v>19</v>
       </c>
       <c r="E25" s="33"/>
-      <c r="F25" s="39" t="s">
-        <v>480</v>
-      </c>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="41"/>
-      <c r="M25" s="44"/>
+      <c r="F25" s="43" t="s">
+        <v>476</v>
+      </c>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="45"/>
+      <c r="M25" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9524,7 +10658,7 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -9553,7 +10687,7 @@
     <col min="25" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
@@ -9576,58 +10710,58 @@
         <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9701,7 +10835,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="I3" s="26"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
@@ -9711,20 +10845,20 @@
       <c r="O3" s="27"/>
       <c r="P3" s="16"/>
     </row>
-    <row r="4" spans="1:24">
-      <c r="I4" s="42" t="s">
-        <v>393</v>
-      </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-    </row>
-    <row r="5" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="I4" s="46" t="s">
+        <v>389</v>
+      </c>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>186</v>
       </c>
@@ -9732,10 +10866,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -9750,34 +10884,34 @@
         <v>193</v>
       </c>
       <c r="I5" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="K5" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="L5" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="M5" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="N5" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="O5" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="P5" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="O5" s="29" t="s">
+      <c r="Q5" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="P5" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q5" s="30" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>85</v>
       </c>
@@ -9785,34 +10919,34 @@
         <v>224</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E6" s="1">
         <v>8</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="P6" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
@@ -9820,34 +10954,34 @@
         <v>194</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E7" s="1">
         <v>8</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>86</v>
       </c>
@@ -9855,13 +10989,13 @@
         <v>222</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -9869,13 +11003,13 @@
         <v>188</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="23.4" customHeight="1">
+    <row r="10" spans="1:24" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -9883,265 +11017,265 @@
         <v>189</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E10" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E14" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E15" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E16" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E17" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E18" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E19" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E20" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E21" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E22" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E23" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E24" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E25" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E26" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E27" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E28" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>146</v>
       </c>
@@ -10149,7 +11283,7 @@
         <v>213</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E29" s="1">
         <v>20</v>
@@ -10171,7 +11305,7 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -10205,7 +11339,7 @@
     <col min="39" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -10321,7 +11455,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44593</v>
       </c>
@@ -10437,20 +11571,20 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
-      <c r="I4" s="42" t="s">
-        <v>393</v>
-      </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-    </row>
-    <row r="5" spans="1:38" ht="27" customHeight="1">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="I4" s="46" t="s">
+        <v>389</v>
+      </c>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+    </row>
+    <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>186</v>
       </c>
@@ -10458,10 +11592,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -10476,34 +11610,34 @@
         <v>193</v>
       </c>
       <c r="I5" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="K5" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="L5" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="M5" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="N5" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="O5" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="P5" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="O5" s="29" t="s">
+      <c r="Q5" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="P5" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q5" s="30" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" ht="27" customHeight="1">
+    </row>
+    <row r="6" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -10511,7 +11645,7 @@
         <v>188</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
@@ -10520,28 +11654,28 @@
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
       <c r="I6" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="P6" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -10549,7 +11683,7 @@
         <v>189</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E7" s="1">
         <v>50</v>
@@ -10558,28 +11692,28 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" ht="25.95" customHeight="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
@@ -10587,7 +11721,7 @@
         <v>224</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -10596,7 +11730,7 @@
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
@@ -10604,13 +11738,13 @@
         <v>194</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -10618,13 +11752,13 @@
         <v>195</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E10" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -10632,13 +11766,13 @@
         <v>196</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -10646,13 +11780,13 @@
         <v>197</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -10660,13 +11794,13 @@
         <v>198</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -10674,27 +11808,27 @@
         <v>199</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E15" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -10702,13 +11836,13 @@
         <v>200</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E16" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -10716,13 +11850,13 @@
         <v>201</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E17" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -10730,13 +11864,13 @@
         <v>202</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E18" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -10744,13 +11878,13 @@
         <v>203</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E19" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -10758,13 +11892,13 @@
         <v>205</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E20" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -10772,13 +11906,13 @@
         <v>204</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E21" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -10786,13 +11920,13 @@
         <v>206</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E22" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -10800,13 +11934,13 @@
         <v>207</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E23" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -10814,13 +11948,13 @@
         <v>209</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E24" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -10828,13 +11962,13 @@
         <v>210</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E25" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -10848,7 +11982,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -10862,7 +11996,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -10870,29 +12004,29 @@
         <v>212</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E28" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
@@ -10904,7 +12038,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -10916,7 +12050,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -10928,7 +12062,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
@@ -10940,7 +12074,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -10952,7 +12086,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>17</v>
       </c>
@@ -10964,7 +12098,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
@@ -10976,7 +12110,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -10988,7 +12122,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>20</v>
       </c>
@@ -11000,7 +12134,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -11012,7 +12146,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
@@ -11024,7 +12158,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>146</v>
       </c>
